--- a/MISSIONS/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSIONS/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\Mission_DCS\EX-MISSIONS\MISSIONS\CAMPAÑA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32F308-6F47-4E9D-A879-B8B97446E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303B145C-DCB6-45B3-8D78-9C9A9B9212EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="265">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -816,6 +816,30 @@
   </si>
   <si>
     <t>RB-15F</t>
+  </si>
+  <si>
+    <t>AN/AAQ-33 - Advance Targeting Pod</t>
+  </si>
+  <si>
+    <t>AN/AAQ-33 - Advance Targeting Pod / SNIPER</t>
+  </si>
+  <si>
+    <t>AN/AAQ-28 LITENING - Targeting Pod - (A10C-II, F16, F18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/AVQ-23 Pave Spike - Targeting Pod Rack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIC WMD7 FLIR/LDT POD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/ASQ-213 - HARM Targeting System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactial Airborne Recon Pod System </t>
+  </si>
+  <si>
+    <t>AN/APG-78 FCR/RFI</t>
   </si>
 </sst>
 </file>
@@ -826,7 +850,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,8 +947,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1900,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2163,31 +2194,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2195,15 +2208,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2289,19 +2293,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2318,35 +2313,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2370,306 +2338,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2697,60 +2370,130 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2760,14 +2503,419 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3109,12 +3257,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -3130,13 +3278,13 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="169"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4220,7 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="K38" s="121"/>
+      <c r="K38" s="112"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
@@ -4394,12 +4542,12 @@
       <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="177" t="s">
+      <c r="D1" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="158"/>
       <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
@@ -4414,7 +4562,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="192" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4450,7 +4598,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="213"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="63" t="s">
         <v>97</v>
       </c>
@@ -4484,7 +4632,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="213"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="63" t="s">
         <v>60</v>
       </c>
@@ -4518,7 +4666,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="213"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="63" t="s">
         <v>61</v>
       </c>
@@ -4552,7 +4700,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="213"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="63" t="s">
         <v>45</v>
       </c>
@@ -4586,7 +4734,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="213"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="63" t="s">
         <v>46</v>
       </c>
@@ -4620,7 +4768,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="63" t="s">
         <v>56</v>
       </c>
@@ -4654,7 +4802,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="63" t="s">
         <v>57</v>
       </c>
@@ -4688,7 +4836,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="213"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="63" t="s">
         <v>58</v>
       </c>
@@ -4722,7 +4870,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="213"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="63" t="s">
         <v>47</v>
       </c>
@@ -4756,7 +4904,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="213"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="63" t="s">
         <v>48</v>
       </c>
@@ -4778,7 +4926,7 @@
       <c r="H12" s="75">
         <v>1259</v>
       </c>
-      <c r="I12" s="180">
+      <c r="I12" s="159">
         <v>10000</v>
       </c>
       <c r="J12" s="71">
@@ -4790,7 +4938,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="213"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="63" t="s">
         <v>62</v>
       </c>
@@ -4824,7 +4972,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="213"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="63" t="s">
         <v>63</v>
       </c>
@@ -4858,7 +5006,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="213"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="63" t="s">
         <v>52</v>
       </c>
@@ -4892,7 +5040,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="213"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="63" t="s">
         <v>53</v>
       </c>
@@ -4926,7 +5074,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="213"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="64" t="s">
         <v>54</v>
       </c>
@@ -4960,7 +5108,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="213"/>
+      <c r="A18" s="193"/>
       <c r="B18" s="63" t="s">
         <v>55</v>
       </c>
@@ -4994,7 +5142,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="213"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
@@ -5028,7 +5176,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="213"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="63" t="s">
         <v>51</v>
       </c>
@@ -5062,7 +5210,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
+      <c r="A21" s="193"/>
       <c r="B21" s="63" t="s">
         <v>93</v>
       </c>
@@ -5096,7 +5244,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
+      <c r="A22" s="193"/>
       <c r="B22" s="63" t="s">
         <v>94</v>
       </c>
@@ -5130,7 +5278,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="193"/>
       <c r="B23" s="63" t="s">
         <v>95</v>
       </c>
@@ -5164,7 +5312,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="214"/>
+      <c r="A24" s="194"/>
       <c r="B24" s="65" t="s">
         <v>96</v>
       </c>
@@ -5198,7 +5346,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="184" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -5234,7 +5382,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="205"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -5268,7 +5416,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="205"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -5302,7 +5450,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -5336,7 +5484,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -5370,7 +5518,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="205"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -5404,7 +5552,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="205"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -5430,7 +5578,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="205"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
@@ -5456,7 +5604,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="205"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="16" t="s">
         <v>69</v>
       </c>
@@ -5482,7 +5630,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="205"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
@@ -5516,7 +5664,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="205"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -5550,7 +5698,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="205"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
@@ -5584,7 +5732,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="205"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="16" t="s">
         <v>71</v>
       </c>
@@ -5618,7 +5766,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="205"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="16" t="s">
         <v>68</v>
       </c>
@@ -5652,7 +5800,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="205"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5686,7 +5834,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="206"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5720,7 +5868,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="187" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="84" t="s">
@@ -5756,7 +5904,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="208"/>
+      <c r="A42" s="188"/>
       <c r="B42" s="85" t="s">
         <v>76</v>
       </c>
@@ -5790,7 +5938,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="209" t="s">
+      <c r="A43" s="189" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="82" t="s">
@@ -5818,7 +5966,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="210"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="83" t="s">
         <v>78</v>
       </c>
@@ -5852,7 +6000,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="210"/>
+      <c r="A45" s="190"/>
       <c r="B45" s="83" t="s">
         <v>79</v>
       </c>
@@ -5886,7 +6034,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="210"/>
+      <c r="A46" s="190"/>
       <c r="B46" s="83" t="s">
         <v>80</v>
       </c>
@@ -5920,7 +6068,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="210"/>
+      <c r="A47" s="190"/>
       <c r="B47" s="83" t="s">
         <v>81</v>
       </c>
@@ -5954,7 +6102,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="210"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="83" t="s">
         <v>82</v>
       </c>
@@ -5988,7 +6136,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="210"/>
+      <c r="A49" s="190"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
       </c>
@@ -6022,7 +6170,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="211"/>
+      <c r="A50" s="191"/>
       <c r="B50" s="89" t="s">
         <v>84</v>
       </c>
@@ -6056,10 +6204,10 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="278" t="s">
+      <c r="A51" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="117" t="s">
+      <c r="B51" s="111" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="87">
@@ -6092,7 +6240,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="279"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="105" t="s">
         <v>99</v>
       </c>
@@ -6126,11 +6274,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="280"/>
-      <c r="B53" s="283" t="s">
+      <c r="A53" s="183"/>
+      <c r="B53" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="287">
+      <c r="C53" s="167">
         <v>2</v>
       </c>
       <c r="D53" s="34">
@@ -6142,16 +6290,16 @@
       <c r="F53" s="17">
         <v>34</v>
       </c>
-      <c r="G53" s="288">
+      <c r="G53" s="168">
         <v>291</v>
       </c>
-      <c r="H53" s="289">
+      <c r="H53" s="169">
         <v>1300</v>
       </c>
-      <c r="I53" s="290">
+      <c r="I53" s="170">
         <v>65000</v>
       </c>
-      <c r="J53" s="141">
+      <c r="J53" s="132">
         <v>0</v>
       </c>
       <c r="K53" s="69">
@@ -6160,10 +6308,10 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="281" t="s">
+      <c r="A54" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="286" t="s">
+      <c r="B54" s="166" t="s">
         <v>249</v>
       </c>
       <c r="C54" s="35">
@@ -6196,8 +6344,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="282"/>
-      <c r="B55" s="286" t="s">
+      <c r="A55" s="180"/>
+      <c r="B55" s="166" t="s">
         <v>250</v>
       </c>
       <c r="C55" s="38">
@@ -6230,35 +6378,35 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="194"/>
-      <c r="I56" s="291" t="s">
+      <c r="H56" s="162"/>
+      <c r="I56" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="292"/>
-      <c r="K56" s="293">
+      <c r="J56" s="172"/>
+      <c r="K56" s="173">
         <f>SUM(K2:K55)</f>
         <v>4800000</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I57" s="174"/>
-      <c r="J57" s="175"/>
-      <c r="K57" s="176"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="155"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G58" s="194"/>
+      <c r="G58" s="162"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K59" s="160"/>
+      <c r="K59" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A24"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A25:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A2:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6272,7 +6420,7 @@
   </sheetPr>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I61" sqref="I61:J62"/>
     </sheetView>
   </sheetViews>
@@ -6288,19 +6436,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124"/>
+      <c r="A1" s="115"/>
       <c r="B1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="219" t="s">
+      <c r="D1" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="221"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
@@ -6308,12 +6456,12 @@
       <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="113" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="212" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -6322,7 +6470,7 @@
       <c r="C2" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="125">
+      <c r="D2" s="116">
         <v>4</v>
       </c>
       <c r="E2" s="18">
@@ -6349,14 +6497,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="296"/>
+      <c r="A3" s="213"/>
       <c r="B3" s="63" t="s">
         <v>201</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="126">
+      <c r="D3" s="117">
         <v>4</v>
       </c>
       <c r="E3" s="4">
@@ -6372,7 +6520,7 @@
       <c r="I3" s="94">
         <v>1200</v>
       </c>
-      <c r="J3" s="294">
+      <c r="J3" s="174">
         <v>0</v>
       </c>
       <c r="K3" s="40">
@@ -6380,14 +6528,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="296"/>
+      <c r="A4" s="213"/>
       <c r="B4" s="63" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="134">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -6414,14 +6562,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="296"/>
+      <c r="A5" s="213"/>
       <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="134">
         <v>4</v>
       </c>
       <c r="E5" s="2">
@@ -6448,14 +6596,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="296"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="63" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="134">
         <v>4</v>
       </c>
       <c r="E6" s="2">
@@ -6482,14 +6630,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="296"/>
+      <c r="A7" s="213"/>
       <c r="B7" s="63" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="134">
         <v>4</v>
       </c>
       <c r="E7" s="2">
@@ -6516,14 +6664,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="296"/>
+      <c r="A8" s="213"/>
       <c r="B8" s="63" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="134">
         <v>4</v>
       </c>
       <c r="E8" s="2">
@@ -6550,14 +6698,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="296"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="63" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="134">
         <v>4</v>
       </c>
       <c r="E9" s="2">
@@ -6584,14 +6732,14 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="296"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="63" t="s">
         <v>205</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="134">
         <v>4</v>
       </c>
       <c r="E10" s="2">
@@ -6618,14 +6766,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="296"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="63" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="134">
         <v>4</v>
       </c>
       <c r="E11" s="2">
@@ -6652,14 +6800,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="296"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="63" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="134">
         <v>4</v>
       </c>
       <c r="E12" s="2">
@@ -6685,14 +6833,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="296"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="63" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="134">
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -6718,14 +6866,14 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="296"/>
+      <c r="A14" s="213"/>
       <c r="B14" s="63" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="134">
         <v>4</v>
       </c>
       <c r="E14" s="2">
@@ -6752,14 +6900,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="296"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="63" t="s">
         <v>163</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="134">
         <v>4</v>
       </c>
       <c r="E15" s="2">
@@ -6786,14 +6934,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="296"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="63" t="s">
         <v>164</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="134">
         <v>4</v>
       </c>
       <c r="E16" s="2">
@@ -6820,14 +6968,14 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="296"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="63" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="143">
+      <c r="D17" s="134">
         <v>4</v>
       </c>
       <c r="E17" s="2">
@@ -6854,14 +7002,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="296"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="63" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="134">
         <v>4</v>
       </c>
       <c r="E18" s="2">
@@ -6888,14 +7036,14 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="296"/>
+      <c r="A19" s="213"/>
       <c r="B19" s="63" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="134">
         <v>4</v>
       </c>
       <c r="E19" s="2">
@@ -6922,14 +7070,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="296"/>
+      <c r="A20" s="213"/>
       <c r="B20" s="63" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="143">
+      <c r="D20" s="134">
         <v>4</v>
       </c>
       <c r="E20" s="2">
@@ -6956,14 +7104,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="296"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="63" t="s">
         <v>169</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="143">
+      <c r="D21" s="134">
         <v>4</v>
       </c>
       <c r="E21" s="2">
@@ -6990,14 +7138,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="296"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="63" t="s">
         <v>170</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="143">
+      <c r="D22" s="134">
         <v>4</v>
       </c>
       <c r="E22" s="2">
@@ -7024,14 +7172,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="296"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="63" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="134">
         <v>4</v>
       </c>
       <c r="E23" s="2">
@@ -7058,14 +7206,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="296"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="63" t="s">
         <v>245</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="134">
         <v>4</v>
       </c>
       <c r="E24" s="2">
@@ -7092,14 +7240,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="296"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="63" t="s">
         <v>246</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="143">
+      <c r="D25" s="134">
         <v>4</v>
       </c>
       <c r="E25" s="2">
@@ -7126,14 +7274,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="296"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="63" t="s">
         <v>207</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="143">
+      <c r="D26" s="134">
         <v>4</v>
       </c>
       <c r="E26" s="2">
@@ -7160,14 +7308,14 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="296"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="63" t="s">
         <v>171</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="143">
+      <c r="D27" s="134">
         <v>4</v>
       </c>
       <c r="E27" s="2">
@@ -7194,14 +7342,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="296"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="63" t="s">
         <v>172</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="143">
+      <c r="D28" s="134">
         <v>4</v>
       </c>
       <c r="E28" s="2">
@@ -7228,14 +7376,14 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="296"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="65" t="s">
         <v>173</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="145">
+      <c r="D29" s="136">
         <v>4</v>
       </c>
       <c r="E29" s="19">
@@ -7262,10 +7410,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="222" t="s">
+      <c r="A30" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="142" t="s">
         <v>184</v>
       </c>
       <c r="C30" s="42" t="s">
@@ -7298,8 +7446,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="222"/>
-      <c r="B31" s="148" t="s">
+      <c r="A31" s="204"/>
+      <c r="B31" s="139" t="s">
         <v>185</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -7332,8 +7480,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="222"/>
-      <c r="B32" s="148" t="s">
+      <c r="A32" s="204"/>
+      <c r="B32" s="139" t="s">
         <v>186</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -7366,8 +7514,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="222"/>
-      <c r="B33" s="148" t="s">
+      <c r="A33" s="204"/>
+      <c r="B33" s="139" t="s">
         <v>187</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -7400,8 +7548,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="222"/>
-      <c r="B34" s="148" t="s">
+      <c r="A34" s="204"/>
+      <c r="B34" s="139" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -7434,8 +7582,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="222"/>
-      <c r="B35" s="148" t="s">
+      <c r="A35" s="204"/>
+      <c r="B35" s="139" t="s">
         <v>189</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -7468,8 +7616,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="222"/>
-      <c r="B36" s="148" t="s">
+      <c r="A36" s="204"/>
+      <c r="B36" s="139" t="s">
         <v>190</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -7502,8 +7650,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="222"/>
-      <c r="B37" s="148" t="s">
+      <c r="A37" s="204"/>
+      <c r="B37" s="139" t="s">
         <v>227</v>
       </c>
       <c r="C37" s="36" t="s">
@@ -7536,8 +7684,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="222"/>
-      <c r="B38" s="148" t="s">
+      <c r="A38" s="204"/>
+      <c r="B38" s="139" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -7570,8 +7718,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="222"/>
-      <c r="B39" s="148" t="s">
+      <c r="A39" s="204"/>
+      <c r="B39" s="139" t="s">
         <v>225</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -7604,8 +7752,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="222"/>
-      <c r="B40" s="148" t="s">
+      <c r="A40" s="204"/>
+      <c r="B40" s="139" t="s">
         <v>193</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -7638,8 +7786,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="222"/>
-      <c r="B41" s="148" t="s">
+      <c r="A41" s="204"/>
+      <c r="B41" s="139" t="s">
         <v>226</v>
       </c>
       <c r="C41" s="36" t="s">
@@ -7670,11 +7818,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="121"/>
+      <c r="L41" s="112"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="222"/>
-      <c r="B42" s="148" t="s">
+      <c r="A42" s="204"/>
+      <c r="B42" s="139" t="s">
         <v>194</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -7707,8 +7855,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="223"/>
-      <c r="B43" s="153" t="s">
+      <c r="A43" s="205"/>
+      <c r="B43" s="143" t="s">
         <v>195</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7741,10 +7889,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="224" t="s">
+      <c r="A44" s="206" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="144" t="s">
         <v>198</v>
       </c>
       <c r="C44" s="35" t="s">
@@ -7777,8 +7925,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="225"/>
-      <c r="B45" s="149" t="s">
+      <c r="A45" s="207"/>
+      <c r="B45" s="140" t="s">
         <v>199</v>
       </c>
       <c r="C45" s="36" t="s">
@@ -7811,8 +7959,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="225"/>
-      <c r="B46" s="149" t="s">
+      <c r="A46" s="207"/>
+      <c r="B46" s="140" t="s">
         <v>200</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -7845,8 +7993,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="225"/>
-      <c r="B47" s="149" t="s">
+      <c r="A47" s="207"/>
+      <c r="B47" s="140" t="s">
         <v>174</v>
       </c>
       <c r="C47" s="36" t="s">
@@ -7879,8 +8027,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="225"/>
-      <c r="B48" s="149" t="s">
+      <c r="A48" s="207"/>
+      <c r="B48" s="140" t="s">
         <v>175</v>
       </c>
       <c r="C48" s="36" t="s">
@@ -7913,8 +8061,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="225"/>
-      <c r="B49" s="149" t="s">
+      <c r="A49" s="207"/>
+      <c r="B49" s="140" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -7947,8 +8095,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="225"/>
-      <c r="B50" s="149" t="s">
+      <c r="A50" s="207"/>
+      <c r="B50" s="140" t="s">
         <v>177</v>
       </c>
       <c r="C50" s="36" t="s">
@@ -7981,8 +8129,8 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="226"/>
-      <c r="B51" s="162" t="s">
+      <c r="A51" s="208"/>
+      <c r="B51" s="150" t="s">
         <v>180</v>
       </c>
       <c r="C51" s="38" t="s">
@@ -8006,19 +8154,19 @@
       <c r="I51" s="69">
         <v>35000</v>
       </c>
-      <c r="J51" s="141">
-        <v>0</v>
-      </c>
-      <c r="K51" s="157">
+      <c r="J51" s="132">
+        <v>0</v>
+      </c>
+      <c r="K51" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="227" t="s">
+      <c r="A52" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="B52" s="108" t="s">
         <v>178</v>
       </c>
       <c r="C52" s="35" t="s">
@@ -8043,8 +8191,8 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="228"/>
-      <c r="B53" s="150" t="s">
+      <c r="A53" s="210"/>
+      <c r="B53" s="141" t="s">
         <v>204</v>
       </c>
       <c r="C53" s="36" t="s">
@@ -8077,8 +8225,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="228"/>
-      <c r="B54" s="150" t="s">
+      <c r="A54" s="210"/>
+      <c r="B54" s="141" t="s">
         <v>251</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -8111,8 +8259,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="228"/>
-      <c r="B55" s="150" t="s">
+      <c r="A55" s="210"/>
+      <c r="B55" s="141" t="s">
         <v>179</v>
       </c>
       <c r="C55" s="36" t="s">
@@ -8143,11 +8291,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L55" s="121"/>
+      <c r="L55" s="112"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="229"/>
-      <c r="B56" s="283" t="s">
+      <c r="A56" s="211"/>
+      <c r="B56" s="163" t="s">
         <v>229</v>
       </c>
       <c r="C56" s="37" t="s">
@@ -8171,25 +8319,25 @@
       <c r="I56" s="69">
         <v>80000</v>
       </c>
-      <c r="J56" s="141">
-        <v>0</v>
-      </c>
-      <c r="K56" s="157">
+      <c r="J56" s="132">
+        <v>0</v>
+      </c>
+      <c r="K56" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="312" t="s">
+      <c r="A57" s="214" t="s">
         <v>248</v>
       </c>
-      <c r="B57" s="284" t="s">
+      <c r="B57" s="164" t="s">
         <v>253</v>
       </c>
       <c r="C57" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="125">
+      <c r="D57" s="116">
         <v>4</v>
       </c>
       <c r="E57" s="18">
@@ -8216,14 +8364,14 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="313"/>
-      <c r="B58" s="311" t="s">
+      <c r="A58" s="215"/>
+      <c r="B58" s="175" t="s">
         <v>254</v>
       </c>
       <c r="C58" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="143">
+      <c r="D58" s="134">
         <v>4</v>
       </c>
       <c r="E58" s="2">
@@ -8250,14 +8398,14 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="313"/>
-      <c r="B59" s="311" t="s">
+      <c r="A59" s="215"/>
+      <c r="B59" s="175" t="s">
         <v>255</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="143">
+      <c r="D59" s="134">
         <v>4</v>
       </c>
       <c r="E59" s="2">
@@ -8284,14 +8432,14 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="314"/>
-      <c r="B60" s="285" t="s">
+      <c r="A60" s="216"/>
+      <c r="B60" s="165" t="s">
         <v>256</v>
       </c>
       <c r="C60" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="145">
+      <c r="D60" s="136">
         <v>4</v>
       </c>
       <c r="E60" s="19">
@@ -8318,26 +8466,26 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="317"/>
-      <c r="I61" s="230" t="s">
+      <c r="B61" s="176"/>
+      <c r="I61" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="J61" s="310"/>
-      <c r="K61" s="217">
+      <c r="J61" s="196"/>
+      <c r="K61" s="199">
         <f>SUM(K2:K60)</f>
         <v>2200000</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I62" s="215"/>
-      <c r="J62" s="216"/>
-      <c r="K62" s="218"/>
+      <c r="I62" s="197"/>
+      <c r="J62" s="198"/>
+      <c r="K62" s="200"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H63" s="194"/>
+      <c r="H63" s="162"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="194"/>
+      <c r="H65" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8360,10 +8508,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8377,16 +8525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124"/>
+      <c r="A1" s="115"/>
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="219" t="s">
+      <c r="C1" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="221"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="203"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
@@ -8401,13 +8549,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="219" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="125">
+      <c r="C2" s="116">
         <v>1</v>
       </c>
       <c r="D2" s="18">
@@ -8432,11 +8580,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="234"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="117">
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -8456,16 +8604,16 @@
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="53">
-        <f t="shared" ref="J3:J40" si="0">H3*I3</f>
+        <f t="shared" ref="J3:J41" si="0">H3*I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="234"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="117">
         <v>1</v>
       </c>
       <c r="D4" s="4">
@@ -8490,11 +8638,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="234"/>
-      <c r="B5" s="127" t="s">
+      <c r="A5" s="220"/>
+      <c r="B5" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="117">
         <v>1</v>
       </c>
       <c r="D5" s="4">
@@ -8519,11 +8667,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="234"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="117">
         <v>1</v>
       </c>
       <c r="D6" s="4">
@@ -8548,11 +8696,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="234"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="117">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -8577,11 +8725,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="234"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="117">
         <v>1</v>
       </c>
       <c r="D8" s="4">
@@ -8606,11 +8754,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="234"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="117">
         <v>1</v>
       </c>
       <c r="D9" s="4">
@@ -8635,11 +8783,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="234"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="117">
         <v>1</v>
       </c>
       <c r="D10" s="4">
@@ -8664,11 +8812,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="234"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="117">
         <v>1</v>
       </c>
       <c r="D11" s="4">
@@ -8693,11 +8841,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="234"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="117">
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -8722,11 +8870,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="117">
         <v>1</v>
       </c>
       <c r="D13" s="4">
@@ -8751,11 +8899,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="234"/>
+      <c r="A14" s="220"/>
       <c r="B14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="117">
         <v>1</v>
       </c>
       <c r="D14" s="4">
@@ -8780,11 +8928,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="234"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="117">
         <v>1</v>
       </c>
       <c r="D15" s="4">
@@ -8809,11 +8957,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="234"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="117">
         <v>1</v>
       </c>
       <c r="D16" s="4">
@@ -8838,11 +8986,11 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="234"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="117">
         <v>1</v>
       </c>
       <c r="D17" s="4">
@@ -8867,11 +9015,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="234"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="117">
         <v>1</v>
       </c>
       <c r="D18" s="4">
@@ -8896,23 +9044,23 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="235"/>
-      <c r="B19" s="146" t="s">
+      <c r="A19" s="221"/>
+      <c r="B19" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="138">
-        <v>1</v>
-      </c>
-      <c r="D19" s="139">
+      <c r="C19" s="129">
+        <v>1</v>
+      </c>
+      <c r="D19" s="130">
         <v>3</v>
       </c>
-      <c r="E19" s="139">
+      <c r="E19" s="130">
         <v>43</v>
       </c>
       <c r="F19" s="33">
         <v>855</v>
       </c>
-      <c r="G19" s="142">
+      <c r="G19" s="133">
         <v>1267</v>
       </c>
       <c r="H19" s="55">
@@ -8925,13 +9073,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="236" t="s">
+      <c r="A20" s="222" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="116">
         <v>4</v>
       </c>
       <c r="D20" s="18">
@@ -8956,11 +9104,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="237"/>
+      <c r="A21" s="223"/>
       <c r="B21" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="143">
+      <c r="C21" s="134">
         <v>4</v>
       </c>
       <c r="D21" s="2">
@@ -8985,11 +9133,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
+      <c r="A22" s="223"/>
       <c r="B22" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="143">
+      <c r="C22" s="134">
         <v>4</v>
       </c>
       <c r="D22" s="2">
@@ -9014,11 +9162,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="237"/>
+      <c r="A23" s="223"/>
       <c r="B23" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="143">
+      <c r="C23" s="134">
         <v>4</v>
       </c>
       <c r="D23" s="2">
@@ -9043,11 +9191,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="237"/>
+      <c r="A24" s="223"/>
       <c r="B24" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="143">
+      <c r="C24" s="134">
         <v>4</v>
       </c>
       <c r="D24" s="2">
@@ -9072,11 +9220,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
+      <c r="A25" s="223"/>
       <c r="B25" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="144">
+      <c r="C25" s="135">
         <v>4</v>
       </c>
       <c r="D25" s="17">
@@ -9094,18 +9242,18 @@
       <c r="H25" s="69">
         <v>720000</v>
       </c>
-      <c r="I25" s="141"/>
+      <c r="I25" s="132"/>
       <c r="J25" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
+      <c r="A26" s="223"/>
       <c r="B26" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="144">
+      <c r="C26" s="135">
         <v>4</v>
       </c>
       <c r="D26" s="17">
@@ -9123,18 +9271,18 @@
       <c r="H26" s="69">
         <v>900000</v>
       </c>
-      <c r="I26" s="141"/>
+      <c r="I26" s="132"/>
       <c r="J26" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="145">
+      <c r="C27" s="136">
         <v>4</v>
       </c>
       <c r="D27" s="19">
@@ -9159,10 +9307,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="239" t="s">
+      <c r="A28" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="121" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="30">
@@ -9174,7 +9322,7 @@
       <c r="E28" s="4">
         <v>48</v>
       </c>
-      <c r="F28" s="140">
+      <c r="F28" s="131">
         <v>1170</v>
       </c>
       <c r="G28" s="42">
@@ -9190,8 +9338,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="129" t="s">
+      <c r="A29" s="226"/>
+      <c r="B29" s="120" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="25">
@@ -9219,8 +9367,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="240"/>
-      <c r="B30" s="129" t="s">
+      <c r="A30" s="226"/>
+      <c r="B30" s="120" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="25">
@@ -9248,8 +9396,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="241"/>
-      <c r="B31" s="131" t="s">
+      <c r="A31" s="227"/>
+      <c r="B31" s="122" t="s">
         <v>138</v>
       </c>
       <c r="C31" s="27">
@@ -9264,7 +9412,7 @@
       <c r="F31" s="28">
         <v>666</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G31" s="114">
         <v>1277</v>
       </c>
       <c r="H31" s="55">
@@ -9277,10 +9425,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="242" t="s">
+      <c r="A32" s="228" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="119" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="23">
@@ -9310,8 +9458,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="243"/>
-      <c r="B33" s="129" t="s">
+      <c r="A33" s="229"/>
+      <c r="B33" s="120" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="25">
@@ -9341,8 +9489,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="243"/>
-      <c r="B34" s="129" t="s">
+      <c r="A34" s="229"/>
+      <c r="B34" s="120" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="25">
@@ -9372,8 +9520,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="243"/>
-      <c r="B35" s="129" t="s">
+      <c r="A35" s="229"/>
+      <c r="B35" s="120" t="s">
         <v>134</v>
       </c>
       <c r="C35" s="25">
@@ -9403,8 +9551,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="243"/>
-      <c r="B36" s="129" t="s">
+      <c r="A36" s="229"/>
+      <c r="B36" s="120" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="25">
@@ -9434,8 +9582,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="243"/>
-      <c r="B37" s="129" t="s">
+      <c r="A37" s="229"/>
+      <c r="B37" s="120" t="s">
         <v>192</v>
       </c>
       <c r="C37" s="25">
@@ -9465,9 +9613,9 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="243"/>
-      <c r="B38" s="129" t="s">
-        <v>130</v>
+      <c r="A38" s="229"/>
+      <c r="B38" s="120" t="s">
+        <v>257</v>
       </c>
       <c r="C38" s="25">
         <v>4</v>
@@ -9479,143 +9627,149 @@
         <v>44</v>
       </c>
       <c r="F38" s="26">
+        <v>2723</v>
+      </c>
+      <c r="G38" s="42">
+        <v>1800</v>
+      </c>
+      <c r="H38" s="53">
+        <v>7000000</v>
+      </c>
+      <c r="I38" s="71"/>
+      <c r="J38" s="53"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="229"/>
+      <c r="B39" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="25">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44</v>
+      </c>
+      <c r="F39" s="26">
         <v>2286</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G39" s="42">
         <v>1283</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H39" s="53">
         <v>1750000</v>
       </c>
-      <c r="I38" s="71">
-        <v>0</v>
-      </c>
-      <c r="J38" s="53">
+      <c r="I39" s="71">
+        <v>0</v>
+      </c>
+      <c r="J39" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="244"/>
-      <c r="B39" s="131" t="s">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="230"/>
+      <c r="B40" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="27">
-        <v>4</v>
-      </c>
-      <c r="D39" s="19">
+      <c r="C40" s="27">
+        <v>4</v>
+      </c>
+      <c r="D40" s="19">
         <v>15</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="19">
         <v>44</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F40" s="28">
         <v>2114</v>
       </c>
-      <c r="G39" s="123">
+      <c r="G40" s="114">
         <v>1284</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H40" s="55">
         <v>3200000</v>
       </c>
-      <c r="I39" s="72">
-        <v>0</v>
-      </c>
-      <c r="J39" s="55">
+      <c r="I40" s="72">
+        <v>0</v>
+      </c>
+      <c r="J40" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+    <row r="41" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="134" t="s">
+      <c r="B41" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="7">
-        <v>4</v>
-      </c>
-      <c r="D40" s="132">
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="123">
         <v>15</v>
       </c>
-      <c r="E40" s="132">
+      <c r="E41" s="123">
         <v>46</v>
       </c>
-      <c r="F40" s="135">
+      <c r="F41" s="126">
         <v>1919</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>1285</v>
       </c>
-      <c r="H40" s="136">
+      <c r="H41" s="127">
         <v>250000</v>
       </c>
-      <c r="I40" s="109"/>
-      <c r="J40" s="137">
+      <c r="I41" s="106"/>
+      <c r="J41" s="128">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H41" s="230" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="231"/>
-      <c r="J41" s="217">
-        <f>SUM(J2:J40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="215"/>
-      <c r="I42" s="232"/>
-      <c r="J42" s="218"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="161" t="s">
+      <c r="I42" s="217"/>
+      <c r="J42" s="199">
+        <f>SUM(J2:J41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="197"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="200"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="23">
-        <v>4</v>
-      </c>
-      <c r="D45" s="18">
+      <c r="C46" s="23">
+        <v>4</v>
+      </c>
+      <c r="D46" s="18">
         <v>15</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E46" s="18">
         <v>46</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F46" s="24">
         <v>2607</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G46" s="35">
         <v>1298</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="158" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="146" t="s">
         <v>209</v>
-      </c>
-      <c r="C46" s="25">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2">
-        <v>15</v>
-      </c>
-      <c r="E46" s="2">
-        <v>46</v>
-      </c>
-      <c r="F46" s="26">
-        <v>160</v>
-      </c>
-      <c r="G46" s="36">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="158" t="s">
-        <v>210</v>
       </c>
       <c r="C47" s="25">
         <v>4</v>
@@ -9627,15 +9781,15 @@
         <v>46</v>
       </c>
       <c r="F47" s="26">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G47" s="36">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="158" t="s">
-        <v>212</v>
+      <c r="B48" s="146" t="s">
+        <v>210</v>
       </c>
       <c r="C48" s="25">
         <v>4</v>
@@ -9647,15 +9801,15 @@
         <v>46</v>
       </c>
       <c r="F48" s="26">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G48" s="36">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="158" t="s">
-        <v>211</v>
+      <c r="B49" s="146" t="s">
+        <v>212</v>
       </c>
       <c r="C49" s="25">
         <v>4</v>
@@ -9667,15 +9821,15 @@
         <v>46</v>
       </c>
       <c r="F49" s="26">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" s="36">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="158" t="s">
-        <v>213</v>
+      <c r="B50" s="146" t="s">
+        <v>211</v>
       </c>
       <c r="C50" s="25">
         <v>4</v>
@@ -9687,14 +9841,14 @@
         <v>46</v>
       </c>
       <c r="F50" s="26">
-        <v>2491</v>
+        <v>175</v>
       </c>
       <c r="G50" s="36">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C51" s="25">
@@ -9707,14 +9861,14 @@
         <v>46</v>
       </c>
       <c r="F51" s="26">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G51" s="36">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="158" t="s">
+      <c r="B52" s="146" t="s">
         <v>213</v>
       </c>
       <c r="C52" s="25">
@@ -9727,16 +9881,15 @@
         <v>46</v>
       </c>
       <c r="F52" s="26">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G52" s="36">
-        <v>1305</v>
-      </c>
-      <c r="H52" s="160"/>
+        <v>1304</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="158" t="s">
-        <v>214</v>
+      <c r="B53" s="146" t="s">
+        <v>213</v>
       </c>
       <c r="C53" s="25">
         <v>4</v>
@@ -9745,19 +9898,19 @@
         <v>15</v>
       </c>
       <c r="E53" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F53" s="26">
-        <v>1100</v>
+        <v>2493</v>
       </c>
       <c r="G53" s="36">
-        <v>1306</v>
-      </c>
-      <c r="I53" s="121"/>
+        <v>1305</v>
+      </c>
+      <c r="H53" s="148"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="158" t="s">
-        <v>215</v>
+      <c r="B54" s="146" t="s">
+        <v>214</v>
       </c>
       <c r="C54" s="25">
         <v>4</v>
@@ -9769,15 +9922,16 @@
         <v>47</v>
       </c>
       <c r="F54" s="26">
-        <v>680</v>
+        <v>1100</v>
       </c>
       <c r="G54" s="36">
-        <v>1307</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="I54" s="112"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="158" t="s">
-        <v>216</v>
+      <c r="B55" s="146" t="s">
+        <v>215</v>
       </c>
       <c r="C55" s="25">
         <v>4</v>
@@ -9789,15 +9943,15 @@
         <v>47</v>
       </c>
       <c r="F55" s="26">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G55" s="36">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="158" t="s">
-        <v>217</v>
+      <c r="B56" s="146" t="s">
+        <v>216</v>
       </c>
       <c r="C56" s="25">
         <v>4</v>
@@ -9806,20 +9960,18 @@
         <v>15</v>
       </c>
       <c r="E56" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56" s="26">
-        <v>1767</v>
+        <v>679</v>
       </c>
       <c r="G56" s="36">
-        <v>1309</v>
-      </c>
-      <c r="H56" s="160"/>
-      <c r="I56" s="121"/>
+        <v>1308</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="158" t="s">
-        <v>218</v>
+      <c r="B57" s="146" t="s">
+        <v>217</v>
       </c>
       <c r="C57" s="25">
         <v>4</v>
@@ -9831,36 +9983,37 @@
         <v>46</v>
       </c>
       <c r="F57" s="26">
+        <v>1767</v>
+      </c>
+      <c r="G57" s="36">
+        <v>1309</v>
+      </c>
+      <c r="H57" s="148"/>
+      <c r="I57" s="112"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="25">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2">
+        <v>46</v>
+      </c>
+      <c r="F58" s="26">
         <v>1294</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G58" s="36">
         <v>1310</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="158" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="146" t="s">
         <v>219</v>
-      </c>
-      <c r="C58" s="25">
-        <v>4</v>
-      </c>
-      <c r="D58" s="2">
-        <v>5</v>
-      </c>
-      <c r="E58" s="2">
-        <v>32</v>
-      </c>
-      <c r="F58" s="26">
-        <v>2592</v>
-      </c>
-      <c r="G58" s="36">
-        <v>1311</v>
-      </c>
-      <c r="H58" s="160"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="158" t="s">
-        <v>220</v>
       </c>
       <c r="C59" s="25">
         <v>4</v>
@@ -9872,16 +10025,16 @@
         <v>32</v>
       </c>
       <c r="F59" s="26">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="G59" s="36">
-        <v>1312</v>
-      </c>
-      <c r="I59" s="121"/>
+        <v>1311</v>
+      </c>
+      <c r="H59" s="148"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="158" t="s">
-        <v>221</v>
+      <c r="B60" s="146" t="s">
+        <v>220</v>
       </c>
       <c r="C60" s="25">
         <v>4</v>
@@ -9893,15 +10046,16 @@
         <v>32</v>
       </c>
       <c r="F60" s="26">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="G60" s="36">
-        <v>1313</v>
-      </c>
+        <v>1312</v>
+      </c>
+      <c r="I60" s="112"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="158" t="s">
-        <v>222</v>
+      <c r="B61" s="146" t="s">
+        <v>221</v>
       </c>
       <c r="C61" s="25">
         <v>4</v>
@@ -9913,16 +10067,15 @@
         <v>32</v>
       </c>
       <c r="F61" s="26">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="G61" s="36">
-        <v>1314</v>
-      </c>
-      <c r="I61" s="121"/>
+        <v>1313</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="158" t="s">
-        <v>223</v>
+      <c r="B62" s="146" t="s">
+        <v>222</v>
       </c>
       <c r="C62" s="25">
         <v>4</v>
@@ -9934,41 +10087,62 @@
         <v>32</v>
       </c>
       <c r="F62" s="26">
+        <v>2592</v>
+      </c>
+      <c r="G62" s="36">
+        <v>1314</v>
+      </c>
+      <c r="I62" s="112"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="25">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>32</v>
+      </c>
+      <c r="F63" s="26">
         <v>2596</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G63" s="36">
         <v>1315</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="159" t="s">
+    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="C63" s="27">
-        <v>4</v>
-      </c>
-      <c r="D63" s="19">
+      <c r="C64" s="27">
+        <v>4</v>
+      </c>
+      <c r="D64" s="19">
         <v>5</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="19">
         <v>32</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F64" s="28">
         <v>2595</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G64" s="38">
         <v>1316</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="J42:J43"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A32:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9982,583 +10156,572 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="186" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="21.28515625" style="110" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="160" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="183" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="254" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="257" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="301">
+      <c r="C2" s="259">
         <f>+AA!I2</f>
         <v>25000</v>
       </c>
-      <c r="D2" s="302">
+      <c r="D2" s="260">
         <v>20</v>
       </c>
-      <c r="E2" s="247">
+      <c r="E2" s="261">
         <v>1360000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="300" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="286" t="s">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="262" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="304">
+      <c r="B3" s="263"/>
+      <c r="C3" s="264">
         <v>28000</v>
       </c>
-      <c r="D3" s="303">
+      <c r="D3" s="265">
         <v>20</v>
       </c>
-      <c r="E3" s="251"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="E3" s="266"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="298">
+      <c r="B4" s="268"/>
+      <c r="C4" s="269">
         <f>+AA!I4</f>
         <v>32000</v>
       </c>
-      <c r="D4" s="287">
+      <c r="D4" s="270">
         <v>10</v>
       </c>
-      <c r="E4" s="248"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="E4" s="271"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="257" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="305">
+      <c r="C5" s="272">
         <f>+AA!I8</f>
         <v>120000</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="273">
         <v>20</v>
       </c>
-      <c r="E5" s="255">
+      <c r="E5" s="274">
         <v>4800000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="286" t="s">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="262" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="306">
+      <c r="B6" s="263"/>
+      <c r="C6" s="275">
         <v>110000</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="276">
         <v>10</v>
       </c>
-      <c r="E6" s="256"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
+      <c r="E6" s="277"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="307">
+      <c r="B7" s="268"/>
+      <c r="C7" s="278">
         <f>+AA!I9</f>
         <v>130000</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="279">
         <v>10</v>
       </c>
-      <c r="E7" s="308"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="E7" s="280"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="257" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="282">
         <f>+AA!I6</f>
         <v>110000</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="283">
         <v>20</v>
       </c>
-      <c r="E8" s="247">
+      <c r="E8" s="261">
         <f>+(C8*D8)+(C9*D9)</f>
         <v>3350000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="182">
+      <c r="B9" s="284"/>
+      <c r="C9" s="282">
         <f>+AA!I7</f>
         <v>115000</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="285">
         <v>10</v>
       </c>
-      <c r="E9" s="248"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="E9" s="271"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="286" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="309">
+      <c r="C10" s="288">
         <v>325000</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="255">
         <v>10</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="289">
         <f t="shared" ref="E10" si="0">C10*D10</f>
         <v>3250000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="219" t="s">
+      <c r="B11" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="301">
+      <c r="C11" s="259">
         <f>+AA!I29</f>
         <v>27000</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="265">
         <v>20</v>
       </c>
-      <c r="E11" s="247">
+      <c r="E11" s="261">
         <f>+(C11*D11)+(C12*D12)</f>
         <v>1690000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="291" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="298">
+      <c r="B12" s="268"/>
+      <c r="C12" s="269">
         <f>+AA!I39</f>
         <v>115000</v>
       </c>
-      <c r="D12" s="287">
+      <c r="D12" s="270">
         <v>10</v>
       </c>
-      <c r="E12" s="248"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="E12" s="271"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="292" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="187">
+      <c r="C13" s="293">
         <f>+AA!I47</f>
         <v>76000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="294">
         <v>20</v>
       </c>
-      <c r="E13" s="247">
+      <c r="E13" s="261">
         <f>+(C13*D13)+(C14*D14)</f>
         <v>2320000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
+    <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="295" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="245"/>
-      <c r="C14" s="187">
+      <c r="B14" s="263"/>
+      <c r="C14" s="293">
         <f>+AA!I44</f>
         <v>80000</v>
       </c>
-      <c r="D14" s="142">
+      <c r="D14" s="287">
         <v>10</v>
       </c>
-      <c r="E14" s="251"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="197" t="s">
+      <c r="E14" s="266"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="296" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="246"/>
-      <c r="C15" s="189">
+      <c r="B15" s="268"/>
+      <c r="C15" s="297">
         <v>110000</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="298">
         <v>10</v>
       </c>
-      <c r="E15" s="248"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="E15" s="271"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="282">
         <f>+AA!I41</f>
         <v>85000</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="287">
         <v>30</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="300">
         <f>+C16*D16</f>
         <v>2550000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="297" t="s">
+    <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="301" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="252" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="189">
+      <c r="C17" s="297">
         <f>+AA!I51</f>
         <v>55000</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="298">
         <v>30</v>
       </c>
-      <c r="E17" s="195">
+      <c r="E17" s="302">
         <f>+C17*D17</f>
         <v>1650000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="119" t="s">
+    <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="303" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="252" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="304">
         <f>+AA!I52</f>
         <v>75000</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="255">
         <v>30</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="256">
         <f>+C18*D18</f>
         <v>2250000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="252" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="185">
+      <c r="C19" s="304">
         <f>+AA!I53</f>
         <v>65000</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="255">
         <v>30</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="256">
         <f>+C19*D19</f>
         <v>1950000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="13" t="s">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="252" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="253"/>
+      <c r="C21" s="306"/>
+      <c r="D21" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="107" t="s">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="187">
+      <c r="C22" s="293">
         <f>+AA!I16</f>
         <v>175000</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="283">
         <v>10</v>
       </c>
-      <c r="E22" s="247">
+      <c r="E22" s="261">
         <f>+(C22*D22)+(C23*D23)</f>
         <v>5750000</v>
       </c>
-      <c r="G22" s="121"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108" t="s">
+      <c r="G22" s="112"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="246"/>
-      <c r="C23" s="187">
+      <c r="B23" s="268"/>
+      <c r="C23" s="293">
         <f>+AA!I18</f>
         <v>200000</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="285">
         <v>20</v>
       </c>
-      <c r="E23" s="248"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
+      <c r="E23" s="271"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="290" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="219" t="s">
+      <c r="B24" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="188">
+      <c r="C24" s="307">
         <f>+AA!I37</f>
         <v>130000</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="273">
         <v>20</v>
       </c>
-      <c r="E24" s="247">
+      <c r="E24" s="261">
         <f>+(C24*D24)+(C25*D25)</f>
         <v>3850000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="153" t="s">
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="246"/>
-      <c r="C25" s="189">
+      <c r="B25" s="268"/>
+      <c r="C25" s="297">
         <f>+AA!I36</f>
         <v>125000</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="279">
         <v>10</v>
       </c>
-      <c r="E25" s="248"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="s">
+      <c r="E25" s="271"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="249" t="s">
+      <c r="B26" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="183">
+      <c r="C26" s="254">
         <f>+AA!I45</f>
         <v>260000</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="273">
         <v>20</v>
       </c>
-      <c r="E26" s="247">
+      <c r="E26" s="261">
         <f>+(C26*D26)+(C27*D27)</f>
         <v>6340000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="106" t="s">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="250"/>
-      <c r="C27" s="184">
+      <c r="B27" s="284"/>
+      <c r="C27" s="309">
         <f>+AA!I50</f>
         <v>114000</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="279">
         <v>10</v>
       </c>
-      <c r="E27" s="248"/>
+      <c r="E27" s="271"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="190"/>
-      <c r="E28" s="116"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="109"/>
+      <c r="C28" s="161"/>
+      <c r="E28" s="110"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="253"/>
+      <c r="C29" s="306"/>
+      <c r="D29" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="107" t="s">
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="245" t="s">
+      <c r="B30" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="187">
+      <c r="C30" s="254">
         <f>+AA!I19</f>
         <v>289000</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="283">
         <v>10</v>
       </c>
-      <c r="E30" s="247">
+      <c r="E30" s="261">
         <f>+(C30*D30)+(C31*D31)</f>
         <v>10890000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108" t="s">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="246"/>
-      <c r="C31" s="187">
+      <c r="B31" s="268"/>
+      <c r="C31" s="309">
         <f>+AA!I20</f>
         <v>400000</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="285">
         <v>20</v>
       </c>
-      <c r="E31" s="248"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="E31" s="271"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="245" t="s">
+      <c r="B32" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="187">
+      <c r="C32" s="293">
         <f>+AA!I21</f>
         <v>700000</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="273">
         <v>5</v>
       </c>
-      <c r="E32" s="247">
+      <c r="E32" s="261">
         <f>+(C32*D32)+(C33*D33)</f>
         <v>20300000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+    <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="267" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="189">
+      <c r="B33" s="268"/>
+      <c r="C33" s="297">
         <f>+AA!I24</f>
         <v>1120000</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="279">
         <v>15</v>
       </c>
-      <c r="E33" s="248"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="114" t="s">
+      <c r="E33" s="271"/>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="310" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="191">
+      <c r="C34" s="311">
         <f>+AA!I42</f>
         <v>400000</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="255">
         <v>25</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="256">
         <f>+C34*D34</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="191">
+      <c r="C35" s="311">
         <f>+AA!I40</f>
         <v>200000</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="255">
         <v>30</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="256">
         <f>+C35*D35</f>
         <v>6000000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="121"/>
+      <c r="I36" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E13:E15"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="B24:B25"/>
@@ -10567,6 +10730,18 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10580,782 +10755,786 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="17.85546875" style="110" customWidth="1"/>
+    <col min="1" max="1" width="95" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="313" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="253"/>
+      <c r="C1" s="294" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="300" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="200" t="s">
+    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="314" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="313">
         <v>10</v>
       </c>
-      <c r="D2" s="247">
+      <c r="D2" s="261">
         <v>2000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="200" t="s">
+    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="314" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="250"/>
-      <c r="C3" s="192">
+      <c r="B3" s="284"/>
+      <c r="C3" s="315">
         <v>5</v>
       </c>
-      <c r="D3" s="248"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="199" t="s">
+      <c r="D3" s="271"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="316" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="298">
         <v>40</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="317">
         <v>480000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="257" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="283">
         <v>20</v>
       </c>
-      <c r="D5" s="247">
+      <c r="D5" s="261">
         <v>44000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="318" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="37">
+      <c r="B6" s="284"/>
+      <c r="C6" s="285">
         <v>20</v>
       </c>
-      <c r="D6" s="248"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="D6" s="271"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="257" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="273">
         <v>20</v>
       </c>
-      <c r="D7" s="247">
+      <c r="D7" s="261">
         <v>617000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="155" t="s">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="319" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="252"/>
-      <c r="C8" s="142">
-        <v>4</v>
-      </c>
-      <c r="D8" s="251"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+      <c r="B8" s="320"/>
+      <c r="C8" s="287">
+        <v>4</v>
+      </c>
+      <c r="D8" s="266"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="267" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="38">
+      <c r="B9" s="284"/>
+      <c r="C9" s="279">
         <v>2</v>
       </c>
-      <c r="D9" s="248"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="D9" s="271"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="257" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="249" t="s">
+      <c r="B10" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="273">
         <v>20</v>
       </c>
-      <c r="D10" s="247">
+      <c r="D10" s="261">
         <v>1040000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="155" t="s">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="319" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="252"/>
-      <c r="C11" s="142">
-        <v>4</v>
-      </c>
-      <c r="D11" s="251"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
+      <c r="B11" s="320"/>
+      <c r="C11" s="287">
+        <v>4</v>
+      </c>
+      <c r="D11" s="266"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="267" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="37">
+      <c r="B12" s="284"/>
+      <c r="C12" s="285">
         <v>2</v>
       </c>
-      <c r="D12" s="248"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="D12" s="271"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="249" t="s">
+      <c r="B13" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="273">
         <v>20</v>
       </c>
-      <c r="D13" s="247">
+      <c r="D13" s="261">
         <v>260000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="321" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="252"/>
-      <c r="C14" s="142">
+      <c r="B14" s="320"/>
+      <c r="C14" s="287">
         <v>20</v>
       </c>
-      <c r="D14" s="251"/>
-      <c r="F14" s="121"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112" t="s">
+      <c r="D14" s="266"/>
+      <c r="F14" s="112"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="291" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="250"/>
-      <c r="C15" s="37">
+      <c r="B15" s="284"/>
+      <c r="C15" s="285">
         <v>10</v>
       </c>
-      <c r="D15" s="248"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113" t="s">
+      <c r="D15" s="271"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="292" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="273">
         <v>20</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="300">
         <v>40000</v>
       </c>
-      <c r="F16" s="121"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="154" t="s">
+      <c r="F16" s="112"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="322" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="249" t="s">
+      <c r="B17" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="35">
-        <v>4</v>
-      </c>
-      <c r="D17" s="247">
+      <c r="C17" s="273">
+        <v>4</v>
+      </c>
+      <c r="D17" s="261">
         <v>2680000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164" t="s">
+    <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="323" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="252"/>
-      <c r="C18" s="142">
+      <c r="B18" s="320"/>
+      <c r="C18" s="287">
         <v>2</v>
       </c>
-      <c r="D18" s="251"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="154" t="s">
+      <c r="D18" s="266"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="322" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="249" t="s">
+      <c r="B19" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="273">
         <v>20</v>
       </c>
-      <c r="D19" s="247">
+      <c r="D19" s="261">
         <v>1800000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164" t="s">
+    <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="323" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="252"/>
-      <c r="C20" s="142">
+      <c r="B20" s="320"/>
+      <c r="C20" s="287">
         <v>10</v>
       </c>
-      <c r="D20" s="251"/>
-    </row>
-    <row r="21" spans="1:4" s="300" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="284" t="s">
+      <c r="D20" s="266"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="324" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="249" t="s">
+      <c r="B21" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="299">
+      <c r="C21" s="273">
         <v>20</v>
       </c>
-      <c r="D21" s="247">
+      <c r="D21" s="261">
         <v>208000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="300" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="285" t="s">
+    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="325" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="250"/>
-      <c r="C22" s="315">
+      <c r="B22" s="284"/>
+      <c r="C22" s="279">
         <v>20</v>
       </c>
-      <c r="D22" s="248"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="D22" s="271"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="326"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="327"/>
+      <c r="D23" s="328"/>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="252" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="253"/>
+      <c r="C24" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="257" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="245" t="s">
+      <c r="B25" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="42">
-        <v>4</v>
-      </c>
-      <c r="D25" s="247">
+      <c r="C25" s="283">
+        <v>4</v>
+      </c>
+      <c r="D25" s="261">
         <v>10500000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108" t="s">
+    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="267" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="246"/>
-      <c r="C26" s="37">
-        <v>1</v>
-      </c>
-      <c r="D26" s="248"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+      <c r="B26" s="268"/>
+      <c r="C26" s="285">
+        <v>1</v>
+      </c>
+      <c r="D26" s="271"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="257" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="35">
-        <v>4</v>
-      </c>
-      <c r="D27" s="247">
+      <c r="C27" s="273">
+        <v>4</v>
+      </c>
+      <c r="D27" s="261">
         <v>6800000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="156" t="s">
+    <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="329" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="252"/>
-      <c r="C28" s="142">
+      <c r="B28" s="320"/>
+      <c r="C28" s="287">
         <v>2</v>
       </c>
-      <c r="D28" s="251"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="D28" s="266"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="290" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="219" t="s">
+      <c r="B29" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="35">
-        <v>4</v>
-      </c>
-      <c r="D29" s="247">
+      <c r="C29" s="273">
+        <v>4</v>
+      </c>
+      <c r="D29" s="261">
         <v>2900000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112" t="s">
+    <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="291" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="38">
+      <c r="B30" s="268"/>
+      <c r="C30" s="279">
         <v>2</v>
       </c>
-      <c r="D30" s="248"/>
-    </row>
-    <row r="31" spans="1:4" s="300" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="285" t="s">
+      <c r="D30" s="271"/>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="325" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="315">
-        <v>4</v>
-      </c>
-      <c r="D31" s="193">
+      <c r="C31" s="279">
+        <v>4</v>
+      </c>
+      <c r="D31" s="317">
         <v>1800000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="300" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="285" t="s">
+    <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="325" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="196" t="s">
+      <c r="B32" s="330" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="318">
+      <c r="C32" s="255">
         <v>2</v>
       </c>
-      <c r="D32" s="193">
+      <c r="D32" s="317">
         <v>2200000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
+    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="249" t="s">
+      <c r="B33" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="35">
-        <v>4</v>
-      </c>
-      <c r="D33" s="247">
+      <c r="C33" s="273">
+        <v>4</v>
+      </c>
+      <c r="D33" s="261">
         <v>4500000</v>
       </c>
-      <c r="F33" s="316"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="165" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="331" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="250"/>
-      <c r="C34" s="38">
+      <c r="B34" s="284"/>
+      <c r="C34" s="279">
         <v>2</v>
       </c>
-      <c r="D34" s="248"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="115"/>
-      <c r="D35" s="116"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="D34" s="271"/>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="332"/>
+      <c r="B35" s="333"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="334"/>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="252" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="253"/>
+      <c r="C36" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119" t="s">
+    <row r="37" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="303" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="283">
         <v>10</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="256">
         <v>3500000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="119" t="s">
+    <row r="38" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="303" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="285">
         <v>10</v>
       </c>
-      <c r="D38" s="166">
+      <c r="D38" s="335">
         <v>800000</v>
       </c>
-      <c r="G38" s="121"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="152" t="s">
+      <c r="G38" s="112"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="336" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="245" t="s">
+      <c r="B39" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="273">
         <v>2</v>
       </c>
-      <c r="D39" s="247">
+      <c r="D39" s="261">
         <v>5600000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="153" t="s">
+    <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="246"/>
-      <c r="C40" s="38">
+      <c r="B40" s="268"/>
+      <c r="C40" s="279">
         <v>6</v>
       </c>
-      <c r="D40" s="248"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114" t="s">
+      <c r="D40" s="271"/>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="310" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="13">
-        <v>4</v>
-      </c>
-      <c r="D41" s="43">
+      <c r="C41" s="255">
+        <v>4</v>
+      </c>
+      <c r="D41" s="256">
         <v>2400000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="121"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+    <row r="42" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="326"/>
+      <c r="B42" s="326"/>
+      <c r="C42" s="327"/>
+      <c r="D42" s="328"/>
+      <c r="H42" s="112"/>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="313" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="253"/>
+      <c r="C43" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="107" t="s">
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="257" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="221" t="s">
+      <c r="B44" s="337" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="273">
         <v>6</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="261">
         <v>2220000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108" t="s">
+    <row r="45" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="267" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="253"/>
-      <c r="C45" s="38">
+      <c r="B45" s="338"/>
+      <c r="C45" s="279">
         <v>6</v>
       </c>
-      <c r="D45" s="248"/>
-      <c r="G45" s="121"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="107" t="s">
+      <c r="D45" s="271"/>
+      <c r="G45" s="112"/>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="257" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="221" t="s">
+      <c r="B46" s="337" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="273">
         <v>20</v>
       </c>
-      <c r="D46" s="247">
+      <c r="D46" s="261">
         <v>4250000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="108" t="s">
+    <row r="47" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="267" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="253"/>
-      <c r="C47" s="38">
+      <c r="B47" s="338"/>
+      <c r="C47" s="279">
         <v>10</v>
       </c>
-      <c r="D47" s="248"/>
-      <c r="G47" s="121"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="151" t="s">
+      <c r="D47" s="271"/>
+      <c r="G47" s="112"/>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="339" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="245" t="s">
+      <c r="B48" s="263" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="273">
         <v>10</v>
       </c>
-      <c r="D48" s="247">
+      <c r="D48" s="261">
         <v>4500000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="148" t="s">
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="340" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="245"/>
-      <c r="C49" s="142">
+      <c r="B49" s="263"/>
+      <c r="C49" s="287">
         <v>10</v>
       </c>
-      <c r="D49" s="251"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="148" t="s">
+      <c r="D49" s="266"/>
+    </row>
+    <row r="50" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="340" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="38">
+      <c r="B50" s="268"/>
+      <c r="C50" s="279">
         <v>20</v>
       </c>
-      <c r="D50" s="248"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="120" t="s">
+      <c r="D50" s="271"/>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="305" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="255">
         <v>16</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="256">
         <v>2400000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="326"/>
+      <c r="B52" s="326"/>
+      <c r="C52" s="327"/>
+      <c r="D52" s="328"/>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="252" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="13" t="s">
+      <c r="B53" s="253"/>
+      <c r="C53" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="256" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="107" t="s">
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="257" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="249" t="s">
+      <c r="B54" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="283">
         <v>60</v>
       </c>
-      <c r="D54" s="247">
+      <c r="D54" s="261">
         <v>4260000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="108" t="s">
+    <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="267" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="250"/>
-      <c r="C55" s="37">
+      <c r="B55" s="284"/>
+      <c r="C55" s="285">
         <v>60</v>
       </c>
-      <c r="D55" s="248"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="107" t="s">
+      <c r="D55" s="271"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="249" t="s">
+      <c r="B56" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="273">
         <v>60</v>
       </c>
-      <c r="D56" s="247">
+      <c r="D56" s="261">
         <v>900000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="105" t="s">
+    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="252"/>
-      <c r="C57" s="142">
+      <c r="B57" s="320"/>
+      <c r="C57" s="287">
         <v>60</v>
       </c>
-      <c r="D57" s="251"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="167" t="s">
+      <c r="D57" s="266"/>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="341" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="250"/>
-      <c r="C58" s="37">
+      <c r="B58" s="284"/>
+      <c r="C58" s="285">
         <v>60</v>
       </c>
-      <c r="D58" s="248"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="148" t="s">
+      <c r="D58" s="271"/>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="340" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="342" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="273">
         <v>60</v>
       </c>
-      <c r="D59" s="255">
+      <c r="D59" s="274">
         <v>260000</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="148" t="s">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="340" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="254"/>
-      <c r="C60" s="36">
+      <c r="B60" s="343"/>
+      <c r="C60" s="276">
         <v>60</v>
       </c>
-      <c r="D60" s="256"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="148" t="s">
+      <c r="D60" s="277"/>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="340" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="254"/>
-      <c r="C61" s="36">
+      <c r="B61" s="343"/>
+      <c r="C61" s="276">
         <v>60</v>
       </c>
-      <c r="D61" s="256"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="168" t="s">
+      <c r="D61" s="277"/>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="344" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="254"/>
-      <c r="C62" s="38">
+      <c r="B62" s="343"/>
+      <c r="C62" s="279">
         <v>60</v>
       </c>
-      <c r="D62" s="256"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="120" t="s">
+      <c r="D62" s="277"/>
+    </row>
+    <row r="63" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="305" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="142">
+      <c r="C63" s="287">
         <v>60</v>
       </c>
-      <c r="D63" s="77">
+      <c r="D63" s="300">
         <v>150000</v>
       </c>
-      <c r="F63" s="121"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114" t="s">
+      <c r="F63" s="112"/>
+    </row>
+    <row r="64" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="310" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="255">
         <v>60</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="256">
         <v>2100000</v>
       </c>
-      <c r="F64" s="121"/>
+      <c r="F64" s="112"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" s="121"/>
+      <c r="H66" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="B39:B40"/>
@@ -11372,12 +11551,22 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11389,454 +11578,480 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D44" sqref="A44:D44"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D46" sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="110" customWidth="1"/>
+    <col min="4" max="4" width="37" style="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="345" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="355" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="355" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="357" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="346" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="266" t="s">
+      <c r="B2" s="240" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="35">
-        <v>4</v>
-      </c>
-      <c r="D2" s="269">
+      <c r="C2" s="273">
+        <v>4</v>
+      </c>
+      <c r="D2" s="243">
         <v>10374000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="347" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="36">
+      <c r="B3" s="241"/>
+      <c r="C3" s="276">
         <v>10</v>
       </c>
-      <c r="D3" s="270"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="D3" s="244"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="347" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="267"/>
-      <c r="C4" s="36">
+      <c r="B4" s="241"/>
+      <c r="C4" s="276">
         <v>2</v>
       </c>
-      <c r="D4" s="270"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="127" t="s">
+      <c r="D4" s="244"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="348" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="267"/>
-      <c r="C5" s="36">
+      <c r="B5" s="241"/>
+      <c r="C5" s="276">
         <v>2</v>
       </c>
-      <c r="D5" s="270"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="D5" s="244"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="347" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="267"/>
-      <c r="C6" s="36">
+      <c r="B6" s="241"/>
+      <c r="C6" s="276">
         <v>16</v>
       </c>
-      <c r="D6" s="270"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="D6" s="244"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="347" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="267"/>
-      <c r="C7" s="36">
+      <c r="B7" s="241"/>
+      <c r="C7" s="276">
         <v>8</v>
       </c>
-      <c r="D7" s="270"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="D7" s="244"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="347" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="267"/>
-      <c r="C8" s="36">
+      <c r="B8" s="241"/>
+      <c r="C8" s="276">
         <v>20</v>
       </c>
-      <c r="D8" s="270"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="D8" s="244"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="347" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="36">
+      <c r="B9" s="241"/>
+      <c r="C9" s="276">
         <v>20</v>
       </c>
-      <c r="D9" s="270"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="D9" s="244"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="267"/>
-      <c r="C10" s="36">
+      <c r="B10" s="241"/>
+      <c r="C10" s="276">
         <v>10</v>
       </c>
-      <c r="D10" s="270"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="D10" s="244"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="347" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="36">
-        <v>4</v>
-      </c>
-      <c r="D11" s="270"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="B11" s="241"/>
+      <c r="C11" s="276">
+        <v>4</v>
+      </c>
+      <c r="D11" s="244"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="347" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="267"/>
-      <c r="C12" s="36">
-        <v>4</v>
-      </c>
-      <c r="D12" s="270"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="B12" s="241"/>
+      <c r="C12" s="276">
+        <v>4</v>
+      </c>
+      <c r="D12" s="244"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="347" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="267"/>
-      <c r="C13" s="36">
-        <v>4</v>
-      </c>
-      <c r="D13" s="270"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="B13" s="241"/>
+      <c r="C13" s="276">
+        <v>4</v>
+      </c>
+      <c r="D13" s="244"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="347" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="267"/>
-      <c r="C14" s="36">
+      <c r="B14" s="241"/>
+      <c r="C14" s="276">
         <v>2</v>
       </c>
-      <c r="D14" s="270"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="D14" s="244"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="347" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="36">
+      <c r="B15" s="241"/>
+      <c r="C15" s="276">
         <v>20</v>
       </c>
-      <c r="D15" s="270"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="D15" s="244"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="347" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="267"/>
-      <c r="C16" s="36">
+      <c r="B16" s="241"/>
+      <c r="C16" s="276">
         <v>20</v>
       </c>
-      <c r="D16" s="270"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="D16" s="244"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="347" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="267"/>
-      <c r="C17" s="36">
+      <c r="B17" s="241"/>
+      <c r="C17" s="276">
         <v>6</v>
       </c>
-      <c r="D17" s="270"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="D17" s="244"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="347" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="267"/>
-      <c r="C18" s="36">
+      <c r="B18" s="241"/>
+      <c r="C18" s="276">
         <v>8</v>
       </c>
-      <c r="D18" s="270"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="D18" s="244"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="349" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="268"/>
-      <c r="C19" s="38">
-        <v>4</v>
-      </c>
-      <c r="D19" s="271"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="115"/>
-      <c r="D20" s="116"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="279">
+        <v>4</v>
+      </c>
+      <c r="D19" s="245"/>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="332"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="327"/>
+      <c r="D20" s="110"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="350" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="260" t="s">
+      <c r="B21" s="234" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="273">
         <v>2</v>
       </c>
-      <c r="D21" s="272">
+      <c r="D21" s="246">
         <v>11700000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="332" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="261"/>
-      <c r="C22" s="36">
-        <v>1</v>
-      </c>
-      <c r="D22" s="273"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="276">
+        <v>1</v>
+      </c>
+      <c r="D22" s="247"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="351" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="261"/>
-      <c r="C23" s="36">
+      <c r="B23" s="235"/>
+      <c r="C23" s="276">
         <v>2</v>
       </c>
-      <c r="D23" s="273"/>
+      <c r="D23" s="247"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="351" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="261"/>
-      <c r="C24" s="36">
-        <v>1</v>
-      </c>
-      <c r="D24" s="273"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="276">
+        <v>1</v>
+      </c>
+      <c r="D24" s="247"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="352" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="261"/>
-      <c r="C25" s="36">
-        <v>1</v>
-      </c>
-      <c r="D25" s="273"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="276">
+        <v>1</v>
+      </c>
+      <c r="D25" s="247"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="332" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="261"/>
-      <c r="C26" s="37">
-        <v>1</v>
-      </c>
-      <c r="D26" s="273"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="285">
+        <v>1</v>
+      </c>
+      <c r="D26" s="247"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="347" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="261"/>
-      <c r="C27" s="37">
+      <c r="B27" s="235"/>
+      <c r="C27" s="285">
         <v>2</v>
       </c>
-      <c r="D27" s="273"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131" t="s">
+      <c r="D27" s="247"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="353" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="262"/>
-      <c r="C28" s="38">
-        <v>1</v>
-      </c>
-      <c r="D28" s="274"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="121"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="128" t="s">
+      <c r="B28" s="236"/>
+      <c r="C28" s="279">
+        <v>1</v>
+      </c>
+      <c r="D28" s="248"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="326"/>
+      <c r="C29" s="327"/>
+      <c r="H29" s="112"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="350" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="275" t="s">
+      <c r="B30" s="249" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="273">
         <v>2</v>
       </c>
-      <c r="D30" s="257">
+      <c r="D30" s="231">
         <v>640000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="129" t="s">
+    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="351" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="276"/>
-      <c r="C31" s="36">
+      <c r="B31" s="250"/>
+      <c r="C31" s="276">
         <v>6</v>
       </c>
-      <c r="D31" s="258"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="129" t="s">
+      <c r="D31" s="232"/>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="351" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="276"/>
-      <c r="C32" s="36">
+      <c r="B32" s="250"/>
+      <c r="C32" s="276">
         <v>2</v>
       </c>
-      <c r="D32" s="258"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131" t="s">
+      <c r="D32" s="232"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="353" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="277"/>
-      <c r="C33" s="38">
+      <c r="B33" s="251"/>
+      <c r="C33" s="279">
         <v>2</v>
       </c>
-      <c r="D33" s="259"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="260" t="s">
+      <c r="D33" s="233"/>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="326"/>
+      <c r="C34" s="327"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="350" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="35">
-        <v>4</v>
-      </c>
-      <c r="D35" s="263">
+      <c r="C35" s="273">
+        <v>4</v>
+      </c>
+      <c r="D35" s="237">
         <v>31130000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="129" t="s">
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="351" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="261"/>
-      <c r="C36" s="36">
+      <c r="B36" s="235"/>
+      <c r="C36" s="276">
         <v>2</v>
       </c>
-      <c r="D36" s="264"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="261"/>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="264"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="36">
-        <v>1</v>
-      </c>
-      <c r="D38" s="264"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="261"/>
-      <c r="C39" s="36">
+      <c r="D36" s="238"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="351" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="235"/>
+      <c r="C37" s="276">
+        <v>1</v>
+      </c>
+      <c r="D37" s="238"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="351" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="235"/>
+      <c r="C38" s="276">
+        <v>1</v>
+      </c>
+      <c r="D38" s="238"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="351" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="235"/>
+      <c r="C39" s="276">
         <v>2</v>
       </c>
-      <c r="D39" s="264"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="261"/>
-      <c r="C40" s="36">
+      <c r="D39" s="238"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="351" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="235"/>
+      <c r="C40" s="276">
         <v>2</v>
       </c>
-      <c r="D40" s="264"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="129" t="s">
+      <c r="D40" s="238"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="351" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="261"/>
-      <c r="C41" s="37">
+      <c r="B41" s="235"/>
+      <c r="C41" s="285">
         <v>2</v>
       </c>
-      <c r="D41" s="264"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="262"/>
-      <c r="C42" s="38">
+      <c r="D41" s="238"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="353" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="236"/>
+      <c r="C42" s="279">
         <v>2</v>
       </c>
-      <c r="D42" s="265"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="147"/>
-    </row>
-    <row r="44" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="134" t="s">
+      <c r="D42" s="239"/>
+    </row>
+    <row r="43" spans="1:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="326"/>
+      <c r="C43" s="327"/>
+      <c r="D43" s="138"/>
+    </row>
+    <row r="44" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="354" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="255">
         <v>60</v>
       </c>
-      <c r="D44" s="201">
+      <c r="D44" s="356">
         <v>1200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="326"/>
+      <c r="C45" s="327"/>
+    </row>
+    <row r="46" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="354" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="355" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="255">
+        <v>1</v>
+      </c>
+      <c r="D46" s="356">
+        <v>7000000</v>
       </c>
     </row>
   </sheetData>

--- a/MISSIONS/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSIONS/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\Mission_DCS\EX-MISSIONS\MISSIONS\CAMPAÑA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303B145C-DCB6-45B3-8D78-9C9A9B9212EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2DADC-EB20-4522-B776-820D1A7C91FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2475" windowWidth="28800" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -2383,11 +2383,282 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2428,15 +2699,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2545,6 +2807,54 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2607,316 +2917,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3257,12 +3257,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="178"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="268"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -4562,7 +4562,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="269" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4598,7 +4598,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="193"/>
+      <c r="A3" s="270"/>
       <c r="B3" s="63" t="s">
         <v>97</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
+      <c r="A4" s="270"/>
       <c r="B4" s="63" t="s">
         <v>60</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
+      <c r="A5" s="270"/>
       <c r="B5" s="63" t="s">
         <v>61</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
+      <c r="A6" s="270"/>
       <c r="B6" s="63" t="s">
         <v>45</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
+      <c r="A7" s="270"/>
       <c r="B7" s="63" t="s">
         <v>46</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
+      <c r="A8" s="270"/>
       <c r="B8" s="63" t="s">
         <v>56</v>
       </c>
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+      <c r="A9" s="270"/>
       <c r="B9" s="63" t="s">
         <v>57</v>
       </c>
@@ -4836,7 +4836,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
+      <c r="A10" s="270"/>
       <c r="B10" s="63" t="s">
         <v>58</v>
       </c>
@@ -4870,7 +4870,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+      <c r="A11" s="270"/>
       <c r="B11" s="63" t="s">
         <v>47</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="193"/>
+      <c r="A12" s="270"/>
       <c r="B12" s="63" t="s">
         <v>48</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
+      <c r="A13" s="270"/>
       <c r="B13" s="63" t="s">
         <v>62</v>
       </c>
@@ -4972,7 +4972,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="193"/>
+      <c r="A14" s="270"/>
       <c r="B14" s="63" t="s">
         <v>63</v>
       </c>
@@ -5006,7 +5006,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="270"/>
       <c r="B15" s="63" t="s">
         <v>52</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="193"/>
+      <c r="A16" s="270"/>
       <c r="B16" s="63" t="s">
         <v>53</v>
       </c>
@@ -5074,7 +5074,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="193"/>
+      <c r="A17" s="270"/>
       <c r="B17" s="64" t="s">
         <v>54</v>
       </c>
@@ -5108,7 +5108,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
+      <c r="A18" s="270"/>
       <c r="B18" s="63" t="s">
         <v>55</v>
       </c>
@@ -5142,7 +5142,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="193"/>
+      <c r="A19" s="270"/>
       <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
+      <c r="A20" s="270"/>
       <c r="B20" s="63" t="s">
         <v>51</v>
       </c>
@@ -5210,7 +5210,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="193"/>
+      <c r="A21" s="270"/>
       <c r="B21" s="63" t="s">
         <v>93</v>
       </c>
@@ -5244,7 +5244,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="193"/>
+      <c r="A22" s="270"/>
       <c r="B22" s="63" t="s">
         <v>94</v>
       </c>
@@ -5278,7 +5278,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="193"/>
+      <c r="A23" s="270"/>
       <c r="B23" s="63" t="s">
         <v>95</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="194"/>
+      <c r="A24" s="271"/>
       <c r="B24" s="65" t="s">
         <v>96</v>
       </c>
@@ -5346,7 +5346,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="277" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -5382,7 +5382,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
+      <c r="A26" s="278"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -5416,7 +5416,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
+      <c r="A27" s="278"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -5450,7 +5450,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
+      <c r="A28" s="278"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -5484,7 +5484,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
+      <c r="A29" s="278"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -5518,7 +5518,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
+      <c r="A30" s="278"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
+      <c r="A31" s="278"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="185"/>
+      <c r="A32" s="278"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
@@ -5604,7 +5604,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="185"/>
+      <c r="A33" s="278"/>
       <c r="B33" s="16" t="s">
         <v>69</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="185"/>
+      <c r="A34" s="278"/>
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
@@ -5664,7 +5664,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="185"/>
+      <c r="A35" s="278"/>
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -5698,7 +5698,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="185"/>
+      <c r="A36" s="278"/>
       <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="185"/>
+      <c r="A37" s="278"/>
       <c r="B37" s="16" t="s">
         <v>71</v>
       </c>
@@ -5766,7 +5766,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="185"/>
+      <c r="A38" s="278"/>
       <c r="B38" s="16" t="s">
         <v>68</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="185"/>
+      <c r="A39" s="278"/>
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5834,7 +5834,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="186"/>
+      <c r="A40" s="279"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187" t="s">
+      <c r="A41" s="280" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="84" t="s">
@@ -5904,7 +5904,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="188"/>
+      <c r="A42" s="281"/>
       <c r="B42" s="85" t="s">
         <v>76</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="282" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="82" t="s">
@@ -5966,7 +5966,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="190"/>
+      <c r="A44" s="283"/>
       <c r="B44" s="83" t="s">
         <v>78</v>
       </c>
@@ -6000,7 +6000,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="190"/>
+      <c r="A45" s="283"/>
       <c r="B45" s="83" t="s">
         <v>79</v>
       </c>
@@ -6034,7 +6034,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="190"/>
+      <c r="A46" s="283"/>
       <c r="B46" s="83" t="s">
         <v>80</v>
       </c>
@@ -6068,7 +6068,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="190"/>
+      <c r="A47" s="283"/>
       <c r="B47" s="83" t="s">
         <v>81</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="190"/>
+      <c r="A48" s="283"/>
       <c r="B48" s="83" t="s">
         <v>82</v>
       </c>
@@ -6136,7 +6136,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="190"/>
+      <c r="A49" s="283"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="191"/>
+      <c r="A50" s="284"/>
       <c r="B50" s="89" t="s">
         <v>84</v>
       </c>
@@ -6204,7 +6204,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+      <c r="A51" s="274" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="111" t="s">
@@ -6240,7 +6240,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="182"/>
+      <c r="A52" s="275"/>
       <c r="B52" s="105" t="s">
         <v>99</v>
       </c>
@@ -6274,7 +6274,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="183"/>
+      <c r="A53" s="276"/>
       <c r="B53" s="163" t="s">
         <v>101</v>
       </c>
@@ -6308,7 +6308,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="179" t="s">
+      <c r="A54" s="272" t="s">
         <v>248</v>
       </c>
       <c r="B54" s="166" t="s">
@@ -6344,7 +6344,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="180"/>
+      <c r="A55" s="273"/>
       <c r="B55" s="166" t="s">
         <v>250</v>
       </c>
@@ -6443,12 +6443,12 @@
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="201" t="s">
+      <c r="D1" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="293"/>
       <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
@@ -6461,7 +6461,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="302" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -6497,7 +6497,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213"/>
+      <c r="A3" s="303"/>
       <c r="B3" s="63" t="s">
         <v>201</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="213"/>
+      <c r="A4" s="303"/>
       <c r="B4" s="63" t="s">
         <v>202</v>
       </c>
@@ -6562,7 +6562,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="213"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="63" t="s">
         <v>153</v>
       </c>
@@ -6596,7 +6596,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="213"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="63" t="s">
         <v>154</v>
       </c>
@@ -6630,7 +6630,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="213"/>
+      <c r="A7" s="303"/>
       <c r="B7" s="63" t="s">
         <v>155</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="213"/>
+      <c r="A8" s="303"/>
       <c r="B8" s="63" t="s">
         <v>156</v>
       </c>
@@ -6698,7 +6698,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
+      <c r="A9" s="303"/>
       <c r="B9" s="63" t="s">
         <v>157</v>
       </c>
@@ -6732,7 +6732,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="213"/>
+      <c r="A10" s="303"/>
       <c r="B10" s="63" t="s">
         <v>205</v>
       </c>
@@ -6766,7 +6766,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="213"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="63" t="s">
         <v>158</v>
       </c>
@@ -6800,7 +6800,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="213"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="63" t="s">
         <v>160</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="213"/>
+      <c r="A13" s="303"/>
       <c r="B13" s="63" t="s">
         <v>161</v>
       </c>
@@ -6866,7 +6866,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="213"/>
+      <c r="A14" s="303"/>
       <c r="B14" s="63" t="s">
         <v>162</v>
       </c>
@@ -6900,7 +6900,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="213"/>
+      <c r="A15" s="303"/>
       <c r="B15" s="63" t="s">
         <v>163</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="213"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="63" t="s">
         <v>164</v>
       </c>
@@ -6968,7 +6968,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="213"/>
+      <c r="A17" s="303"/>
       <c r="B17" s="63" t="s">
         <v>165</v>
       </c>
@@ -7002,7 +7002,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="213"/>
+      <c r="A18" s="303"/>
       <c r="B18" s="63" t="s">
         <v>166</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="213"/>
+      <c r="A19" s="303"/>
       <c r="B19" s="63" t="s">
         <v>167</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="213"/>
+      <c r="A20" s="303"/>
       <c r="B20" s="63" t="s">
         <v>168</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
+      <c r="A21" s="303"/>
       <c r="B21" s="63" t="s">
         <v>169</v>
       </c>
@@ -7138,7 +7138,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
+      <c r="A22" s="303"/>
       <c r="B22" s="63" t="s">
         <v>170</v>
       </c>
@@ -7172,7 +7172,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="303"/>
       <c r="B23" s="63" t="s">
         <v>206</v>
       </c>
@@ -7206,7 +7206,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213"/>
+      <c r="A24" s="303"/>
       <c r="B24" s="63" t="s">
         <v>245</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="213"/>
+      <c r="A25" s="303"/>
       <c r="B25" s="63" t="s">
         <v>246</v>
       </c>
@@ -7274,7 +7274,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="213"/>
+      <c r="A26" s="303"/>
       <c r="B26" s="63" t="s">
         <v>207</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="213"/>
+      <c r="A27" s="303"/>
       <c r="B27" s="63" t="s">
         <v>171</v>
       </c>
@@ -7342,7 +7342,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="213"/>
+      <c r="A28" s="303"/>
       <c r="B28" s="63" t="s">
         <v>172</v>
       </c>
@@ -7376,7 +7376,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="213"/>
+      <c r="A29" s="303"/>
       <c r="B29" s="65" t="s">
         <v>173</v>
       </c>
@@ -7410,7 +7410,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="294" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="142" t="s">
@@ -7446,7 +7446,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="204"/>
+      <c r="A31" s="294"/>
       <c r="B31" s="139" t="s">
         <v>185</v>
       </c>
@@ -7480,7 +7480,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="204"/>
+      <c r="A32" s="294"/>
       <c r="B32" s="139" t="s">
         <v>186</v>
       </c>
@@ -7514,7 +7514,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="204"/>
+      <c r="A33" s="294"/>
       <c r="B33" s="139" t="s">
         <v>187</v>
       </c>
@@ -7548,7 +7548,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="204"/>
+      <c r="A34" s="294"/>
       <c r="B34" s="139" t="s">
         <v>188</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="204"/>
+      <c r="A35" s="294"/>
       <c r="B35" s="139" t="s">
         <v>189</v>
       </c>
@@ -7616,7 +7616,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="204"/>
+      <c r="A36" s="294"/>
       <c r="B36" s="139" t="s">
         <v>190</v>
       </c>
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="204"/>
+      <c r="A37" s="294"/>
       <c r="B37" s="139" t="s">
         <v>227</v>
       </c>
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="204"/>
+      <c r="A38" s="294"/>
       <c r="B38" s="139" t="s">
         <v>228</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="204"/>
+      <c r="A39" s="294"/>
       <c r="B39" s="139" t="s">
         <v>225</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
+      <c r="A40" s="294"/>
       <c r="B40" s="139" t="s">
         <v>193</v>
       </c>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
+      <c r="A41" s="294"/>
       <c r="B41" s="139" t="s">
         <v>226</v>
       </c>
@@ -7821,7 +7821,7 @@
       <c r="L41" s="112"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204"/>
+      <c r="A42" s="294"/>
       <c r="B42" s="139" t="s">
         <v>194</v>
       </c>
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="205"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="143" t="s">
         <v>195</v>
       </c>
@@ -7889,7 +7889,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="206" t="s">
+      <c r="A44" s="296" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="144" t="s">
@@ -7925,7 +7925,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
+      <c r="A45" s="297"/>
       <c r="B45" s="140" t="s">
         <v>199</v>
       </c>
@@ -7959,7 +7959,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="207"/>
+      <c r="A46" s="297"/>
       <c r="B46" s="140" t="s">
         <v>200</v>
       </c>
@@ -7993,7 +7993,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="207"/>
+      <c r="A47" s="297"/>
       <c r="B47" s="140" t="s">
         <v>174</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="207"/>
+      <c r="A48" s="297"/>
       <c r="B48" s="140" t="s">
         <v>175</v>
       </c>
@@ -8061,7 +8061,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
+      <c r="A49" s="297"/>
       <c r="B49" s="140" t="s">
         <v>176</v>
       </c>
@@ -8095,7 +8095,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="207"/>
+      <c r="A50" s="297"/>
       <c r="B50" s="140" t="s">
         <v>177</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="208"/>
+      <c r="A51" s="298"/>
       <c r="B51" s="150" t="s">
         <v>180</v>
       </c>
@@ -8163,7 +8163,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="299" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="108" t="s">
@@ -8191,7 +8191,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="210"/>
+      <c r="A53" s="300"/>
       <c r="B53" s="141" t="s">
         <v>204</v>
       </c>
@@ -8225,7 +8225,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="210"/>
+      <c r="A54" s="300"/>
       <c r="B54" s="141" t="s">
         <v>251</v>
       </c>
@@ -8259,7 +8259,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="210"/>
+      <c r="A55" s="300"/>
       <c r="B55" s="141" t="s">
         <v>179</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="L55" s="112"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="211"/>
+      <c r="A56" s="301"/>
       <c r="B56" s="163" t="s">
         <v>229</v>
       </c>
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="214" t="s">
+      <c r="A57" s="304" t="s">
         <v>248</v>
       </c>
       <c r="B57" s="164" t="s">
@@ -8364,7 +8364,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="215"/>
+      <c r="A58" s="305"/>
       <c r="B58" s="175" t="s">
         <v>254</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="215"/>
+      <c r="A59" s="305"/>
       <c r="B59" s="175" t="s">
         <v>255</v>
       </c>
@@ -8432,7 +8432,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="216"/>
+      <c r="A60" s="306"/>
       <c r="B60" s="165" t="s">
         <v>256</v>
       </c>
@@ -8467,19 +8467,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="176"/>
-      <c r="I61" s="195" t="s">
+      <c r="I61" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="J61" s="196"/>
-      <c r="K61" s="199">
+      <c r="J61" s="286"/>
+      <c r="K61" s="289">
         <f>SUM(K2:K60)</f>
         <v>2200000</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I62" s="197"/>
-      <c r="J62" s="198"/>
-      <c r="K62" s="200"/>
+      <c r="I62" s="287"/>
+      <c r="J62" s="288"/>
+      <c r="K62" s="290"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H63" s="162"/>
@@ -8529,12 +8529,12 @@
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="203"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="293"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="309" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -8580,7 +8580,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
+      <c r="A3" s="310"/>
       <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="220"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="60" t="s">
         <v>107</v>
       </c>
@@ -8638,7 +8638,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="220"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="118" t="s">
         <v>108</v>
       </c>
@@ -8667,7 +8667,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="220"/>
+      <c r="A6" s="310"/>
       <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="220"/>
+      <c r="A7" s="310"/>
       <c r="B7" s="60" t="s">
         <v>109</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
+      <c r="A8" s="310"/>
       <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
@@ -8754,7 +8754,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="220"/>
+      <c r="A9" s="310"/>
       <c r="B9" s="60" t="s">
         <v>115</v>
       </c>
@@ -8783,7 +8783,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="220"/>
+      <c r="A10" s="310"/>
       <c r="B10" s="60" t="s">
         <v>116</v>
       </c>
@@ -8812,7 +8812,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
+      <c r="A11" s="310"/>
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
@@ -8841,7 +8841,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="220"/>
+      <c r="A12" s="310"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
       </c>
@@ -8870,7 +8870,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="220"/>
+      <c r="A13" s="310"/>
       <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
@@ -8899,7 +8899,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
+      <c r="A14" s="310"/>
       <c r="B14" s="60" t="s">
         <v>114</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="220"/>
+      <c r="A15" s="310"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -8957,7 +8957,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="220"/>
+      <c r="A16" s="310"/>
       <c r="B16" s="60" t="s">
         <v>118</v>
       </c>
@@ -8986,7 +8986,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="220"/>
+      <c r="A17" s="310"/>
       <c r="B17" s="60" t="s">
         <v>119</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="220"/>
+      <c r="A18" s="310"/>
       <c r="B18" s="60" t="s">
         <v>120</v>
       </c>
@@ -9044,7 +9044,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="221"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="137" t="s">
         <v>121</v>
       </c>
@@ -9073,7 +9073,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="222" t="s">
+      <c r="A20" s="312" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -9104,7 +9104,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="223"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="60" t="s">
         <v>139</v>
       </c>
@@ -9133,7 +9133,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="223"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="60" t="s">
         <v>132</v>
       </c>
@@ -9162,7 +9162,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="223"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="60" t="s">
         <v>127</v>
       </c>
@@ -9191,7 +9191,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="223"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="60" t="s">
         <v>128</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="223"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="60" t="s">
         <v>147</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="223"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="60" t="s">
         <v>191</v>
       </c>
@@ -9278,7 +9278,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="224"/>
+      <c r="A27" s="314"/>
       <c r="B27" s="61" t="s">
         <v>135</v>
       </c>
@@ -9307,7 +9307,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="225" t="s">
+      <c r="A28" s="315" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="121" t="s">
@@ -9338,7 +9338,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="226"/>
+      <c r="A29" s="316"/>
       <c r="B29" s="120" t="s">
         <v>137</v>
       </c>
@@ -9367,7 +9367,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="226"/>
+      <c r="A30" s="316"/>
       <c r="B30" s="120" t="s">
         <v>131</v>
       </c>
@@ -9396,7 +9396,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="227"/>
+      <c r="A31" s="317"/>
       <c r="B31" s="122" t="s">
         <v>138</v>
       </c>
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="318" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="119" t="s">
@@ -9458,7 +9458,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="229"/>
+      <c r="A33" s="319"/>
       <c r="B33" s="120" t="s">
         <v>129</v>
       </c>
@@ -9489,7 +9489,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="229"/>
+      <c r="A34" s="319"/>
       <c r="B34" s="120" t="s">
         <v>133</v>
       </c>
@@ -9520,7 +9520,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="229"/>
+      <c r="A35" s="319"/>
       <c r="B35" s="120" t="s">
         <v>134</v>
       </c>
@@ -9551,7 +9551,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="229"/>
+      <c r="A36" s="319"/>
       <c r="B36" s="120" t="s">
         <v>125</v>
       </c>
@@ -9582,7 +9582,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="229"/>
+      <c r="A37" s="319"/>
       <c r="B37" s="120" t="s">
         <v>192</v>
       </c>
@@ -9613,7 +9613,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="229"/>
+      <c r="A38" s="319"/>
       <c r="B38" s="120" t="s">
         <v>257</v>
       </c>
@@ -9639,7 +9639,7 @@
       <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="229"/>
+      <c r="A39" s="319"/>
       <c r="B39" s="120" t="s">
         <v>130</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="230"/>
+      <c r="A40" s="320"/>
       <c r="B40" s="122" t="s">
         <v>142</v>
       </c>
@@ -9732,19 +9732,19 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H42" s="195" t="s">
+      <c r="H42" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="217"/>
-      <c r="J42" s="199">
+      <c r="I42" s="307"/>
+      <c r="J42" s="289">
         <f>SUM(J2:J41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="197"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="200"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="308"/>
+      <c r="J43" s="290"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -10170,429 +10170,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="255" t="s">
+      <c r="D1" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="325" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="259">
+      <c r="C2" s="184">
         <f>+AA!I2</f>
         <v>25000</v>
       </c>
-      <c r="D2" s="260">
+      <c r="D2" s="185">
         <v>20</v>
       </c>
-      <c r="E2" s="261">
+      <c r="E2" s="323">
         <v>1360000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="187" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="264">
+      <c r="B3" s="321"/>
+      <c r="C3" s="189">
         <v>28000</v>
       </c>
-      <c r="D3" s="265">
+      <c r="D3" s="190">
         <v>20</v>
       </c>
-      <c r="E3" s="266"/>
+      <c r="E3" s="328"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="268"/>
-      <c r="C4" s="269">
+      <c r="B4" s="322"/>
+      <c r="C4" s="194">
         <f>+AA!I4</f>
         <v>32000</v>
       </c>
-      <c r="D4" s="270">
+      <c r="D4" s="195">
         <v>10</v>
       </c>
-      <c r="E4" s="271"/>
+      <c r="E4" s="324"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="325" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="272">
+      <c r="C5" s="197">
         <f>+AA!I8</f>
         <v>120000</v>
       </c>
-      <c r="D5" s="273">
+      <c r="D5" s="198">
         <v>20</v>
       </c>
-      <c r="E5" s="274">
+      <c r="E5" s="329">
         <v>4800000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="187" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="263"/>
-      <c r="C6" s="275">
+      <c r="B6" s="321"/>
+      <c r="C6" s="199">
         <v>110000</v>
       </c>
-      <c r="D6" s="276">
+      <c r="D6" s="200">
         <v>10</v>
       </c>
-      <c r="E6" s="277"/>
+      <c r="E6" s="330"/>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="268"/>
-      <c r="C7" s="278">
+      <c r="B7" s="322"/>
+      <c r="C7" s="201">
         <f>+AA!I9</f>
         <v>130000</v>
       </c>
-      <c r="D7" s="279">
+      <c r="D7" s="202">
         <v>10</v>
       </c>
-      <c r="E7" s="280"/>
+      <c r="E7" s="331"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="257" t="s">
+      <c r="A8" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="282">
+      <c r="C8" s="204">
         <f>+AA!I6</f>
         <v>110000</v>
       </c>
-      <c r="D8" s="283">
+      <c r="D8" s="205">
         <v>20</v>
       </c>
-      <c r="E8" s="261">
+      <c r="E8" s="323">
         <f>+(C8*D8)+(C9*D9)</f>
         <v>3350000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="284"/>
-      <c r="C9" s="282">
+      <c r="B9" s="327"/>
+      <c r="C9" s="204">
         <f>+AA!I7</f>
         <v>115000</v>
       </c>
-      <c r="D9" s="285">
+      <c r="D9" s="207">
         <v>10</v>
       </c>
-      <c r="E9" s="271"/>
+      <c r="E9" s="324"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="209" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="288">
+      <c r="C10" s="210">
         <v>325000</v>
       </c>
-      <c r="D10" s="255">
+      <c r="D10" s="180">
         <v>10</v>
       </c>
-      <c r="E10" s="289">
+      <c r="E10" s="211">
         <f t="shared" ref="E10" si="0">C10*D10</f>
         <v>3250000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="290" t="s">
+      <c r="A11" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="325" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="259">
+      <c r="C11" s="184">
         <f>+AA!I29</f>
         <v>27000</v>
       </c>
-      <c r="D11" s="265">
+      <c r="D11" s="190">
         <v>20</v>
       </c>
-      <c r="E11" s="261">
+      <c r="E11" s="323">
         <f>+(C11*D11)+(C12*D12)</f>
         <v>1690000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="291" t="s">
+      <c r="A12" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="268"/>
-      <c r="C12" s="269">
+      <c r="B12" s="322"/>
+      <c r="C12" s="194">
         <f>+AA!I39</f>
         <v>115000</v>
       </c>
-      <c r="D12" s="270">
+      <c r="D12" s="195">
         <v>10</v>
       </c>
-      <c r="E12" s="271"/>
+      <c r="E12" s="324"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="292" t="s">
+      <c r="A13" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="258" t="s">
+      <c r="B13" s="325" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="293">
+      <c r="C13" s="215">
         <f>+AA!I47</f>
         <v>76000</v>
       </c>
-      <c r="D13" s="294">
+      <c r="D13" s="203">
         <v>20</v>
       </c>
-      <c r="E13" s="261">
+      <c r="E13" s="323">
         <f>+(C13*D13)+(C14*D14)</f>
         <v>2320000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="295" t="s">
+      <c r="A14" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="263"/>
-      <c r="C14" s="293">
+      <c r="B14" s="321"/>
+      <c r="C14" s="215">
         <f>+AA!I44</f>
         <v>80000</v>
       </c>
-      <c r="D14" s="287">
+      <c r="D14" s="209">
         <v>10</v>
       </c>
-      <c r="E14" s="266"/>
+      <c r="E14" s="328"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="296" t="s">
+      <c r="A15" s="217" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="268"/>
-      <c r="C15" s="297">
+      <c r="B15" s="322"/>
+      <c r="C15" s="218">
         <v>110000</v>
       </c>
-      <c r="D15" s="298">
+      <c r="D15" s="206">
         <v>10</v>
       </c>
-      <c r="E15" s="271"/>
+      <c r="E15" s="324"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="294" t="s">
+      <c r="A16" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="282">
+      <c r="C16" s="204">
         <f>+AA!I41</f>
         <v>85000</v>
       </c>
-      <c r="D16" s="287">
+      <c r="D16" s="209">
         <v>30</v>
       </c>
-      <c r="E16" s="300">
+      <c r="E16" s="186">
         <f>+C16*D16</f>
         <v>2550000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="301" t="s">
+      <c r="A17" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="252" t="s">
+      <c r="B17" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="297">
+      <c r="C17" s="218">
         <f>+AA!I51</f>
         <v>55000</v>
       </c>
-      <c r="D17" s="298">
+      <c r="D17" s="206">
         <v>30</v>
       </c>
-      <c r="E17" s="302">
+      <c r="E17" s="196">
         <f>+C17*D17</f>
         <v>1650000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="303" t="s">
+      <c r="A18" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="252" t="s">
+      <c r="B18" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="304">
+      <c r="C18" s="222">
         <f>+AA!I52</f>
         <v>75000</v>
       </c>
-      <c r="D18" s="255">
+      <c r="D18" s="180">
         <v>30</v>
       </c>
-      <c r="E18" s="256">
+      <c r="E18" s="181">
         <f>+C18*D18</f>
         <v>2250000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="305" t="s">
+      <c r="A19" s="223" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="252" t="s">
+      <c r="B19" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="304">
+      <c r="C19" s="222">
         <f>+AA!I53</f>
         <v>65000</v>
       </c>
-      <c r="D19" s="255">
+      <c r="D19" s="180">
         <v>30</v>
       </c>
-      <c r="E19" s="256">
+      <c r="E19" s="181">
         <f>+C19*D19</f>
         <v>1950000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="252" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="306"/>
-      <c r="D21" s="255" t="s">
+      <c r="A21" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="178"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="256" t="s">
+      <c r="E21" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="263" t="s">
+      <c r="B22" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="293">
+      <c r="C22" s="215">
         <f>+AA!I16</f>
         <v>175000</v>
       </c>
-      <c r="D22" s="283">
+      <c r="D22" s="205">
         <v>10</v>
       </c>
-      <c r="E22" s="261">
+      <c r="E22" s="323">
         <f>+(C22*D22)+(C23*D23)</f>
         <v>5750000</v>
       </c>
       <c r="G22" s="112"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="267" t="s">
+      <c r="A23" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="268"/>
-      <c r="C23" s="293">
+      <c r="B23" s="322"/>
+      <c r="C23" s="215">
         <f>+AA!I18</f>
         <v>200000</v>
       </c>
-      <c r="D23" s="285">
+      <c r="D23" s="207">
         <v>20</v>
       </c>
-      <c r="E23" s="271"/>
+      <c r="E23" s="324"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="290" t="s">
+      <c r="A24" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="258" t="s">
+      <c r="B24" s="325" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="307">
+      <c r="C24" s="225">
         <f>+AA!I37</f>
         <v>130000</v>
       </c>
-      <c r="D24" s="273">
+      <c r="D24" s="198">
         <v>20</v>
       </c>
-      <c r="E24" s="261">
+      <c r="E24" s="323">
         <f>+(C24*D24)+(C25*D25)</f>
         <v>3850000</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="308" t="s">
+      <c r="A25" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="268"/>
-      <c r="C25" s="297">
+      <c r="B25" s="322"/>
+      <c r="C25" s="218">
         <f>+AA!I36</f>
         <v>125000</v>
       </c>
-      <c r="D25" s="279">
+      <c r="D25" s="202">
         <v>10</v>
       </c>
-      <c r="E25" s="271"/>
+      <c r="E25" s="324"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="292" t="s">
+      <c r="A26" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="281" t="s">
+      <c r="B26" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="254">
+      <c r="C26" s="179">
         <f>+AA!I45</f>
         <v>260000</v>
       </c>
-      <c r="D26" s="273">
+      <c r="D26" s="198">
         <v>20</v>
       </c>
-      <c r="E26" s="261">
+      <c r="E26" s="323">
         <f>+(C26*D26)+(C27*D27)</f>
         <v>6340000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="295" t="s">
+      <c r="A27" s="216" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="284"/>
-      <c r="C27" s="309">
+      <c r="B27" s="327"/>
+      <c r="C27" s="227">
         <f>+AA!I50</f>
         <v>114000</v>
       </c>
-      <c r="D27" s="279">
+      <c r="D27" s="202">
         <v>10</v>
       </c>
-      <c r="E27" s="271"/>
+      <c r="E27" s="324"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -10601,118 +10601,118 @@
       <c r="E28" s="110"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="252" t="s">
+      <c r="A29" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="253"/>
-      <c r="C29" s="306"/>
-      <c r="D29" s="255" t="s">
+      <c r="B29" s="178"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="256" t="s">
+      <c r="E29" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="257" t="s">
+      <c r="A30" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="254">
+      <c r="C30" s="179">
         <f>+AA!I19</f>
         <v>289000</v>
       </c>
-      <c r="D30" s="283">
+      <c r="D30" s="205">
         <v>10</v>
       </c>
-      <c r="E30" s="261">
+      <c r="E30" s="323">
         <f>+(C30*D30)+(C31*D31)</f>
         <v>10890000</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="267" t="s">
+      <c r="A31" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="268"/>
-      <c r="C31" s="309">
+      <c r="B31" s="322"/>
+      <c r="C31" s="227">
         <f>+AA!I20</f>
         <v>400000</v>
       </c>
-      <c r="D31" s="285">
+      <c r="D31" s="207">
         <v>20</v>
       </c>
-      <c r="E31" s="271"/>
+      <c r="E31" s="324"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="257" t="s">
+      <c r="A32" s="182" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="293">
+      <c r="C32" s="215">
         <f>+AA!I21</f>
         <v>700000</v>
       </c>
-      <c r="D32" s="273">
+      <c r="D32" s="198">
         <v>5</v>
       </c>
-      <c r="E32" s="261">
+      <c r="E32" s="323">
         <f>+(C32*D32)+(C33*D33)</f>
         <v>20300000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="267" t="s">
+      <c r="A33" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="268"/>
-      <c r="C33" s="297">
+      <c r="B33" s="322"/>
+      <c r="C33" s="218">
         <f>+AA!I24</f>
         <v>1120000</v>
       </c>
-      <c r="D33" s="279">
+      <c r="D33" s="202">
         <v>15</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="324"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="310" t="s">
+      <c r="A34" s="228" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="255" t="s">
+      <c r="B34" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="311">
+      <c r="C34" s="229">
         <f>+AA!I42</f>
         <v>400000</v>
       </c>
-      <c r="D34" s="255">
+      <c r="D34" s="180">
         <v>25</v>
       </c>
-      <c r="E34" s="256">
+      <c r="E34" s="181">
         <f>+C34*D34</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="312" t="s">
+      <c r="A35" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="255" t="s">
+      <c r="B35" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="311">
+      <c r="C35" s="229">
         <f>+AA!I40</f>
         <v>200000</v>
       </c>
-      <c r="D35" s="255">
+      <c r="D35" s="180">
         <v>30</v>
       </c>
-      <c r="E35" s="256">
+      <c r="E35" s="181">
         <f>+C35*D35</f>
         <v>6000000</v>
       </c>
@@ -10722,6 +10722,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="B24:B25"/>
@@ -10730,18 +10742,6 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10767,759 +10767,759 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="183" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="294" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="300" t="s">
+      <c r="D1" s="186" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="231" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="313">
+      <c r="C2" s="183">
         <v>10</v>
       </c>
-      <c r="D2" s="261">
+      <c r="D2" s="323">
         <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="231" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="315">
+      <c r="B3" s="327"/>
+      <c r="C3" s="193">
         <v>5</v>
       </c>
-      <c r="D3" s="271"/>
+      <c r="D3" s="324"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="232" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="294" t="s">
+      <c r="B4" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="298">
+      <c r="C4" s="206">
         <v>40</v>
       </c>
-      <c r="D4" s="317">
+      <c r="D4" s="191">
         <v>480000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="281" t="s">
+      <c r="B5" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="283">
+      <c r="C5" s="205">
         <v>20</v>
       </c>
-      <c r="D5" s="261">
+      <c r="D5" s="323">
         <v>44000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="233" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285">
+      <c r="B6" s="327"/>
+      <c r="C6" s="207">
         <v>20</v>
       </c>
-      <c r="D6" s="271"/>
+      <c r="D6" s="324"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="257" t="s">
+      <c r="A7" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="273">
+      <c r="C7" s="198">
         <v>20</v>
       </c>
-      <c r="D7" s="261">
+      <c r="D7" s="323">
         <v>617000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="319" t="s">
+      <c r="A8" s="234" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="320"/>
-      <c r="C8" s="287">
-        <v>4</v>
-      </c>
-      <c r="D8" s="266"/>
+      <c r="B8" s="332"/>
+      <c r="C8" s="209">
+        <v>4</v>
+      </c>
+      <c r="D8" s="328"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="284"/>
-      <c r="C9" s="279">
+      <c r="B9" s="327"/>
+      <c r="C9" s="202">
         <v>2</v>
       </c>
-      <c r="D9" s="271"/>
+      <c r="D9" s="324"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="273">
+      <c r="C10" s="198">
         <v>20</v>
       </c>
-      <c r="D10" s="261">
+      <c r="D10" s="323">
         <v>1040000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="319" t="s">
+      <c r="A11" s="234" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="320"/>
-      <c r="C11" s="287">
-        <v>4</v>
-      </c>
-      <c r="D11" s="266"/>
+      <c r="B11" s="332"/>
+      <c r="C11" s="209">
+        <v>4</v>
+      </c>
+      <c r="D11" s="328"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="267" t="s">
+      <c r="A12" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285">
+      <c r="B12" s="327"/>
+      <c r="C12" s="207">
         <v>2</v>
       </c>
-      <c r="D12" s="271"/>
+      <c r="D12" s="324"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="290" t="s">
+      <c r="A13" s="212" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="281" t="s">
+      <c r="B13" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="273">
+      <c r="C13" s="198">
         <v>20</v>
       </c>
-      <c r="D13" s="261">
+      <c r="D13" s="323">
         <v>260000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="321" t="s">
+      <c r="A14" s="235" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="320"/>
-      <c r="C14" s="287">
+      <c r="B14" s="332"/>
+      <c r="C14" s="209">
         <v>20</v>
       </c>
-      <c r="D14" s="266"/>
+      <c r="D14" s="328"/>
       <c r="F14" s="112"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="291" t="s">
+      <c r="A15" s="213" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="284"/>
-      <c r="C15" s="285">
+      <c r="B15" s="327"/>
+      <c r="C15" s="207">
         <v>10</v>
       </c>
-      <c r="D15" s="271"/>
+      <c r="D15" s="324"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="292" t="s">
+      <c r="A16" s="214" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="294" t="s">
+      <c r="B16" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="273">
+      <c r="C16" s="198">
         <v>20</v>
       </c>
-      <c r="D16" s="300">
+      <c r="D16" s="186">
         <v>40000</v>
       </c>
       <c r="F16" s="112"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="322" t="s">
+      <c r="A17" s="236" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="281" t="s">
+      <c r="B17" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="273">
-        <v>4</v>
-      </c>
-      <c r="D17" s="261">
+      <c r="C17" s="198">
+        <v>4</v>
+      </c>
+      <c r="D17" s="323">
         <v>2680000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="323" t="s">
+      <c r="A18" s="237" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="320"/>
-      <c r="C18" s="287">
+      <c r="B18" s="332"/>
+      <c r="C18" s="209">
         <v>2</v>
       </c>
-      <c r="D18" s="266"/>
+      <c r="D18" s="328"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="322" t="s">
+      <c r="A19" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="273">
+      <c r="C19" s="198">
         <v>20</v>
       </c>
-      <c r="D19" s="261">
+      <c r="D19" s="323">
         <v>1800000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="323" t="s">
+      <c r="A20" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="320"/>
-      <c r="C20" s="287">
+      <c r="B20" s="332"/>
+      <c r="C20" s="209">
         <v>10</v>
       </c>
-      <c r="D20" s="266"/>
+      <c r="D20" s="328"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="238" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="281" t="s">
+      <c r="B21" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="273">
+      <c r="C21" s="198">
         <v>20</v>
       </c>
-      <c r="D21" s="261">
+      <c r="D21" s="323">
         <v>208000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="325" t="s">
+      <c r="A22" s="239" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="284"/>
-      <c r="C22" s="279">
+      <c r="B22" s="327"/>
+      <c r="C22" s="202">
         <v>20</v>
       </c>
-      <c r="D22" s="271"/>
+      <c r="D22" s="324"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="326"/>
-      <c r="B23" s="326"/>
-      <c r="C23" s="327"/>
-      <c r="D23" s="328"/>
+      <c r="A23" s="240"/>
+      <c r="B23" s="240"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="252" t="s">
+      <c r="A24" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="253"/>
-      <c r="C24" s="255" t="s">
+      <c r="B24" s="178"/>
+      <c r="C24" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="256" t="s">
+      <c r="D24" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="257" t="s">
+      <c r="A25" s="182" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="263" t="s">
+      <c r="B25" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="283">
-        <v>4</v>
-      </c>
-      <c r="D25" s="261">
+      <c r="C25" s="205">
+        <v>4</v>
+      </c>
+      <c r="D25" s="323">
         <v>10500000</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="268"/>
-      <c r="C26" s="285">
-        <v>1</v>
-      </c>
-      <c r="D26" s="271"/>
+      <c r="B26" s="322"/>
+      <c r="C26" s="207">
+        <v>1</v>
+      </c>
+      <c r="D26" s="324"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="257" t="s">
+      <c r="A27" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="281" t="s">
+      <c r="B27" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="273">
-        <v>4</v>
-      </c>
-      <c r="D27" s="261">
+      <c r="C27" s="198">
+        <v>4</v>
+      </c>
+      <c r="D27" s="323">
         <v>6800000</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="329" t="s">
+      <c r="A28" s="243" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="320"/>
-      <c r="C28" s="287">
+      <c r="B28" s="332"/>
+      <c r="C28" s="209">
         <v>2</v>
       </c>
-      <c r="D28" s="266"/>
+      <c r="D28" s="328"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="290" t="s">
+      <c r="A29" s="212" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="258" t="s">
+      <c r="B29" s="325" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="273">
-        <v>4</v>
-      </c>
-      <c r="D29" s="261">
+      <c r="C29" s="198">
+        <v>4</v>
+      </c>
+      <c r="D29" s="323">
         <v>2900000</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="291" t="s">
+      <c r="A30" s="213" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="268"/>
-      <c r="C30" s="279">
+      <c r="B30" s="322"/>
+      <c r="C30" s="202">
         <v>2</v>
       </c>
-      <c r="D30" s="271"/>
+      <c r="D30" s="324"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="325" t="s">
+      <c r="A31" s="239" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="255" t="s">
+      <c r="B31" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="279">
-        <v>4</v>
-      </c>
-      <c r="D31" s="317">
+      <c r="C31" s="202">
+        <v>4</v>
+      </c>
+      <c r="D31" s="191">
         <v>1800000</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="325" t="s">
+      <c r="A32" s="239" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="330" t="s">
+      <c r="B32" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="255">
+      <c r="C32" s="180">
         <v>2</v>
       </c>
-      <c r="D32" s="317">
+      <c r="D32" s="191">
         <v>2200000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="322" t="s">
+      <c r="A33" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="281" t="s">
+      <c r="B33" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="273">
-        <v>4</v>
-      </c>
-      <c r="D33" s="261">
+      <c r="C33" s="198">
+        <v>4</v>
+      </c>
+      <c r="D33" s="323">
         <v>4500000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="331" t="s">
+      <c r="A34" s="244" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="284"/>
-      <c r="C34" s="279">
+      <c r="B34" s="327"/>
+      <c r="C34" s="202">
         <v>2</v>
       </c>
-      <c r="D34" s="271"/>
+      <c r="D34" s="324"/>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="332"/>
-      <c r="B35" s="333"/>
-      <c r="C35" s="327"/>
-      <c r="D35" s="334"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="241"/>
+      <c r="D35" s="247"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="252" t="s">
+      <c r="A36" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="253"/>
-      <c r="C36" s="255" t="s">
+      <c r="B36" s="178"/>
+      <c r="C36" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="256" t="s">
+      <c r="D36" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="303" t="s">
+      <c r="A37" s="221" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="255" t="s">
+      <c r="B37" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="283">
+      <c r="C37" s="205">
         <v>10</v>
       </c>
-      <c r="D37" s="256">
+      <c r="D37" s="181">
         <v>3500000</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="303" t="s">
+      <c r="A38" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="255" t="s">
+      <c r="B38" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="285">
+      <c r="C38" s="207">
         <v>10</v>
       </c>
-      <c r="D38" s="335">
+      <c r="D38" s="248">
         <v>800000</v>
       </c>
       <c r="G38" s="112"/>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="336" t="s">
+      <c r="A39" s="249" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="263" t="s">
+      <c r="B39" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="273">
+      <c r="C39" s="198">
         <v>2</v>
       </c>
-      <c r="D39" s="261">
+      <c r="D39" s="323">
         <v>5600000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="308" t="s">
+      <c r="A40" s="226" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="268"/>
-      <c r="C40" s="279">
+      <c r="B40" s="322"/>
+      <c r="C40" s="202">
         <v>6</v>
       </c>
-      <c r="D40" s="271"/>
+      <c r="D40" s="324"/>
     </row>
     <row r="41" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="310" t="s">
+      <c r="A41" s="228" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="255" t="s">
+      <c r="B41" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="255">
-        <v>4</v>
-      </c>
-      <c r="D41" s="256">
+      <c r="C41" s="180">
+        <v>4</v>
+      </c>
+      <c r="D41" s="181">
         <v>2400000</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="326"/>
-      <c r="B42" s="326"/>
-      <c r="C42" s="327"/>
-      <c r="D42" s="328"/>
+      <c r="A42" s="240"/>
+      <c r="B42" s="240"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="242"/>
       <c r="H42" s="112"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="313" t="s">
+      <c r="A43" s="183" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="253"/>
-      <c r="C43" s="255" t="s">
+      <c r="B43" s="178"/>
+      <c r="C43" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="256" t="s">
+      <c r="D43" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="257" t="s">
+      <c r="A44" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="337" t="s">
+      <c r="B44" s="335" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="273">
+      <c r="C44" s="198">
         <v>6</v>
       </c>
-      <c r="D44" s="261">
+      <c r="D44" s="323">
         <v>2220000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="267" t="s">
+      <c r="A45" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="338"/>
-      <c r="C45" s="279">
+      <c r="B45" s="336"/>
+      <c r="C45" s="202">
         <v>6</v>
       </c>
-      <c r="D45" s="271"/>
+      <c r="D45" s="324"/>
       <c r="G45" s="112"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="257" t="s">
+      <c r="A46" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="337" t="s">
+      <c r="B46" s="335" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="273">
+      <c r="C46" s="198">
         <v>20</v>
       </c>
-      <c r="D46" s="261">
+      <c r="D46" s="323">
         <v>4250000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="267" t="s">
+      <c r="A47" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="338"/>
-      <c r="C47" s="279">
+      <c r="B47" s="336"/>
+      <c r="C47" s="202">
         <v>10</v>
       </c>
-      <c r="D47" s="271"/>
+      <c r="D47" s="324"/>
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="339" t="s">
+      <c r="A48" s="250" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="263" t="s">
+      <c r="B48" s="321" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="273">
+      <c r="C48" s="198">
         <v>10</v>
       </c>
-      <c r="D48" s="261">
+      <c r="D48" s="323">
         <v>4500000</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="340" t="s">
+      <c r="A49" s="251" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="263"/>
-      <c r="C49" s="287">
+      <c r="B49" s="321"/>
+      <c r="C49" s="209">
         <v>10</v>
       </c>
-      <c r="D49" s="266"/>
+      <c r="D49" s="328"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="340" t="s">
+      <c r="A50" s="251" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="268"/>
-      <c r="C50" s="279">
+      <c r="B50" s="322"/>
+      <c r="C50" s="202">
         <v>20</v>
       </c>
-      <c r="D50" s="271"/>
+      <c r="D50" s="324"/>
     </row>
     <row r="51" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="305" t="s">
+      <c r="A51" s="223" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="255" t="s">
+      <c r="B51" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="255">
+      <c r="C51" s="180">
         <v>16</v>
       </c>
-      <c r="D51" s="256">
+      <c r="D51" s="181">
         <v>2400000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="326"/>
-      <c r="B52" s="326"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="328"/>
+      <c r="A52" s="240"/>
+      <c r="B52" s="240"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="242"/>
     </row>
     <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="252" t="s">
+      <c r="A53" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="253"/>
-      <c r="C53" s="255" t="s">
+      <c r="B53" s="178"/>
+      <c r="C53" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="256" t="s">
+      <c r="D53" s="181" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="257" t="s">
+      <c r="A54" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="281" t="s">
+      <c r="B54" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="283">
+      <c r="C54" s="205">
         <v>60</v>
       </c>
-      <c r="D54" s="261">
+      <c r="D54" s="323">
         <v>4260000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="267" t="s">
+      <c r="A55" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="284"/>
-      <c r="C55" s="285">
+      <c r="B55" s="327"/>
+      <c r="C55" s="207">
         <v>60</v>
       </c>
-      <c r="D55" s="271"/>
+      <c r="D55" s="324"/>
     </row>
     <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="257" t="s">
+      <c r="A56" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="281" t="s">
+      <c r="B56" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="273">
+      <c r="C56" s="198">
         <v>60</v>
       </c>
-      <c r="D56" s="261">
+      <c r="D56" s="323">
         <v>900000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="318" t="s">
+      <c r="A57" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="320"/>
-      <c r="C57" s="287">
+      <c r="B57" s="332"/>
+      <c r="C57" s="209">
         <v>60</v>
       </c>
-      <c r="D57" s="266"/>
+      <c r="D57" s="328"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="341" t="s">
+      <c r="A58" s="252" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="284"/>
-      <c r="C58" s="285">
+      <c r="B58" s="327"/>
+      <c r="C58" s="207">
         <v>60</v>
       </c>
-      <c r="D58" s="271"/>
+      <c r="D58" s="324"/>
     </row>
     <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="340" t="s">
+      <c r="A59" s="251" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="342" t="s">
+      <c r="B59" s="333" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="273">
+      <c r="C59" s="198">
         <v>60</v>
       </c>
-      <c r="D59" s="274">
+      <c r="D59" s="329">
         <v>260000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="340" t="s">
+      <c r="A60" s="251" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="343"/>
-      <c r="C60" s="276">
+      <c r="B60" s="334"/>
+      <c r="C60" s="200">
         <v>60</v>
       </c>
-      <c r="D60" s="277"/>
+      <c r="D60" s="330"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="340" t="s">
+      <c r="A61" s="251" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="343"/>
-      <c r="C61" s="276">
+      <c r="B61" s="334"/>
+      <c r="C61" s="200">
         <v>60</v>
       </c>
-      <c r="D61" s="277"/>
+      <c r="D61" s="330"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="344" t="s">
+      <c r="A62" s="253" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="343"/>
-      <c r="C62" s="279">
+      <c r="B62" s="334"/>
+      <c r="C62" s="202">
         <v>60</v>
       </c>
-      <c r="D62" s="277"/>
+      <c r="D62" s="330"/>
     </row>
     <row r="63" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="305" t="s">
+      <c r="A63" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="294" t="s">
+      <c r="B63" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="287">
+      <c r="C63" s="209">
         <v>60</v>
       </c>
-      <c r="D63" s="300">
+      <c r="D63" s="186">
         <v>150000</v>
       </c>
       <c r="F63" s="112"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="310" t="s">
+      <c r="A64" s="228" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="255" t="s">
+      <c r="B64" s="180" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="255">
+      <c r="C64" s="180">
         <v>60</v>
       </c>
-      <c r="D64" s="256">
+      <c r="D64" s="181">
         <v>2100000</v>
       </c>
       <c r="F64" s="112"/>
@@ -11529,12 +11529,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="B39:B40"/>
@@ -11551,22 +11561,12 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11593,464 +11593,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="254" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="355" t="s">
+      <c r="B1" s="264" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="355" t="s">
+      <c r="C1" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="357" t="s">
+      <c r="D1" s="266" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="255" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="346" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="273">
-        <v>4</v>
-      </c>
-      <c r="D2" s="243">
+      <c r="C2" s="198">
+        <v>4</v>
+      </c>
+      <c r="D2" s="349">
         <v>10374000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="256" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="276">
+      <c r="B3" s="347"/>
+      <c r="C3" s="200">
         <v>10</v>
       </c>
-      <c r="D3" s="244"/>
+      <c r="D3" s="350"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="347" t="s">
+      <c r="A4" s="256" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="276">
+      <c r="B4" s="347"/>
+      <c r="C4" s="200">
         <v>2</v>
       </c>
-      <c r="D4" s="244"/>
+      <c r="D4" s="350"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="348" t="s">
+      <c r="A5" s="257" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="276">
+      <c r="B5" s="347"/>
+      <c r="C5" s="200">
         <v>2</v>
       </c>
-      <c r="D5" s="244"/>
+      <c r="D5" s="350"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="347" t="s">
+      <c r="A6" s="256" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="276">
+      <c r="B6" s="347"/>
+      <c r="C6" s="200">
         <v>16</v>
       </c>
-      <c r="D6" s="244"/>
+      <c r="D6" s="350"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="347" t="s">
+      <c r="A7" s="256" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="276">
+      <c r="B7" s="347"/>
+      <c r="C7" s="200">
         <v>8</v>
       </c>
-      <c r="D7" s="244"/>
+      <c r="D7" s="350"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="347" t="s">
+      <c r="A8" s="256" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="276">
+      <c r="B8" s="347"/>
+      <c r="C8" s="200">
         <v>20</v>
       </c>
-      <c r="D8" s="244"/>
+      <c r="D8" s="350"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="347" t="s">
+      <c r="A9" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="276">
+      <c r="B9" s="347"/>
+      <c r="C9" s="200">
         <v>20</v>
       </c>
-      <c r="D9" s="244"/>
+      <c r="D9" s="350"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="347" t="s">
+      <c r="A10" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="241"/>
-      <c r="C10" s="276">
+      <c r="B10" s="347"/>
+      <c r="C10" s="200">
         <v>10</v>
       </c>
-      <c r="D10" s="244"/>
+      <c r="D10" s="350"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="347" t="s">
+      <c r="A11" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="241"/>
-      <c r="C11" s="276">
-        <v>4</v>
-      </c>
-      <c r="D11" s="244"/>
+      <c r="B11" s="347"/>
+      <c r="C11" s="200">
+        <v>4</v>
+      </c>
+      <c r="D11" s="350"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="347" t="s">
+      <c r="A12" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="276">
-        <v>4</v>
-      </c>
-      <c r="D12" s="244"/>
+      <c r="B12" s="347"/>
+      <c r="C12" s="200">
+        <v>4</v>
+      </c>
+      <c r="D12" s="350"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="347" t="s">
+      <c r="A13" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="276">
-        <v>4</v>
-      </c>
-      <c r="D13" s="244"/>
+      <c r="B13" s="347"/>
+      <c r="C13" s="200">
+        <v>4</v>
+      </c>
+      <c r="D13" s="350"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="347" t="s">
+      <c r="A14" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="276">
+      <c r="B14" s="347"/>
+      <c r="C14" s="200">
         <v>2</v>
       </c>
-      <c r="D14" s="244"/>
+      <c r="D14" s="350"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="347" t="s">
+      <c r="A15" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="C15" s="276">
+      <c r="B15" s="347"/>
+      <c r="C15" s="200">
         <v>20</v>
       </c>
-      <c r="D15" s="244"/>
+      <c r="D15" s="350"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="347" t="s">
+      <c r="A16" s="256" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="276">
+      <c r="B16" s="347"/>
+      <c r="C16" s="200">
         <v>20</v>
       </c>
-      <c r="D16" s="244"/>
+      <c r="D16" s="350"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="347" t="s">
+      <c r="A17" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="241"/>
-      <c r="C17" s="276">
+      <c r="B17" s="347"/>
+      <c r="C17" s="200">
         <v>6</v>
       </c>
-      <c r="D17" s="244"/>
+      <c r="D17" s="350"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="347" t="s">
+      <c r="A18" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="276">
+      <c r="B18" s="347"/>
+      <c r="C18" s="200">
         <v>8</v>
       </c>
-      <c r="D18" s="244"/>
+      <c r="D18" s="350"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="349" t="s">
+      <c r="A19" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="242"/>
-      <c r="C19" s="279">
-        <v>4</v>
-      </c>
-      <c r="D19" s="245"/>
+      <c r="B19" s="348"/>
+      <c r="C19" s="202">
+        <v>4</v>
+      </c>
+      <c r="D19" s="351"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="332"/>
+      <c r="A20" s="245"/>
       <c r="B20" s="109"/>
-      <c r="C20" s="327"/>
+      <c r="C20" s="241"/>
       <c r="D20" s="110"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="350" t="s">
+      <c r="A21" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="234" t="s">
+      <c r="B21" s="340" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="273">
+      <c r="C21" s="198">
         <v>2</v>
       </c>
-      <c r="D21" s="246">
+      <c r="D21" s="352">
         <v>11700000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="332" t="s">
+      <c r="A22" s="245" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="235"/>
-      <c r="C22" s="276">
-        <v>1</v>
-      </c>
-      <c r="D22" s="247"/>
+      <c r="B22" s="341"/>
+      <c r="C22" s="200">
+        <v>1</v>
+      </c>
+      <c r="D22" s="353"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="351" t="s">
+      <c r="A23" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="276">
+      <c r="B23" s="341"/>
+      <c r="C23" s="200">
         <v>2</v>
       </c>
-      <c r="D23" s="247"/>
+      <c r="D23" s="353"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="351" t="s">
+      <c r="A24" s="260" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="235"/>
-      <c r="C24" s="276">
-        <v>1</v>
-      </c>
-      <c r="D24" s="247"/>
+      <c r="B24" s="341"/>
+      <c r="C24" s="200">
+        <v>1</v>
+      </c>
+      <c r="D24" s="353"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="352" t="s">
+      <c r="A25" s="261" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="276">
-        <v>1</v>
-      </c>
-      <c r="D25" s="247"/>
+      <c r="B25" s="341"/>
+      <c r="C25" s="200">
+        <v>1</v>
+      </c>
+      <c r="D25" s="353"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="332" t="s">
+      <c r="A26" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="235"/>
-      <c r="C26" s="285">
-        <v>1</v>
-      </c>
-      <c r="D26" s="247"/>
+      <c r="B26" s="341"/>
+      <c r="C26" s="207">
+        <v>1</v>
+      </c>
+      <c r="D26" s="353"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="347" t="s">
+      <c r="A27" s="256" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="285">
+      <c r="B27" s="341"/>
+      <c r="C27" s="207">
         <v>2</v>
       </c>
-      <c r="D27" s="247"/>
+      <c r="D27" s="353"/>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="353" t="s">
+      <c r="A28" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="279">
-        <v>1</v>
-      </c>
-      <c r="D28" s="248"/>
+      <c r="B28" s="342"/>
+      <c r="C28" s="202">
+        <v>1</v>
+      </c>
+      <c r="D28" s="354"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="326"/>
-      <c r="C29" s="327"/>
+      <c r="A29" s="240"/>
+      <c r="C29" s="241"/>
       <c r="H29" s="112"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="350" t="s">
+      <c r="A30" s="259" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="249" t="s">
+      <c r="B30" s="355" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="273">
+      <c r="C30" s="198">
         <v>2</v>
       </c>
-      <c r="D30" s="231">
+      <c r="D30" s="337">
         <v>640000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="351" t="s">
+      <c r="A31" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="250"/>
-      <c r="C31" s="276">
+      <c r="B31" s="356"/>
+      <c r="C31" s="200">
         <v>6</v>
       </c>
-      <c r="D31" s="232"/>
+      <c r="D31" s="338"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="351" t="s">
+      <c r="A32" s="260" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="250"/>
-      <c r="C32" s="276">
+      <c r="B32" s="356"/>
+      <c r="C32" s="200">
         <v>2</v>
       </c>
-      <c r="D32" s="232"/>
+      <c r="D32" s="338"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="353" t="s">
+      <c r="A33" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="251"/>
-      <c r="C33" s="279">
+      <c r="B33" s="357"/>
+      <c r="C33" s="202">
         <v>2</v>
       </c>
-      <c r="D33" s="233"/>
+      <c r="D33" s="339"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="326"/>
-      <c r="C34" s="327"/>
+      <c r="A34" s="240"/>
+      <c r="C34" s="241"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="350" t="s">
+      <c r="A35" s="259" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="234" t="s">
+      <c r="B35" s="340" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="273">
-        <v>4</v>
-      </c>
-      <c r="D35" s="237">
+      <c r="C35" s="198">
+        <v>4</v>
+      </c>
+      <c r="D35" s="343">
         <v>31130000</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="351" t="s">
+      <c r="A36" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="235"/>
-      <c r="C36" s="276">
+      <c r="B36" s="341"/>
+      <c r="C36" s="200">
         <v>2</v>
       </c>
-      <c r="D36" s="238"/>
+      <c r="D36" s="344"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="351" t="s">
+      <c r="A37" s="260" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="235"/>
-      <c r="C37" s="276">
-        <v>1</v>
-      </c>
-      <c r="D37" s="238"/>
+      <c r="B37" s="341"/>
+      <c r="C37" s="200">
+        <v>1</v>
+      </c>
+      <c r="D37" s="344"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="351" t="s">
+      <c r="A38" s="260" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="235"/>
-      <c r="C38" s="276">
-        <v>1</v>
-      </c>
-      <c r="D38" s="238"/>
+      <c r="B38" s="341"/>
+      <c r="C38" s="200">
+        <v>1</v>
+      </c>
+      <c r="D38" s="344"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="351" t="s">
+      <c r="A39" s="260" t="s">
         <v>262</v>
       </c>
-      <c r="B39" s="235"/>
-      <c r="C39" s="276">
+      <c r="B39" s="341"/>
+      <c r="C39" s="200">
         <v>2</v>
       </c>
-      <c r="D39" s="238"/>
+      <c r="D39" s="344"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="351" t="s">
+      <c r="A40" s="260" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="276">
+      <c r="B40" s="341"/>
+      <c r="C40" s="200">
         <v>2</v>
       </c>
-      <c r="D40" s="238"/>
+      <c r="D40" s="344"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="351" t="s">
+      <c r="A41" s="260" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="235"/>
-      <c r="C41" s="285">
+      <c r="B41" s="341"/>
+      <c r="C41" s="207">
         <v>2</v>
       </c>
-      <c r="D41" s="238"/>
+      <c r="D41" s="344"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="353" t="s">
+      <c r="A42" s="262" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="279">
+      <c r="B42" s="342"/>
+      <c r="C42" s="202">
         <v>2</v>
       </c>
-      <c r="D42" s="239"/>
+      <c r="D42" s="345"/>
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="326"/>
-      <c r="C43" s="327"/>
+      <c r="A43" s="240"/>
+      <c r="C43" s="241"/>
       <c r="D43" s="138"/>
     </row>
     <row r="44" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="354" t="s">
+      <c r="A44" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="355" t="s">
+      <c r="B44" s="264" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="255">
+      <c r="C44" s="180">
         <v>60</v>
       </c>
-      <c r="D44" s="356">
+      <c r="D44" s="265">
         <v>1200000</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="326"/>
-      <c r="C45" s="327"/>
+      <c r="A45" s="240"/>
+      <c r="C45" s="241"/>
     </row>
     <row r="46" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="354" t="s">
+      <c r="A46" s="263" t="s">
         <v>258</v>
       </c>
-      <c r="B46" s="355" t="s">
+      <c r="B46" s="264" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="255">
-        <v>1</v>
-      </c>
-      <c r="D46" s="356">
+      <c r="C46" s="180">
+        <v>1</v>
+      </c>
+      <c r="D46" s="265">
         <v>7000000</v>
       </c>
     </row>

--- a/MISSIONS/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSIONS/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\Mission_DCS\EX-MISSIONS\MISSIONS\CAMPAÑA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2DADC-EB20-4522-B776-820D1A7C91FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30C47F0-5F61-43DC-AE46-2A29CAC3C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2475" windowWidth="28800" windowHeight="11295" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -962,7 +962,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1029,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="72">
     <border>
@@ -1931,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2043,7 +2049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2052,15 +2057,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2078,11 +2074,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2807,6 +2799,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2816,28 +2811,25 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2918,6 +2910,64 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3237,8 +3287,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3257,12 +3307,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="268"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="262"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -3278,50 +3328,50 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="151"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="352" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="47">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="353">
+        <v>1</v>
+      </c>
+      <c r="C3" s="354">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="354">
         <v>6</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="355">
         <v>166</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="356">
         <v>1281</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="357">
         <v>1500000</v>
       </c>
-      <c r="H3" s="57">
-        <v>4</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="H3" s="358">
+        <v>1</v>
+      </c>
+      <c r="I3" s="359">
         <f t="shared" ref="I3:I9" si="0">H3*G3</f>
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
       <c r="C4" s="8">
@@ -3330,171 +3380,171 @@
       <c r="D4" s="8">
         <v>6</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="44">
         <v>290</v>
       </c>
       <c r="F4" s="36">
         <v>1275</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="49">
         <v>1500000</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="51">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="40">
+      <c r="D5" s="8">
+        <v>6</v>
+      </c>
+      <c r="E5" s="44">
+        <v>292</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1277</v>
+      </c>
+      <c r="G5" s="49">
+        <v>2000000</v>
+      </c>
+      <c r="H5" s="51">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6</v>
+      </c>
+      <c r="E6" s="44">
+        <v>289</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1276</v>
+      </c>
+      <c r="G6" s="49">
+        <v>2500000</v>
+      </c>
+      <c r="H6" s="51">
+        <v>1</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="352" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="353">
+        <v>1</v>
+      </c>
+      <c r="C7" s="354">
+        <v>2</v>
+      </c>
+      <c r="D7" s="354">
+        <v>6</v>
+      </c>
+      <c r="E7" s="355">
+        <v>348</v>
+      </c>
+      <c r="F7" s="356">
+        <v>1282</v>
+      </c>
+      <c r="G7" s="357">
+        <v>3000000</v>
+      </c>
+      <c r="H7" s="358">
+        <v>1</v>
+      </c>
+      <c r="I7" s="359">
         <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="47">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="8" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="352" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="353">
+        <v>1</v>
+      </c>
+      <c r="C8" s="354">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D8" s="354">
         <v>6</v>
       </c>
-      <c r="E5" s="48">
-        <v>292</v>
-      </c>
-      <c r="F5" s="36">
-        <v>1277</v>
-      </c>
-      <c r="G5" s="53">
-        <v>2000000</v>
-      </c>
-      <c r="H5" s="57">
+      <c r="E8" s="355">
+        <v>151</v>
+      </c>
+      <c r="F8" s="356">
+        <v>1270</v>
+      </c>
+      <c r="G8" s="357">
+        <v>4500000</v>
+      </c>
+      <c r="H8" s="358">
+        <v>1</v>
+      </c>
+      <c r="I8" s="359">
+        <f t="shared" si="0"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="352" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="353">
+        <v>1</v>
+      </c>
+      <c r="C9" s="354">
         <v>2</v>
       </c>
-      <c r="I5" s="40">
+      <c r="D9" s="354">
+        <v>5</v>
+      </c>
+      <c r="E9" s="355">
+        <v>329</v>
+      </c>
+      <c r="F9" s="356">
+        <v>1255</v>
+      </c>
+      <c r="G9" s="357">
+        <v>6500000</v>
+      </c>
+      <c r="H9" s="358">
+        <v>1</v>
+      </c>
+      <c r="I9" s="359">
         <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>6</v>
-      </c>
-      <c r="E6" s="48">
-        <v>289</v>
-      </c>
-      <c r="F6" s="36">
-        <v>1276</v>
-      </c>
-      <c r="G6" s="53">
-        <v>2500000</v>
-      </c>
-      <c r="H6" s="57">
-        <v>2</v>
-      </c>
-      <c r="I6" s="40">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="47">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="48">
-        <v>348</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1282</v>
-      </c>
-      <c r="G7" s="53">
-        <v>3000000</v>
-      </c>
-      <c r="H7" s="57">
-        <v>4</v>
-      </c>
-      <c r="I7" s="40">
-        <f t="shared" si="0"/>
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="47">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="48">
-        <v>151</v>
-      </c>
-      <c r="F8" s="36">
-        <v>1270</v>
-      </c>
-      <c r="G8" s="53">
-        <v>4500000</v>
-      </c>
-      <c r="H8" s="57">
-        <v>4</v>
-      </c>
-      <c r="I8" s="40">
-        <f t="shared" si="0"/>
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="47">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8">
-        <v>5</v>
-      </c>
-      <c r="E9" s="48">
-        <v>329</v>
-      </c>
-      <c r="F9" s="36">
-        <v>1255</v>
-      </c>
-      <c r="G9" s="53">
         <v>6500000</v>
-      </c>
-      <c r="H9" s="57">
-        <v>4</v>
-      </c>
-      <c r="I9" s="40">
-        <f t="shared" si="0"/>
-        <v>26000000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3506,166 +3556,166 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="44">
-        <v>1</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="B11" s="371">
+        <v>1</v>
+      </c>
+      <c r="C11" s="372">
         <v>2</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="372">
         <v>6</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="373">
         <v>296</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="374">
         <v>1269</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="375">
         <v>13000000</v>
       </c>
-      <c r="H11" s="56">
-        <v>4</v>
-      </c>
-      <c r="I11" s="52">
+      <c r="H11" s="376">
+        <v>1</v>
+      </c>
+      <c r="I11" s="375">
         <f>H11*G11</f>
-        <v>52000000</v>
-      </c>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+        <v>13000000</v>
+      </c>
+      <c r="J11" s="377"/>
+    </row>
+    <row r="12" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="352" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="47">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="353">
+        <v>1</v>
+      </c>
+      <c r="C12" s="354">
         <v>2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="354">
         <v>6</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="355">
         <v>336</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="356">
         <v>1274</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="357">
         <v>14000000</v>
       </c>
-      <c r="H12" s="57">
-        <v>4</v>
-      </c>
-      <c r="I12" s="40">
+      <c r="H12" s="358">
+        <v>1</v>
+      </c>
+      <c r="I12" s="359">
         <f>H12*G12</f>
-        <v>56000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="352" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="47">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="353">
+        <v>1</v>
+      </c>
+      <c r="C13" s="354">
         <v>2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="354">
         <v>6</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="355">
         <v>326</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="356">
         <v>1267</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="357">
         <v>16500000</v>
       </c>
-      <c r="H13" s="57">
-        <v>4</v>
-      </c>
-      <c r="I13" s="40">
+      <c r="H13" s="358">
+        <v>1</v>
+      </c>
+      <c r="I13" s="359">
         <f>H13*G13</f>
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="352" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="47">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="353">
+        <v>1</v>
+      </c>
+      <c r="C14" s="354">
         <v>2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="354">
         <v>6</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="355">
         <v>300</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="356">
         <v>1252</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="357">
         <v>22000000</v>
       </c>
-      <c r="H14" s="57">
-        <v>4</v>
-      </c>
-      <c r="I14" s="40">
+      <c r="H14" s="358">
+        <v>1</v>
+      </c>
+      <c r="I14" s="359">
         <f>H14*G14</f>
-        <v>88000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" s="369" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="361" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="47">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="362">
+        <v>1</v>
+      </c>
+      <c r="C16" s="363">
+        <v>1</v>
+      </c>
+      <c r="D16" s="363">
         <v>5</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="364">
         <v>347</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="365">
         <v>1265</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="366">
         <v>30000000</v>
       </c>
-      <c r="H16" s="57">
-        <v>2</v>
-      </c>
-      <c r="I16" s="40">
+      <c r="H16" s="367">
+        <v>1</v>
+      </c>
+      <c r="I16" s="368">
         <f>H16*G16</f>
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,131 +3727,131 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+    <row r="18" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="352" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="47">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="48">
+      <c r="B18" s="353">
+        <v>1</v>
+      </c>
+      <c r="C18" s="354">
+        <v>1</v>
+      </c>
+      <c r="D18" s="354">
+        <v>1</v>
+      </c>
+      <c r="E18" s="355">
         <v>337</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="356">
         <v>1283</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="357">
         <v>10000000</v>
       </c>
-      <c r="H18" s="57">
-        <v>4</v>
-      </c>
-      <c r="I18" s="40">
+      <c r="H18" s="358">
+        <v>1</v>
+      </c>
+      <c r="I18" s="359">
         <f>H18*G18</f>
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="352" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="47">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="48">
+      <c r="B19" s="353">
+        <v>1</v>
+      </c>
+      <c r="C19" s="354">
+        <v>1</v>
+      </c>
+      <c r="D19" s="354">
+        <v>1</v>
+      </c>
+      <c r="E19" s="355">
         <v>276</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="356">
         <v>1263</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="357">
         <v>15000000</v>
       </c>
-      <c r="H19" s="57">
-        <v>4</v>
-      </c>
-      <c r="I19" s="40">
+      <c r="H19" s="358">
+        <v>1</v>
+      </c>
+      <c r="I19" s="359">
         <f>H19*G19</f>
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="352" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="47">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="48">
+      <c r="B20" s="353">
+        <v>1</v>
+      </c>
+      <c r="C20" s="354">
+        <v>1</v>
+      </c>
+      <c r="D20" s="354">
+        <v>1</v>
+      </c>
+      <c r="E20" s="355">
         <v>288</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="356">
         <v>1271</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="357">
         <v>17000000</v>
       </c>
-      <c r="H20" s="57">
-        <v>4</v>
-      </c>
-      <c r="I20" s="40">
+      <c r="H20" s="358">
+        <v>1</v>
+      </c>
+      <c r="I20" s="359">
         <f t="shared" ref="I20:I22" si="1">H20*G20</f>
-        <v>68000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="352" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="47">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="48">
+      <c r="B21" s="353">
+        <v>1</v>
+      </c>
+      <c r="C21" s="354">
+        <v>1</v>
+      </c>
+      <c r="D21" s="354">
+        <v>1</v>
+      </c>
+      <c r="E21" s="355">
         <v>303</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="356">
         <v>1273</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="357">
         <v>23000000</v>
       </c>
-      <c r="H21" s="57">
-        <v>4</v>
-      </c>
-      <c r="I21" s="40">
+      <c r="H21" s="358">
+        <v>1</v>
+      </c>
+      <c r="I21" s="359">
         <f t="shared" si="1"/>
-        <v>92000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="43">
         <v>1</v>
       </c>
       <c r="C22" s="8">
@@ -3810,79 +3860,79 @@
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="44">
         <v>303</v>
       </c>
       <c r="F22" s="36">
         <v>1273</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="49">
         <v>23000000</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="40">
+      <c r="H22" s="51"/>
+      <c r="I22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+    <row r="23" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="47">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="353">
+        <v>1</v>
+      </c>
+      <c r="C23" s="354">
+        <v>1</v>
+      </c>
+      <c r="D23" s="354">
         <v>6</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="355">
         <v>54</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="356">
         <v>1278</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="357">
         <v>25500000</v>
       </c>
-      <c r="H23" s="57">
-        <v>4</v>
-      </c>
-      <c r="I23" s="40">
+      <c r="H23" s="358">
+        <v>1</v>
+      </c>
+      <c r="I23" s="359">
         <f>H23*G23</f>
-        <v>102000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+        <v>25500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="47">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="B24" s="353">
+        <v>1</v>
+      </c>
+      <c r="C24" s="354">
+        <v>1</v>
+      </c>
+      <c r="D24" s="354">
         <v>6</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="355">
         <v>264</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="356">
         <v>1250</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="357">
         <v>30000000</v>
       </c>
-      <c r="H24" s="57">
-        <v>4</v>
-      </c>
-      <c r="I24" s="40">
+      <c r="H24" s="358">
+        <v>1</v>
+      </c>
+      <c r="I24" s="359">
         <f>H24*G24</f>
-        <v>120000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,41 +3944,41 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+    <row r="26" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="352" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="47">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="48">
+      <c r="B26" s="353">
+        <v>1</v>
+      </c>
+      <c r="C26" s="354">
+        <v>1</v>
+      </c>
+      <c r="D26" s="354">
+        <v>1</v>
+      </c>
+      <c r="E26" s="355">
         <v>266</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="356">
         <v>1254</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="357">
         <v>30000000</v>
       </c>
-      <c r="H26" s="57">
-        <v>2</v>
-      </c>
-      <c r="I26" s="40">
+      <c r="H26" s="358">
+        <v>1</v>
+      </c>
+      <c r="I26" s="359">
         <f>H26*G26</f>
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="43">
         <v>1</v>
       </c>
       <c r="C27" s="8">
@@ -3937,81 +3987,81 @@
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="44">
         <v>265</v>
       </c>
       <c r="F27" s="36">
         <v>1253</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="49">
         <v>32500000</v>
       </c>
-      <c r="H27" s="57">
-        <v>4</v>
-      </c>
-      <c r="I27" s="40">
+      <c r="H27" s="51">
+        <v>1</v>
+      </c>
+      <c r="I27" s="39">
         <f>H27*G27</f>
-        <v>130000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+        <v>32500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="47">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="48">
+      <c r="B28" s="353">
+        <v>1</v>
+      </c>
+      <c r="C28" s="354">
+        <v>1</v>
+      </c>
+      <c r="D28" s="354">
+        <v>1</v>
+      </c>
+      <c r="E28" s="355">
         <v>328</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="356">
         <v>1262</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="357">
         <v>34000000</v>
       </c>
-      <c r="H28" s="57">
-        <v>4</v>
-      </c>
-      <c r="I28" s="40">
+      <c r="H28" s="358">
+        <v>1</v>
+      </c>
+      <c r="I28" s="359">
         <f>H28*G28</f>
-        <v>136000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="352" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="47">
-        <v>1</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="48">
+      <c r="B29" s="353">
+        <v>1</v>
+      </c>
+      <c r="C29" s="354">
+        <v>1</v>
+      </c>
+      <c r="D29" s="354">
+        <v>1</v>
+      </c>
+      <c r="E29" s="355">
         <v>2</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="356">
         <v>1272</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="357">
         <v>35500000</v>
       </c>
-      <c r="H29" s="57">
-        <v>4</v>
-      </c>
-      <c r="I29" s="40">
+      <c r="H29" s="358">
+        <v>1</v>
+      </c>
+      <c r="I29" s="359">
         <f>H29*G29</f>
-        <v>142000000</v>
+        <v>35500000</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4032,184 +4082,184 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+    <row r="32" spans="1:9" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="352" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="47">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="48">
+      <c r="B32" s="353">
+        <v>1</v>
+      </c>
+      <c r="C32" s="354">
+        <v>1</v>
+      </c>
+      <c r="D32" s="354">
+        <v>1</v>
+      </c>
+      <c r="E32" s="355">
         <v>284</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="356">
         <v>1268</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="357">
         <v>36500000</v>
       </c>
-      <c r="H32" s="57">
-        <v>4</v>
-      </c>
-      <c r="I32" s="40">
+      <c r="H32" s="358">
+        <v>1</v>
+      </c>
+      <c r="I32" s="359">
         <f>H32*G32</f>
-        <v>146000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+        <v>36500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="352" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="47">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="48">
+      <c r="B33" s="353">
+        <v>1</v>
+      </c>
+      <c r="C33" s="354">
+        <v>1</v>
+      </c>
+      <c r="D33" s="354">
+        <v>1</v>
+      </c>
+      <c r="E33" s="355">
         <v>3</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="356">
         <v>1279</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="357">
         <v>38000000</v>
       </c>
-      <c r="H33" s="57">
-        <v>4</v>
-      </c>
-      <c r="I33" s="40">
+      <c r="H33" s="358">
+        <v>1</v>
+      </c>
+      <c r="I33" s="359">
         <f>H33*G33</f>
-        <v>152000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="47">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="48">
-        <v>4</v>
-      </c>
-      <c r="F34" s="36">
+      <c r="B34" s="353">
+        <v>1</v>
+      </c>
+      <c r="C34" s="354">
+        <v>1</v>
+      </c>
+      <c r="D34" s="354">
+        <v>1</v>
+      </c>
+      <c r="E34" s="355">
+        <v>4</v>
+      </c>
+      <c r="F34" s="356">
         <v>1280</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="357">
         <v>39000000</v>
       </c>
-      <c r="H34" s="57">
-        <v>4</v>
-      </c>
-      <c r="I34" s="40">
+      <c r="H34" s="358">
+        <v>1</v>
+      </c>
+      <c r="I34" s="359">
         <f>H34*G34</f>
-        <v>156000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="352" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="47">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="48">
+      <c r="B35" s="353">
+        <v>1</v>
+      </c>
+      <c r="C35" s="354">
+        <v>1</v>
+      </c>
+      <c r="D35" s="354">
+        <v>1</v>
+      </c>
+      <c r="E35" s="355">
         <v>50</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="356">
         <v>1500</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="357">
         <v>39500000</v>
       </c>
-      <c r="H35" s="57">
-        <v>4</v>
-      </c>
-      <c r="I35" s="40">
+      <c r="H35" s="358">
+        <v>1</v>
+      </c>
+      <c r="I35" s="359">
         <f t="shared" ref="I35:I37" si="2">H35*G35</f>
-        <v>158000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+        <v>39500000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="352" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="47">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="48">
+      <c r="B36" s="353">
+        <v>1</v>
+      </c>
+      <c r="C36" s="354">
+        <v>1</v>
+      </c>
+      <c r="D36" s="354">
+        <v>1</v>
+      </c>
+      <c r="E36" s="355">
         <v>66</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="356">
         <v>1501</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="357">
         <v>41500000</v>
       </c>
-      <c r="H36" s="57">
-        <v>4</v>
-      </c>
-      <c r="I36" s="40">
+      <c r="H36" s="358">
+        <v>1</v>
+      </c>
+      <c r="I36" s="359">
         <f t="shared" ref="I36" si="3">H36*G36</f>
-        <v>166000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+        <v>41500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="352" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="47">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="48">
+      <c r="B37" s="353">
+        <v>1</v>
+      </c>
+      <c r="C37" s="354">
+        <v>1</v>
+      </c>
+      <c r="D37" s="354">
+        <v>1</v>
+      </c>
+      <c r="E37" s="355">
         <v>6</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="356">
         <v>1501</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="357">
         <v>39500000</v>
       </c>
-      <c r="H37" s="57">
-        <v>4</v>
-      </c>
-      <c r="I37" s="40">
+      <c r="H37" s="358">
+        <v>1</v>
+      </c>
+      <c r="I37" s="359">
         <f t="shared" si="2"/>
-        <v>158000000</v>
+        <v>39500000</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,186 +4270,186 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="K38" s="112"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+      <c r="K38" s="106"/>
+    </row>
+    <row r="39" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="352" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="47">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="48">
+      <c r="B39" s="353">
+        <v>1</v>
+      </c>
+      <c r="C39" s="354">
+        <v>1</v>
+      </c>
+      <c r="D39" s="354">
+        <v>1</v>
+      </c>
+      <c r="E39" s="355">
         <v>271</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="356">
         <v>1266</v>
       </c>
-      <c r="G39" s="53">
+      <c r="G39" s="357">
         <v>45500000</v>
       </c>
-      <c r="H39" s="57">
-        <v>4</v>
-      </c>
-      <c r="I39" s="40">
+      <c r="H39" s="358">
+        <v>1</v>
+      </c>
+      <c r="I39" s="359">
         <f t="shared" ref="I39:I44" si="4">H39*G39</f>
-        <v>182000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+        <v>45500000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="352" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="47">
-        <v>1</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="48">
+      <c r="B40" s="353">
+        <v>1</v>
+      </c>
+      <c r="C40" s="354">
+        <v>1</v>
+      </c>
+      <c r="D40" s="354">
+        <v>1</v>
+      </c>
+      <c r="E40" s="355">
         <v>279</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="356">
         <v>1258</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="357">
         <v>48500000</v>
       </c>
-      <c r="H40" s="57">
-        <v>4</v>
-      </c>
-      <c r="I40" s="40">
+      <c r="H40" s="358">
+        <v>1</v>
+      </c>
+      <c r="I40" s="359">
         <f t="shared" si="4"/>
-        <v>194000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+        <v>48500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="47">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="48">
+      <c r="B41" s="353">
+        <v>1</v>
+      </c>
+      <c r="C41" s="354">
+        <v>1</v>
+      </c>
+      <c r="D41" s="354">
+        <v>1</v>
+      </c>
+      <c r="E41" s="355">
         <v>278</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="356">
         <v>1259</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="357">
         <v>50000000</v>
       </c>
-      <c r="H41" s="57">
-        <v>4</v>
-      </c>
-      <c r="I41" s="40">
+      <c r="H41" s="358">
+        <v>1</v>
+      </c>
+      <c r="I41" s="359">
         <f t="shared" si="4"/>
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="352" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="47">
-        <v>1</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="48">
+      <c r="B42" s="353">
+        <v>1</v>
+      </c>
+      <c r="C42" s="354">
+        <v>1</v>
+      </c>
+      <c r="D42" s="354">
+        <v>1</v>
+      </c>
+      <c r="E42" s="355">
         <v>275</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="356">
         <v>1261</v>
       </c>
-      <c r="G42" s="53">
+      <c r="G42" s="357">
         <v>55000000</v>
       </c>
-      <c r="H42" s="57">
-        <v>4</v>
-      </c>
-      <c r="I42" s="40">
+      <c r="H42" s="358">
+        <v>1</v>
+      </c>
+      <c r="I42" s="359">
         <f t="shared" si="4"/>
-        <v>220000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+        <v>55000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="352" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="47">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="48">
+      <c r="B43" s="353">
+        <v>1</v>
+      </c>
+      <c r="C43" s="354">
+        <v>1</v>
+      </c>
+      <c r="D43" s="354">
+        <v>1</v>
+      </c>
+      <c r="E43" s="355">
         <v>327</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="356">
         <v>1260</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="357">
         <v>65000000</v>
       </c>
-      <c r="H43" s="57">
-        <v>4</v>
-      </c>
-      <c r="I43" s="40">
+      <c r="H43" s="358">
+        <v>1</v>
+      </c>
+      <c r="I43" s="359">
         <f t="shared" si="4"/>
-        <v>260000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="360" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="352" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="47">
-        <v>1</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="48">
+      <c r="B44" s="353">
+        <v>1</v>
+      </c>
+      <c r="C44" s="354">
+        <v>1</v>
+      </c>
+      <c r="D44" s="354">
+        <v>1</v>
+      </c>
+      <c r="E44" s="355">
         <v>280</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="356">
         <v>1264</v>
       </c>
-      <c r="G44" s="53">
+      <c r="G44" s="357">
         <v>70000000</v>
       </c>
-      <c r="H44" s="57">
-        <v>4</v>
-      </c>
-      <c r="I44" s="40">
+      <c r="H44" s="358">
+        <v>1</v>
+      </c>
+      <c r="I44" s="359">
         <f t="shared" si="4"/>
-        <v>280000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4412,10 +4462,10 @@
       <c r="G45"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="43">
         <v>1</v>
       </c>
       <c r="C46" s="8">
@@ -4424,26 +4474,26 @@
       <c r="D46" s="8">
         <v>5</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="44">
         <v>41</v>
       </c>
       <c r="F46" s="36">
         <v>1256</v>
       </c>
-      <c r="G46" s="53">
+      <c r="G46" s="49">
         <v>275000000</v>
       </c>
-      <c r="H46" s="57"/>
-      <c r="I46" s="40">
+      <c r="H46" s="51"/>
+      <c r="I46" s="39">
         <f>H46*G46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="43">
         <v>1</v>
       </c>
       <c r="C47" s="8">
@@ -4452,45 +4502,45 @@
       <c r="D47" s="8">
         <v>5</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="44">
         <v>26</v>
       </c>
       <c r="F47" s="36">
         <v>1251</v>
       </c>
-      <c r="G47" s="53">
+      <c r="G47" s="49">
         <v>330000000</v>
       </c>
-      <c r="H47" s="57"/>
-      <c r="I47" s="40">
+      <c r="H47" s="51"/>
+      <c r="I47" s="39">
         <f>H47*G47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="49">
-        <v>1</v>
-      </c>
-      <c r="C48" s="50">
-        <v>1</v>
-      </c>
-      <c r="D48" s="50">
+      <c r="B48" s="45">
+        <v>1</v>
+      </c>
+      <c r="C48" s="46">
+        <v>1</v>
+      </c>
+      <c r="D48" s="46">
         <v>5</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="47">
         <v>27</v>
       </c>
       <c r="F48" s="38">
         <v>1257</v>
       </c>
-      <c r="G48" s="55">
+      <c r="G48" s="50">
         <v>380000000</v>
       </c>
-      <c r="H48" s="58"/>
-      <c r="I48" s="41">
+      <c r="H48" s="52"/>
+      <c r="I48" s="40">
         <f>H48*G48</f>
         <v>0</v>
       </c>
@@ -4542,30 +4592,30 @@
       <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="158"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="152"/>
       <c r="H1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="71" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="72" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="263" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="56" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="35">
@@ -4583,23 +4633,23 @@
       <c r="G2" s="21">
         <v>265</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="68">
         <v>1256</v>
       </c>
-      <c r="I2" s="90">
+      <c r="I2" s="84">
         <v>25000</v>
       </c>
-      <c r="J2" s="70">
-        <v>0</v>
-      </c>
-      <c r="K2" s="67">
+      <c r="J2" s="64">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61">
         <f t="shared" ref="K2:K18" si="0">I2*J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="270"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="264"/>
+      <c r="B3" s="57" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="36">
@@ -4617,23 +4667,23 @@
       <c r="G3" s="3">
         <v>429</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="69">
         <v>1298</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="85">
         <v>28000</v>
       </c>
-      <c r="J3" s="71">
-        <v>0</v>
-      </c>
-      <c r="K3" s="68">
+      <c r="J3" s="65">
+        <v>0</v>
+      </c>
+      <c r="K3" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="270"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="264"/>
+      <c r="B4" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="36">
@@ -4651,23 +4701,23 @@
       <c r="G4" s="3">
         <v>371</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="69">
         <v>1258</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="85">
         <v>32000</v>
       </c>
-      <c r="J4" s="71">
-        <v>0</v>
-      </c>
-      <c r="K4" s="68">
+      <c r="J4" s="65">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="270"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="264"/>
+      <c r="B5" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="36">
@@ -4685,23 +4735,23 @@
       <c r="G5" s="3">
         <v>372</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="69">
         <v>1257</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="85">
         <v>49500</v>
       </c>
-      <c r="J5" s="71">
-        <v>0</v>
-      </c>
-      <c r="K5" s="68">
+      <c r="J5" s="65">
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="270"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="264"/>
+      <c r="B6" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="36">
@@ -4719,23 +4769,23 @@
       <c r="G6" s="3">
         <v>267</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="69">
         <v>1252</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="85">
         <v>110000</v>
       </c>
-      <c r="J6" s="71">
-        <v>0</v>
-      </c>
-      <c r="K6" s="68">
+      <c r="J6" s="65">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="270"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="264"/>
+      <c r="B7" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="36">
@@ -4753,23 +4803,23 @@
       <c r="G7" s="3">
         <v>22</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="69">
         <v>1251</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="85">
         <v>115000</v>
       </c>
-      <c r="J7" s="71">
-        <v>0</v>
-      </c>
-      <c r="K7" s="68">
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="270"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="264"/>
+      <c r="B8" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="36">
@@ -4787,23 +4837,23 @@
       <c r="G8" s="3">
         <v>135</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="69">
         <v>1253</v>
       </c>
-      <c r="I8" s="91">
+      <c r="I8" s="85">
         <v>120000</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="65">
         <v>20</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="62">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="270"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="264"/>
+      <c r="B9" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="36">
@@ -4821,23 +4871,23 @@
       <c r="G9" s="3">
         <v>412</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="69">
         <v>1254</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="85">
         <v>130000</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="65">
         <v>10</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="62">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="270"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="264"/>
+      <c r="B10" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="36">
@@ -4855,23 +4905,23 @@
       <c r="G10" s="3">
         <v>266</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="69">
         <v>1255</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="85">
         <v>140000</v>
       </c>
-      <c r="J10" s="71">
-        <v>0</v>
-      </c>
-      <c r="K10" s="68">
+      <c r="J10" s="65">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="270"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="264"/>
+      <c r="B11" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="36">
@@ -4889,23 +4939,23 @@
       <c r="G11" s="3">
         <v>136</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="69">
         <v>1250</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="85">
         <v>325000</v>
       </c>
-      <c r="J11" s="71">
-        <v>0</v>
-      </c>
-      <c r="K11" s="68">
+      <c r="J11" s="65">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="270"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="264"/>
+      <c r="B12" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="36">
@@ -4923,23 +4973,23 @@
       <c r="G12" s="3">
         <v>143</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="69">
         <v>1259</v>
       </c>
-      <c r="I12" s="159">
+      <c r="I12" s="153">
         <v>10000</v>
       </c>
-      <c r="J12" s="71">
-        <v>0</v>
-      </c>
-      <c r="K12" s="68">
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+      <c r="K12" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="270"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="264"/>
+      <c r="B13" s="57" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="36">
@@ -4957,23 +5007,23 @@
       <c r="G13" s="3">
         <v>268</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="69">
         <v>1262</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="85">
         <v>100000</v>
       </c>
-      <c r="J13" s="71">
-        <v>0</v>
-      </c>
-      <c r="K13" s="68">
+      <c r="J13" s="65">
+        <v>0</v>
+      </c>
+      <c r="K13" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="270"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="264"/>
+      <c r="B14" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="36">
@@ -4991,23 +5041,23 @@
       <c r="G14" s="3">
         <v>426</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="69">
         <v>1263</v>
       </c>
-      <c r="I14" s="91">
+      <c r="I14" s="85">
         <v>105000</v>
       </c>
-      <c r="J14" s="71">
-        <v>0</v>
-      </c>
-      <c r="K14" s="68">
+      <c r="J14" s="65">
+        <v>0</v>
+      </c>
+      <c r="K14" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="270"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="264"/>
+      <c r="B15" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="36">
@@ -5025,23 +5075,23 @@
       <c r="G15" s="3">
         <v>269</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="69">
         <v>1264</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="85">
         <v>140000</v>
       </c>
-      <c r="J15" s="71">
-        <v>0</v>
-      </c>
-      <c r="K15" s="68">
+      <c r="J15" s="65">
+        <v>0</v>
+      </c>
+      <c r="K15" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="270"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="264"/>
+      <c r="B16" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="36">
@@ -5059,23 +5109,23 @@
       <c r="G16" s="3">
         <v>21</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="69">
         <v>1265</v>
       </c>
-      <c r="I16" s="91">
+      <c r="I16" s="85">
         <v>175000</v>
       </c>
-      <c r="J16" s="71">
-        <v>0</v>
-      </c>
-      <c r="K16" s="68">
+      <c r="J16" s="65">
+        <v>0</v>
+      </c>
+      <c r="K16" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="264"/>
+      <c r="B17" s="58" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="37">
@@ -5093,23 +5143,23 @@
       <c r="G17" s="33">
         <v>270</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="69">
         <v>1266</v>
       </c>
-      <c r="I17" s="91">
+      <c r="I17" s="85">
         <v>190000</v>
       </c>
-      <c r="J17" s="71">
-        <v>0</v>
-      </c>
-      <c r="K17" s="68">
+      <c r="J17" s="65">
+        <v>0</v>
+      </c>
+      <c r="K17" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="63" t="s">
+      <c r="A18" s="264"/>
+      <c r="B18" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="36">
@@ -5127,23 +5177,23 @@
       <c r="G18" s="3">
         <v>397</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="69">
         <v>1267</v>
       </c>
-      <c r="I18" s="91">
+      <c r="I18" s="85">
         <v>200000</v>
       </c>
-      <c r="J18" s="71">
-        <v>0</v>
-      </c>
-      <c r="K18" s="68">
+      <c r="J18" s="65">
+        <v>0</v>
+      </c>
+      <c r="K18" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="270"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="264"/>
+      <c r="B19" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="36">
@@ -5161,23 +5211,23 @@
       <c r="G19" s="3">
         <v>24</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="69">
         <v>1260</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="85">
         <v>289000</v>
       </c>
-      <c r="J19" s="71">
-        <v>0</v>
-      </c>
-      <c r="K19" s="68">
+      <c r="J19" s="65">
+        <v>0</v>
+      </c>
+      <c r="K19" s="62">
         <f t="shared" ref="K19:K20" si="1">I19*J19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="270"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="264"/>
+      <c r="B20" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="36">
@@ -5195,23 +5245,23 @@
       <c r="G20" s="3">
         <v>106</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="69">
         <v>1261</v>
       </c>
-      <c r="I20" s="91">
+      <c r="I20" s="85">
         <v>400000</v>
       </c>
-      <c r="J20" s="71">
-        <v>0</v>
-      </c>
-      <c r="K20" s="68">
+      <c r="J20" s="65">
+        <v>0</v>
+      </c>
+      <c r="K20" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="270"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="264"/>
+      <c r="B21" s="57" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="36">
@@ -5229,23 +5279,23 @@
       <c r="G21" s="3">
         <v>320</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="69">
         <v>1268</v>
       </c>
-      <c r="I21" s="91">
+      <c r="I21" s="85">
         <v>700000</v>
       </c>
-      <c r="J21" s="71">
-        <v>0</v>
-      </c>
-      <c r="K21" s="68">
+      <c r="J21" s="65">
+        <v>0</v>
+      </c>
+      <c r="K21" s="62">
         <f t="shared" ref="K21:K55" si="2">I21*J21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="270"/>
-      <c r="B22" s="63" t="s">
+      <c r="A22" s="264"/>
+      <c r="B22" s="57" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="36">
@@ -5263,23 +5313,23 @@
       <c r="G22" s="3">
         <v>321</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="69">
         <v>1269</v>
       </c>
-      <c r="I22" s="91">
+      <c r="I22" s="85">
         <v>850000</v>
       </c>
-      <c r="J22" s="71">
-        <v>0</v>
-      </c>
-      <c r="K22" s="68">
+      <c r="J22" s="65">
+        <v>0</v>
+      </c>
+      <c r="K22" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="270"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="264"/>
+      <c r="B23" s="57" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="36">
@@ -5297,23 +5347,23 @@
       <c r="G23" s="3">
         <v>322</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="69">
         <v>1270</v>
       </c>
-      <c r="I23" s="91">
+      <c r="I23" s="85">
         <v>1100000</v>
       </c>
-      <c r="J23" s="71">
-        <v>0</v>
-      </c>
-      <c r="K23" s="68">
+      <c r="J23" s="65">
+        <v>0</v>
+      </c>
+      <c r="K23" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="271"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="265"/>
+      <c r="B24" s="59" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="38">
@@ -5331,22 +5381,22 @@
       <c r="G24" s="22">
         <v>405</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="70">
         <v>1271</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I24" s="86">
         <v>1120000</v>
       </c>
-      <c r="J24" s="72">
-        <v>0</v>
-      </c>
-      <c r="K24" s="73">
+      <c r="J24" s="66">
+        <v>0</v>
+      </c>
+      <c r="K24" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="271" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -5370,19 +5420,19 @@
       <c r="H25" s="35">
         <v>1272</v>
       </c>
-      <c r="I25" s="93">
+      <c r="I25" s="87">
         <v>32000</v>
       </c>
-      <c r="J25" s="70">
-        <v>0</v>
-      </c>
-      <c r="K25" s="94">
+      <c r="J25" s="64">
+        <v>0</v>
+      </c>
+      <c r="K25" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="278"/>
+      <c r="A26" s="272"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -5404,19 +5454,19 @@
       <c r="H26" s="36">
         <v>1273</v>
       </c>
-      <c r="I26" s="91">
+      <c r="I26" s="85">
         <v>36000</v>
       </c>
-      <c r="J26" s="71">
-        <v>0</v>
-      </c>
-      <c r="K26" s="68">
+      <c r="J26" s="65">
+        <v>0</v>
+      </c>
+      <c r="K26" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="278"/>
+      <c r="A27" s="272"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -5438,19 +5488,19 @@
       <c r="H27" s="36">
         <v>1274</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="85">
         <v>42000</v>
       </c>
-      <c r="J27" s="71">
-        <v>0</v>
-      </c>
-      <c r="K27" s="68">
+      <c r="J27" s="65">
+        <v>0</v>
+      </c>
+      <c r="K27" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="278"/>
+      <c r="A28" s="272"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -5472,19 +5522,19 @@
       <c r="H28" s="36">
         <v>1275</v>
       </c>
-      <c r="I28" s="91">
+      <c r="I28" s="85">
         <v>42000</v>
       </c>
-      <c r="J28" s="71">
-        <v>0</v>
-      </c>
-      <c r="K28" s="68">
+      <c r="J28" s="65">
+        <v>0</v>
+      </c>
+      <c r="K28" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="278"/>
+      <c r="A29" s="272"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -5506,19 +5556,19 @@
       <c r="H29" s="36">
         <v>1276</v>
       </c>
-      <c r="I29" s="91">
+      <c r="I29" s="85">
         <v>27000</v>
       </c>
-      <c r="J29" s="71">
-        <v>0</v>
-      </c>
-      <c r="K29" s="68">
+      <c r="J29" s="65">
+        <v>0</v>
+      </c>
+      <c r="K29" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="278"/>
+      <c r="A30" s="272"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -5540,97 +5590,97 @@
       <c r="H30" s="36">
         <v>1277</v>
       </c>
-      <c r="I30" s="91">
+      <c r="I30" s="85">
         <v>34000</v>
       </c>
-      <c r="J30" s="71">
-        <v>0</v>
-      </c>
-      <c r="K30" s="68">
+      <c r="J30" s="65">
+        <v>0</v>
+      </c>
+      <c r="K30" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="278"/>
+      <c r="A31" s="272"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="101"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95"/>
       <c r="H31" s="36">
         <v>1278</v>
       </c>
-      <c r="I31" s="91">
+      <c r="I31" s="85">
         <v>33000</v>
       </c>
-      <c r="J31" s="71">
-        <v>0</v>
-      </c>
-      <c r="K31" s="68">
+      <c r="J31" s="65">
+        <v>0</v>
+      </c>
+      <c r="K31" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="278"/>
+      <c r="A32" s="272"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="36">
         <v>1279</v>
       </c>
-      <c r="I32" s="91">
+      <c r="I32" s="85">
         <v>38000</v>
       </c>
-      <c r="J32" s="71">
-        <v>0</v>
-      </c>
-      <c r="K32" s="68">
+      <c r="J32" s="65">
+        <v>0</v>
+      </c>
+      <c r="K32" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="278"/>
+      <c r="A33" s="272"/>
       <c r="B33" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="101"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95"/>
       <c r="H33" s="36">
         <v>1281</v>
       </c>
-      <c r="I33" s="91">
+      <c r="I33" s="85">
         <v>32100</v>
       </c>
-      <c r="J33" s="71">
-        <v>0</v>
-      </c>
-      <c r="K33" s="68">
+      <c r="J33" s="65">
+        <v>0</v>
+      </c>
+      <c r="K33" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="278"/>
+      <c r="A34" s="272"/>
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
@@ -5652,19 +5702,19 @@
       <c r="H34" s="36">
         <v>1286</v>
       </c>
-      <c r="I34" s="91">
+      <c r="I34" s="85">
         <v>98000</v>
       </c>
-      <c r="J34" s="71">
-        <v>0</v>
-      </c>
-      <c r="K34" s="68">
+      <c r="J34" s="65">
+        <v>0</v>
+      </c>
+      <c r="K34" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="278"/>
+      <c r="A35" s="272"/>
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -5686,19 +5736,19 @@
       <c r="H35" s="36">
         <v>1285</v>
       </c>
-      <c r="I35" s="91">
+      <c r="I35" s="85">
         <v>110000</v>
       </c>
-      <c r="J35" s="71">
-        <v>0</v>
-      </c>
-      <c r="K35" s="68">
+      <c r="J35" s="65">
+        <v>0</v>
+      </c>
+      <c r="K35" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="278"/>
+      <c r="A36" s="272"/>
       <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
@@ -5720,19 +5770,19 @@
       <c r="H36" s="36">
         <v>1284</v>
       </c>
-      <c r="I36" s="91">
+      <c r="I36" s="85">
         <v>125000</v>
       </c>
-      <c r="J36" s="71">
-        <v>0</v>
-      </c>
-      <c r="K36" s="68">
+      <c r="J36" s="65">
+        <v>0</v>
+      </c>
+      <c r="K36" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="278"/>
+      <c r="A37" s="272"/>
       <c r="B37" s="16" t="s">
         <v>71</v>
       </c>
@@ -5754,19 +5804,19 @@
       <c r="H37" s="36">
         <v>1283</v>
       </c>
-      <c r="I37" s="91">
+      <c r="I37" s="85">
         <v>130000</v>
       </c>
-      <c r="J37" s="71">
-        <v>0</v>
-      </c>
-      <c r="K37" s="68">
+      <c r="J37" s="65">
+        <v>0</v>
+      </c>
+      <c r="K37" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="278"/>
+      <c r="A38" s="272"/>
       <c r="B38" s="16" t="s">
         <v>68</v>
       </c>
@@ -5788,19 +5838,19 @@
       <c r="H38" s="36">
         <v>1280</v>
       </c>
-      <c r="I38" s="91">
+      <c r="I38" s="85">
         <v>22000</v>
       </c>
-      <c r="J38" s="71">
-        <v>0</v>
-      </c>
-      <c r="K38" s="68">
+      <c r="J38" s="65">
+        <v>0</v>
+      </c>
+      <c r="K38" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="278"/>
+      <c r="A39" s="272"/>
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5822,19 +5872,19 @@
       <c r="H39" s="36">
         <v>1282</v>
       </c>
-      <c r="I39" s="91">
+      <c r="I39" s="85">
         <v>115000</v>
       </c>
-      <c r="J39" s="71">
-        <v>0</v>
-      </c>
-      <c r="K39" s="68">
+      <c r="J39" s="65">
+        <v>0</v>
+      </c>
+      <c r="K39" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="279"/>
+      <c r="A40" s="273"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5856,25 +5906,25 @@
       <c r="H40" s="38">
         <v>1287</v>
       </c>
-      <c r="I40" s="92">
+      <c r="I40" s="86">
         <v>200000</v>
       </c>
-      <c r="J40" s="72">
-        <v>0</v>
-      </c>
-      <c r="K40" s="73">
+      <c r="J40" s="66">
+        <v>0</v>
+      </c>
+      <c r="K40" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="280" t="s">
+      <c r="A41" s="274" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="79">
+      <c r="B41" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="73">
         <v>2</v>
       </c>
       <c r="D41" s="23">
@@ -5892,23 +5942,23 @@
       <c r="H41" s="35">
         <v>1288</v>
       </c>
-      <c r="I41" s="95">
+      <c r="I41" s="89">
         <v>85000</v>
       </c>
-      <c r="J41" s="70">
-        <v>0</v>
-      </c>
-      <c r="K41" s="67">
+      <c r="J41" s="64">
+        <v>0</v>
+      </c>
+      <c r="K41" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="281"/>
-      <c r="B42" s="85" t="s">
+      <c r="A42" s="275"/>
+      <c r="B42" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="75">
         <v>3</v>
       </c>
       <c r="D42" s="27">
@@ -5926,51 +5976,51 @@
       <c r="H42" s="38">
         <v>1289</v>
       </c>
-      <c r="I42" s="96">
+      <c r="I42" s="90">
         <v>400000</v>
       </c>
-      <c r="J42" s="72">
-        <v>0</v>
-      </c>
-      <c r="K42" s="73">
+      <c r="J42" s="66">
+        <v>0</v>
+      </c>
+      <c r="K42" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="282" t="s">
+      <c r="A43" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="79">
+      <c r="C43" s="73">
         <v>2</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="42">
+      <c r="D43" s="96"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="41">
         <v>1290</v>
       </c>
-      <c r="I43" s="95">
+      <c r="I43" s="89">
         <v>75000</v>
       </c>
-      <c r="J43" s="70">
-        <v>0</v>
-      </c>
-      <c r="K43" s="67">
+      <c r="J43" s="64">
+        <v>0</v>
+      </c>
+      <c r="K43" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="283"/>
-      <c r="B44" s="83" t="s">
+      <c r="A44" s="277"/>
+      <c r="B44" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="80">
+      <c r="C44" s="74">
         <v>2</v>
       </c>
       <c r="D44" s="25">
@@ -5988,23 +6038,23 @@
       <c r="H44" s="36">
         <v>1291</v>
       </c>
-      <c r="I44" s="97">
+      <c r="I44" s="91">
         <v>80000</v>
       </c>
-      <c r="J44" s="71">
-        <v>0</v>
-      </c>
-      <c r="K44" s="68">
+      <c r="J44" s="65">
+        <v>0</v>
+      </c>
+      <c r="K44" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="283"/>
-      <c r="B45" s="83" t="s">
+      <c r="A45" s="277"/>
+      <c r="B45" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="80">
+      <c r="C45" s="74">
         <v>1</v>
       </c>
       <c r="D45" s="25">
@@ -6022,23 +6072,23 @@
       <c r="H45" s="36">
         <v>1292</v>
       </c>
-      <c r="I45" s="97">
+      <c r="I45" s="91">
         <v>260000</v>
       </c>
-      <c r="J45" s="71">
-        <v>0</v>
-      </c>
-      <c r="K45" s="68">
+      <c r="J45" s="65">
+        <v>0</v>
+      </c>
+      <c r="K45" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="283"/>
-      <c r="B46" s="83" t="s">
+      <c r="A46" s="277"/>
+      <c r="B46" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="80">
+      <c r="C46" s="74">
         <v>2</v>
       </c>
       <c r="D46" s="25">
@@ -6056,23 +6106,23 @@
       <c r="H46" s="36">
         <v>1293</v>
       </c>
-      <c r="I46" s="97">
+      <c r="I46" s="91">
         <v>56000</v>
       </c>
-      <c r="J46" s="71">
-        <v>0</v>
-      </c>
-      <c r="K46" s="68">
+      <c r="J46" s="65">
+        <v>0</v>
+      </c>
+      <c r="K46" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="283"/>
-      <c r="B47" s="83" t="s">
+      <c r="A47" s="277"/>
+      <c r="B47" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="80">
+      <c r="C47" s="74">
         <v>2</v>
       </c>
       <c r="D47" s="25">
@@ -6090,23 +6140,23 @@
       <c r="H47" s="36">
         <v>1294</v>
       </c>
-      <c r="I47" s="97">
+      <c r="I47" s="91">
         <v>76000</v>
       </c>
-      <c r="J47" s="71">
-        <v>0</v>
-      </c>
-      <c r="K47" s="68">
+      <c r="J47" s="65">
+        <v>0</v>
+      </c>
+      <c r="K47" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="283"/>
-      <c r="B48" s="83" t="s">
+      <c r="A48" s="277"/>
+      <c r="B48" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="80">
+      <c r="C48" s="74">
         <v>1</v>
       </c>
       <c r="D48" s="25">
@@ -6124,23 +6174,23 @@
       <c r="H48" s="36">
         <v>1295</v>
       </c>
-      <c r="I48" s="97">
+      <c r="I48" s="91">
         <v>120000</v>
       </c>
-      <c r="J48" s="71">
-        <v>0</v>
-      </c>
-      <c r="K48" s="68">
+      <c r="J48" s="65">
+        <v>0</v>
+      </c>
+      <c r="K48" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="283"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="277"/>
+      <c r="B49" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="80">
+      <c r="C49" s="74">
         <v>2</v>
       </c>
       <c r="D49" s="25">
@@ -6158,23 +6208,23 @@
       <c r="H49" s="36">
         <v>1296</v>
       </c>
-      <c r="I49" s="97">
+      <c r="I49" s="91">
         <v>110000</v>
       </c>
-      <c r="J49" s="71">
-        <v>0</v>
-      </c>
-      <c r="K49" s="68">
+      <c r="J49" s="65">
+        <v>0</v>
+      </c>
+      <c r="K49" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="284"/>
-      <c r="B50" s="89" t="s">
+      <c r="A50" s="278"/>
+      <c r="B50" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="86">
+      <c r="C50" s="80">
         <v>1</v>
       </c>
       <c r="D50" s="34">
@@ -6192,25 +6242,25 @@
       <c r="H50" s="37">
         <v>1297</v>
       </c>
-      <c r="I50" s="98">
+      <c r="I50" s="92">
         <v>114000</v>
       </c>
-      <c r="J50" s="72">
-        <v>0</v>
-      </c>
-      <c r="K50" s="69">
+      <c r="J50" s="66">
+        <v>0</v>
+      </c>
+      <c r="K50" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="274" t="s">
+      <c r="A51" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="111" t="s">
+      <c r="B51" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="87">
+      <c r="C51" s="81">
         <v>2</v>
       </c>
       <c r="D51" s="23">
@@ -6225,26 +6275,26 @@
       <c r="G51" s="24">
         <v>91</v>
       </c>
-      <c r="H51" s="74">
+      <c r="H51" s="68">
         <v>1298</v>
       </c>
-      <c r="I51" s="90">
+      <c r="I51" s="84">
         <v>55000</v>
       </c>
-      <c r="J51" s="70">
-        <v>0</v>
-      </c>
-      <c r="K51" s="67">
+      <c r="J51" s="64">
+        <v>0</v>
+      </c>
+      <c r="K51" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="275"/>
-      <c r="B52" s="105" t="s">
+      <c r="A52" s="269"/>
+      <c r="B52" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="66">
+      <c r="C52" s="60">
         <v>2</v>
       </c>
       <c r="D52" s="25">
@@ -6259,26 +6309,26 @@
       <c r="G52" s="26">
         <v>449</v>
       </c>
-      <c r="H52" s="75">
+      <c r="H52" s="69">
         <v>1299</v>
       </c>
-      <c r="I52" s="91">
+      <c r="I52" s="85">
         <v>75000</v>
       </c>
-      <c r="J52" s="71">
-        <v>0</v>
-      </c>
-      <c r="K52" s="68">
+      <c r="J52" s="65">
+        <v>0</v>
+      </c>
+      <c r="K52" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="276"/>
-      <c r="B53" s="163" t="s">
+      <c r="A53" s="270"/>
+      <c r="B53" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="167">
+      <c r="C53" s="161">
         <v>2</v>
       </c>
       <c r="D53" s="34">
@@ -6290,28 +6340,28 @@
       <c r="F53" s="17">
         <v>34</v>
       </c>
-      <c r="G53" s="168">
+      <c r="G53" s="162">
         <v>291</v>
       </c>
-      <c r="H53" s="169">
+      <c r="H53" s="163">
         <v>1300</v>
       </c>
-      <c r="I53" s="170">
+      <c r="I53" s="164">
         <v>65000</v>
       </c>
-      <c r="J53" s="132">
-        <v>0</v>
-      </c>
-      <c r="K53" s="69">
+      <c r="J53" s="126">
+        <v>0</v>
+      </c>
+      <c r="K53" s="63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="272" t="s">
+      <c r="A54" s="266" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="166" t="s">
+      <c r="B54" s="160" t="s">
         <v>249</v>
       </c>
       <c r="C54" s="35">
@@ -6332,20 +6382,20 @@
       <c r="H54" s="35">
         <v>1301</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="48">
         <v>27000</v>
       </c>
-      <c r="J54" s="70">
-        <v>0</v>
-      </c>
-      <c r="K54" s="52">
+      <c r="J54" s="64">
+        <v>0</v>
+      </c>
+      <c r="K54" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="273"/>
-      <c r="B55" s="166" t="s">
+      <c r="A55" s="267"/>
+      <c r="B55" s="160" t="s">
         <v>250</v>
       </c>
       <c r="C55" s="38">
@@ -6366,38 +6416,38 @@
       <c r="H55" s="38">
         <v>1302</v>
       </c>
-      <c r="I55" s="55">
+      <c r="I55" s="50">
         <v>110000</v>
       </c>
-      <c r="J55" s="72">
+      <c r="J55" s="66">
         <v>10</v>
       </c>
-      <c r="K55" s="55">
+      <c r="K55" s="50">
         <f t="shared" si="2"/>
         <v>1100000</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H56" s="162"/>
-      <c r="I56" s="171" t="s">
+      <c r="H56" s="156"/>
+      <c r="I56" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="172"/>
-      <c r="K56" s="173">
+      <c r="J56" s="166"/>
+      <c r="K56" s="167">
         <f>SUM(K2:K55)</f>
         <v>4800000</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I57" s="153"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="155"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="149"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G58" s="162"/>
+      <c r="G58" s="156"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K59" s="148"/>
+      <c r="K59" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6436,41 +6486,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115"/>
+      <c r="A1" s="109"/>
       <c r="B1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="291" t="s">
+      <c r="D1" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="293"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="287"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="107" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="56" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="116">
+      <c r="D2" s="110">
         <v>4</v>
       </c>
       <c r="E2" s="18">
@@ -6485,26 +6535,26 @@
       <c r="H2" s="35">
         <v>1250</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="61">
         <v>1200</v>
       </c>
-      <c r="J2" s="70">
-        <v>0</v>
-      </c>
-      <c r="K2" s="52">
+      <c r="J2" s="64">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
         <f>I2*J2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="303"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="297"/>
+      <c r="B3" s="57" t="s">
         <v>201</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="111">
         <v>4</v>
       </c>
       <c r="E3" s="4">
@@ -6516,26 +6566,26 @@
       <c r="G3" s="29">
         <v>31</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="94">
+      <c r="H3" s="41"/>
+      <c r="I3" s="88">
         <v>1200</v>
       </c>
-      <c r="J3" s="174">
-        <v>0</v>
-      </c>
-      <c r="K3" s="40">
+      <c r="J3" s="168">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="303"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="297"/>
+      <c r="B4" s="57" t="s">
         <v>202</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="134">
+      <c r="D4" s="128">
         <v>4</v>
       </c>
       <c r="E4" s="2">
@@ -6550,26 +6600,26 @@
       <c r="H4" s="36">
         <v>1251</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="62">
         <v>2000</v>
       </c>
-      <c r="J4" s="71">
-        <v>0</v>
-      </c>
-      <c r="K4" s="53">
+      <c r="J4" s="65">
+        <v>0</v>
+      </c>
+      <c r="K4" s="49">
         <f t="shared" ref="K4:K60" si="0">I4*J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="303"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="297"/>
+      <c r="B5" s="57" t="s">
         <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="134">
+      <c r="D5" s="128">
         <v>4</v>
       </c>
       <c r="E5" s="2">
@@ -6584,26 +6634,26 @@
       <c r="H5" s="36">
         <v>1252</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="62">
         <v>22000</v>
       </c>
-      <c r="J5" s="71">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53">
+      <c r="J5" s="65">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="303"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="297"/>
+      <c r="B6" s="57" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="128">
         <v>4</v>
       </c>
       <c r="E6" s="2">
@@ -6618,26 +6668,26 @@
       <c r="H6" s="36">
         <v>1253</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="62">
         <v>28000</v>
       </c>
-      <c r="J6" s="71">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53">
+      <c r="J6" s="65">
+        <v>0</v>
+      </c>
+      <c r="K6" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="303"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="297"/>
+      <c r="B7" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="134">
+      <c r="D7" s="128">
         <v>4</v>
       </c>
       <c r="E7" s="2">
@@ -6652,26 +6702,26 @@
       <c r="H7" s="36">
         <v>1254</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="62">
         <v>65000</v>
       </c>
-      <c r="J7" s="71">
-        <v>0</v>
-      </c>
-      <c r="K7" s="53">
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="303"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="297"/>
+      <c r="B8" s="57" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="134">
+      <c r="D8" s="128">
         <v>4</v>
       </c>
       <c r="E8" s="2">
@@ -6686,26 +6736,26 @@
       <c r="H8" s="36">
         <v>1255</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="62">
         <v>60000</v>
       </c>
-      <c r="J8" s="71">
-        <v>0</v>
-      </c>
-      <c r="K8" s="53">
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="303"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="297"/>
+      <c r="B9" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="128">
         <v>4</v>
       </c>
       <c r="E9" s="2">
@@ -6720,26 +6770,26 @@
       <c r="H9" s="36">
         <v>1256</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="62">
         <v>50000</v>
       </c>
-      <c r="J9" s="71">
-        <v>0</v>
-      </c>
-      <c r="K9" s="53">
+      <c r="J9" s="65">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="303"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="297"/>
+      <c r="B10" s="57" t="s">
         <v>205</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="128">
         <v>4</v>
       </c>
       <c r="E10" s="2">
@@ -6754,26 +6804,26 @@
       <c r="H10" s="36">
         <v>1257</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="62">
         <v>35000</v>
       </c>
-      <c r="J10" s="71">
-        <v>0</v>
-      </c>
-      <c r="K10" s="53">
+      <c r="J10" s="65">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="303"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="297"/>
+      <c r="B11" s="57" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="128">
         <v>4</v>
       </c>
       <c r="E11" s="2">
@@ -6788,26 +6838,26 @@
       <c r="H11" s="36">
         <v>1258</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="62">
         <v>12000</v>
       </c>
-      <c r="J11" s="71">
-        <v>0</v>
-      </c>
-      <c r="K11" s="53">
+      <c r="J11" s="65">
+        <v>0</v>
+      </c>
+      <c r="K11" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="303"/>
-      <c r="B12" s="63" t="s">
+      <c r="A12" s="297"/>
+      <c r="B12" s="57" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="128">
         <v>4</v>
       </c>
       <c r="E12" s="2">
@@ -6822,25 +6872,25 @@
       <c r="H12" s="36">
         <v>1259</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="62">
         <v>900000</v>
       </c>
-      <c r="J12" s="71">
-        <v>0</v>
-      </c>
-      <c r="K12" s="53">
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="303"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="297"/>
+      <c r="B13" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="128">
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -6855,25 +6905,25 @@
       <c r="H13" s="36">
         <v>1260</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="62">
         <v>1600000</v>
       </c>
-      <c r="J13" s="71">
-        <v>0</v>
-      </c>
-      <c r="K13" s="53">
+      <c r="J13" s="65">
+        <v>0</v>
+      </c>
+      <c r="K13" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="303"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="297"/>
+      <c r="B14" s="57" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="128">
         <v>4</v>
       </c>
       <c r="E14" s="2">
@@ -6888,26 +6938,26 @@
       <c r="H14" s="36">
         <v>1261</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="62">
         <v>1500000</v>
       </c>
-      <c r="J14" s="71">
-        <v>0</v>
-      </c>
-      <c r="K14" s="53">
+      <c r="J14" s="65">
+        <v>0</v>
+      </c>
+      <c r="K14" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="303"/>
-      <c r="B15" s="63" t="s">
+      <c r="A15" s="297"/>
+      <c r="B15" s="57" t="s">
         <v>163</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="134">
+      <c r="D15" s="128">
         <v>4</v>
       </c>
       <c r="E15" s="2">
@@ -6922,26 +6972,26 @@
       <c r="H15" s="36">
         <v>1262</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="62">
         <v>4500000</v>
       </c>
-      <c r="J15" s="71">
-        <v>0</v>
-      </c>
-      <c r="K15" s="53">
+      <c r="J15" s="65">
+        <v>0</v>
+      </c>
+      <c r="K15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="303"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="297"/>
+      <c r="B16" s="57" t="s">
         <v>164</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="128">
         <v>4</v>
       </c>
       <c r="E16" s="2">
@@ -6956,26 +7006,26 @@
       <c r="H16" s="36">
         <v>1263</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="62">
         <v>350000</v>
       </c>
-      <c r="J16" s="71">
-        <v>0</v>
-      </c>
-      <c r="K16" s="53">
+      <c r="J16" s="65">
+        <v>0</v>
+      </c>
+      <c r="K16" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="303"/>
-      <c r="B17" s="63" t="s">
+      <c r="A17" s="297"/>
+      <c r="B17" s="57" t="s">
         <v>165</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="128">
         <v>4</v>
       </c>
       <c r="E17" s="2">
@@ -6990,26 +7040,26 @@
       <c r="H17" s="36">
         <v>1264</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="62">
         <v>20000</v>
       </c>
-      <c r="J17" s="71">
-        <v>0</v>
-      </c>
-      <c r="K17" s="53">
+      <c r="J17" s="65">
+        <v>0</v>
+      </c>
+      <c r="K17" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="303"/>
-      <c r="B18" s="63" t="s">
+      <c r="A18" s="297"/>
+      <c r="B18" s="57" t="s">
         <v>166</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="128">
         <v>4</v>
       </c>
       <c r="E18" s="2">
@@ -7024,26 +7074,26 @@
       <c r="H18" s="36">
         <v>1265</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="62">
         <v>180000</v>
       </c>
-      <c r="J18" s="71">
-        <v>0</v>
-      </c>
-      <c r="K18" s="53">
+      <c r="J18" s="65">
+        <v>0</v>
+      </c>
+      <c r="K18" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="303"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="297"/>
+      <c r="B19" s="57" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="128">
         <v>4</v>
       </c>
       <c r="E19" s="2">
@@ -7058,26 +7108,26 @@
       <c r="H19" s="36">
         <v>1266</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="62">
         <v>190000</v>
       </c>
-      <c r="J19" s="71">
-        <v>0</v>
-      </c>
-      <c r="K19" s="53">
+      <c r="J19" s="65">
+        <v>0</v>
+      </c>
+      <c r="K19" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="303"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="297"/>
+      <c r="B20" s="57" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="134">
+      <c r="D20" s="128">
         <v>4</v>
       </c>
       <c r="E20" s="2">
@@ -7092,26 +7142,26 @@
       <c r="H20" s="36">
         <v>1267</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="62">
         <v>80000</v>
       </c>
-      <c r="J20" s="71">
-        <v>0</v>
-      </c>
-      <c r="K20" s="53">
+      <c r="J20" s="65">
+        <v>0</v>
+      </c>
+      <c r="K20" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="303"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="297"/>
+      <c r="B21" s="57" t="s">
         <v>169</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="128">
         <v>4</v>
       </c>
       <c r="E21" s="2">
@@ -7126,26 +7176,26 @@
       <c r="H21" s="36">
         <v>1268</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="62">
         <v>35000</v>
       </c>
-      <c r="J21" s="71">
-        <v>0</v>
-      </c>
-      <c r="K21" s="53">
+      <c r="J21" s="65">
+        <v>0</v>
+      </c>
+      <c r="K21" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="303"/>
-      <c r="B22" s="63" t="s">
+      <c r="A22" s="297"/>
+      <c r="B22" s="57" t="s">
         <v>170</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="134">
+      <c r="D22" s="128">
         <v>4</v>
       </c>
       <c r="E22" s="2">
@@ -7160,26 +7210,26 @@
       <c r="H22" s="36">
         <v>1269</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="62">
         <v>36000</v>
       </c>
-      <c r="J22" s="71">
-        <v>0</v>
-      </c>
-      <c r="K22" s="53">
+      <c r="J22" s="65">
+        <v>0</v>
+      </c>
+      <c r="K22" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="303"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="297"/>
+      <c r="B23" s="57" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="134">
+      <c r="D23" s="128">
         <v>4</v>
       </c>
       <c r="E23" s="2">
@@ -7194,26 +7244,26 @@
       <c r="H23" s="36">
         <v>1270</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="62">
         <v>150000</v>
       </c>
-      <c r="J23" s="71">
-        <v>0</v>
-      </c>
-      <c r="K23" s="53">
+      <c r="J23" s="65">
+        <v>0</v>
+      </c>
+      <c r="K23" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="303"/>
-      <c r="B24" s="63" t="s">
+      <c r="A24" s="297"/>
+      <c r="B24" s="57" t="s">
         <v>245</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="134">
+      <c r="D24" s="128">
         <v>4</v>
       </c>
       <c r="E24" s="2">
@@ -7228,26 +7278,26 @@
       <c r="H24" s="36">
         <v>1500</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="62">
         <v>100000</v>
       </c>
-      <c r="J24" s="71">
-        <v>0</v>
-      </c>
-      <c r="K24" s="53">
+      <c r="J24" s="65">
+        <v>0</v>
+      </c>
+      <c r="K24" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="303"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="297"/>
+      <c r="B25" s="57" t="s">
         <v>246</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="134">
+      <c r="D25" s="128">
         <v>4</v>
       </c>
       <c r="E25" s="2">
@@ -7262,26 +7312,26 @@
       <c r="H25" s="36">
         <v>1501</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I25" s="62">
         <v>200000</v>
       </c>
-      <c r="J25" s="71">
-        <v>0</v>
-      </c>
-      <c r="K25" s="53">
+      <c r="J25" s="65">
+        <v>0</v>
+      </c>
+      <c r="K25" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="303"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="297"/>
+      <c r="B26" s="57" t="s">
         <v>207</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="134">
+      <c r="D26" s="128">
         <v>4</v>
       </c>
       <c r="E26" s="2">
@@ -7296,26 +7346,26 @@
       <c r="H26" s="36">
         <v>1271</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="62">
         <v>125000</v>
       </c>
-      <c r="J26" s="71">
-        <v>0</v>
-      </c>
-      <c r="K26" s="53">
+      <c r="J26" s="65">
+        <v>0</v>
+      </c>
+      <c r="K26" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="303"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="297"/>
+      <c r="B27" s="57" t="s">
         <v>171</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="134">
+      <c r="D27" s="128">
         <v>4</v>
       </c>
       <c r="E27" s="2">
@@ -7330,26 +7380,26 @@
       <c r="H27" s="36">
         <v>1272</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="62">
         <v>5000</v>
       </c>
-      <c r="J27" s="71">
-        <v>0</v>
-      </c>
-      <c r="K27" s="53">
+      <c r="J27" s="65">
+        <v>0</v>
+      </c>
+      <c r="K27" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="303"/>
-      <c r="B28" s="63" t="s">
+      <c r="A28" s="297"/>
+      <c r="B28" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="134">
+      <c r="D28" s="128">
         <v>4</v>
       </c>
       <c r="E28" s="2">
@@ -7364,26 +7414,26 @@
       <c r="H28" s="36">
         <v>1273</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="62">
         <v>5200</v>
       </c>
-      <c r="J28" s="71">
-        <v>0</v>
-      </c>
-      <c r="K28" s="53">
+      <c r="J28" s="65">
+        <v>0</v>
+      </c>
+      <c r="K28" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="303"/>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="297"/>
+      <c r="B29" s="59" t="s">
         <v>173</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="130">
         <v>4</v>
       </c>
       <c r="E29" s="19">
@@ -7398,25 +7448,25 @@
       <c r="H29" s="38">
         <v>1274</v>
       </c>
-      <c r="I29" s="73">
+      <c r="I29" s="67">
         <v>4800</v>
       </c>
-      <c r="J29" s="72">
-        <v>0</v>
-      </c>
-      <c r="K29" s="55">
+      <c r="J29" s="66">
+        <v>0</v>
+      </c>
+      <c r="K29" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="294" t="s">
+      <c r="A30" s="288" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="23">
@@ -7434,20 +7484,20 @@
       <c r="H30" s="35">
         <v>1275</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="61">
         <v>3000</v>
       </c>
-      <c r="J30" s="70">
-        <v>0</v>
-      </c>
-      <c r="K30" s="52">
+      <c r="J30" s="64">
+        <v>0</v>
+      </c>
+      <c r="K30" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="294"/>
-      <c r="B31" s="139" t="s">
+      <c r="A31" s="288"/>
+      <c r="B31" s="133" t="s">
         <v>185</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -7468,20 +7518,20 @@
       <c r="H31" s="36">
         <v>1276</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="62">
         <v>6000</v>
       </c>
-      <c r="J31" s="71">
-        <v>0</v>
-      </c>
-      <c r="K31" s="53">
+      <c r="J31" s="65">
+        <v>0</v>
+      </c>
+      <c r="K31" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="294"/>
-      <c r="B32" s="139" t="s">
+      <c r="A32" s="288"/>
+      <c r="B32" s="133" t="s">
         <v>186</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -7502,20 +7552,20 @@
       <c r="H32" s="36">
         <v>1277</v>
       </c>
-      <c r="I32" s="68">
+      <c r="I32" s="62">
         <v>8000</v>
       </c>
-      <c r="J32" s="71">
-        <v>0</v>
-      </c>
-      <c r="K32" s="53">
+      <c r="J32" s="65">
+        <v>0</v>
+      </c>
+      <c r="K32" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="294"/>
-      <c r="B33" s="139" t="s">
+      <c r="A33" s="288"/>
+      <c r="B33" s="133" t="s">
         <v>187</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -7536,20 +7586,20 @@
       <c r="H33" s="36">
         <v>1278</v>
       </c>
-      <c r="I33" s="68">
+      <c r="I33" s="62">
         <v>2500</v>
       </c>
-      <c r="J33" s="71">
-        <v>0</v>
-      </c>
-      <c r="K33" s="53">
+      <c r="J33" s="65">
+        <v>0</v>
+      </c>
+      <c r="K33" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="294"/>
-      <c r="B34" s="139" t="s">
+      <c r="A34" s="288"/>
+      <c r="B34" s="133" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -7570,20 +7620,20 @@
       <c r="H34" s="36">
         <v>1279</v>
       </c>
-      <c r="I34" s="68">
+      <c r="I34" s="62">
         <v>2400</v>
       </c>
-      <c r="J34" s="71">
-        <v>0</v>
-      </c>
-      <c r="K34" s="53">
+      <c r="J34" s="65">
+        <v>0</v>
+      </c>
+      <c r="K34" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="294"/>
-      <c r="B35" s="139" t="s">
+      <c r="A35" s="288"/>
+      <c r="B35" s="133" t="s">
         <v>189</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -7604,20 +7654,20 @@
       <c r="H35" s="36">
         <v>1280</v>
       </c>
-      <c r="I35" s="68">
+      <c r="I35" s="62">
         <v>6000</v>
       </c>
-      <c r="J35" s="71">
-        <v>0</v>
-      </c>
-      <c r="K35" s="53">
+      <c r="J35" s="65">
+        <v>0</v>
+      </c>
+      <c r="K35" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="294"/>
-      <c r="B36" s="139" t="s">
+      <c r="A36" s="288"/>
+      <c r="B36" s="133" t="s">
         <v>190</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -7638,20 +7688,20 @@
       <c r="H36" s="36">
         <v>1281</v>
       </c>
-      <c r="I36" s="68">
+      <c r="I36" s="62">
         <v>8500</v>
       </c>
-      <c r="J36" s="71">
-        <v>0</v>
-      </c>
-      <c r="K36" s="53">
+      <c r="J36" s="65">
+        <v>0</v>
+      </c>
+      <c r="K36" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="294"/>
-      <c r="B37" s="139" t="s">
+      <c r="A37" s="288"/>
+      <c r="B37" s="133" t="s">
         <v>227</v>
       </c>
       <c r="C37" s="36" t="s">
@@ -7672,20 +7722,20 @@
       <c r="H37" s="36">
         <v>1282</v>
       </c>
-      <c r="I37" s="68">
+      <c r="I37" s="62">
         <v>100000</v>
       </c>
-      <c r="J37" s="71">
-        <v>0</v>
-      </c>
-      <c r="K37" s="53">
+      <c r="J37" s="65">
+        <v>0</v>
+      </c>
+      <c r="K37" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="294"/>
-      <c r="B38" s="139" t="s">
+      <c r="A38" s="288"/>
+      <c r="B38" s="133" t="s">
         <v>228</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -7706,20 +7756,20 @@
       <c r="H38" s="36">
         <v>1283</v>
       </c>
-      <c r="I38" s="68">
+      <c r="I38" s="62">
         <v>80000</v>
       </c>
-      <c r="J38" s="71">
-        <v>0</v>
-      </c>
-      <c r="K38" s="53">
+      <c r="J38" s="65">
+        <v>0</v>
+      </c>
+      <c r="K38" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="294"/>
-      <c r="B39" s="139" t="s">
+      <c r="A39" s="288"/>
+      <c r="B39" s="133" t="s">
         <v>225</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -7740,20 +7790,20 @@
       <c r="H39" s="36">
         <v>1284</v>
       </c>
-      <c r="I39" s="68">
+      <c r="I39" s="62">
         <v>135000</v>
       </c>
-      <c r="J39" s="71">
-        <v>0</v>
-      </c>
-      <c r="K39" s="53">
+      <c r="J39" s="65">
+        <v>0</v>
+      </c>
+      <c r="K39" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="294"/>
-      <c r="B40" s="139" t="s">
+      <c r="A40" s="288"/>
+      <c r="B40" s="133" t="s">
         <v>193</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -7774,20 +7824,20 @@
       <c r="H40" s="36">
         <v>1285</v>
       </c>
-      <c r="I40" s="68">
+      <c r="I40" s="62">
         <v>1000000</v>
       </c>
-      <c r="J40" s="71">
-        <v>0</v>
-      </c>
-      <c r="K40" s="53">
+      <c r="J40" s="65">
+        <v>0</v>
+      </c>
+      <c r="K40" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="294"/>
-      <c r="B41" s="139" t="s">
+      <c r="A41" s="288"/>
+      <c r="B41" s="133" t="s">
         <v>226</v>
       </c>
       <c r="C41" s="36" t="s">
@@ -7808,21 +7858,21 @@
       <c r="H41" s="36">
         <v>1286</v>
       </c>
-      <c r="I41" s="68">
+      <c r="I41" s="62">
         <v>450000</v>
       </c>
-      <c r="J41" s="71">
-        <v>0</v>
-      </c>
-      <c r="K41" s="53">
+      <c r="J41" s="65">
+        <v>0</v>
+      </c>
+      <c r="K41" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="112"/>
+      <c r="L41" s="106"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="294"/>
-      <c r="B42" s="139" t="s">
+      <c r="A42" s="288"/>
+      <c r="B42" s="133" t="s">
         <v>194</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -7843,20 +7893,20 @@
       <c r="H42" s="36">
         <v>1287</v>
       </c>
-      <c r="I42" s="68">
+      <c r="I42" s="62">
         <v>600000</v>
       </c>
-      <c r="J42" s="71">
-        <v>0</v>
-      </c>
-      <c r="K42" s="53">
+      <c r="J42" s="65">
+        <v>0</v>
+      </c>
+      <c r="K42" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="295"/>
-      <c r="B43" s="143" t="s">
+      <c r="A43" s="289"/>
+      <c r="B43" s="137" t="s">
         <v>195</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7877,22 +7927,22 @@
       <c r="H43" s="38">
         <v>1288</v>
       </c>
-      <c r="I43" s="73">
+      <c r="I43" s="67">
         <v>550000</v>
       </c>
-      <c r="J43" s="72">
-        <v>0</v>
-      </c>
-      <c r="K43" s="55">
+      <c r="J43" s="66">
+        <v>0</v>
+      </c>
+      <c r="K43" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="296" t="s">
+      <c r="A44" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="138" t="s">
         <v>198</v>
       </c>
       <c r="C44" s="35" t="s">
@@ -7913,20 +7963,20 @@
       <c r="H44" s="35">
         <v>1289</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="61">
         <v>600000</v>
       </c>
-      <c r="J44" s="70">
-        <v>0</v>
-      </c>
-      <c r="K44" s="52">
+      <c r="J44" s="64">
+        <v>0</v>
+      </c>
+      <c r="K44" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="297"/>
-      <c r="B45" s="140" t="s">
+      <c r="A45" s="291"/>
+      <c r="B45" s="134" t="s">
         <v>199</v>
       </c>
       <c r="C45" s="36" t="s">
@@ -7947,20 +7997,20 @@
       <c r="H45" s="36">
         <v>1290</v>
       </c>
-      <c r="I45" s="68">
+      <c r="I45" s="62">
         <v>450000</v>
       </c>
-      <c r="J45" s="71">
-        <v>0</v>
-      </c>
-      <c r="K45" s="53">
+      <c r="J45" s="65">
+        <v>0</v>
+      </c>
+      <c r="K45" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="297"/>
-      <c r="B46" s="140" t="s">
+      <c r="A46" s="291"/>
+      <c r="B46" s="134" t="s">
         <v>200</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -7981,20 +8031,20 @@
       <c r="H46" s="36">
         <v>1291</v>
       </c>
-      <c r="I46" s="68">
+      <c r="I46" s="62">
         <v>440000</v>
       </c>
-      <c r="J46" s="71">
-        <v>0</v>
-      </c>
-      <c r="K46" s="53">
+      <c r="J46" s="65">
+        <v>0</v>
+      </c>
+      <c r="K46" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="297"/>
-      <c r="B47" s="140" t="s">
+      <c r="A47" s="291"/>
+      <c r="B47" s="134" t="s">
         <v>174</v>
       </c>
       <c r="C47" s="36" t="s">
@@ -8015,20 +8065,20 @@
       <c r="H47" s="36">
         <v>1292</v>
       </c>
-      <c r="I47" s="68">
+      <c r="I47" s="62">
         <v>80000</v>
       </c>
-      <c r="J47" s="71">
-        <v>0</v>
-      </c>
-      <c r="K47" s="53">
+      <c r="J47" s="65">
+        <v>0</v>
+      </c>
+      <c r="K47" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="297"/>
-      <c r="B48" s="140" t="s">
+      <c r="A48" s="291"/>
+      <c r="B48" s="134" t="s">
         <v>175</v>
       </c>
       <c r="C48" s="36" t="s">
@@ -8049,20 +8099,20 @@
       <c r="H48" s="36">
         <v>1293</v>
       </c>
-      <c r="I48" s="68">
+      <c r="I48" s="62">
         <v>50000</v>
       </c>
-      <c r="J48" s="71">
-        <v>0</v>
-      </c>
-      <c r="K48" s="53">
+      <c r="J48" s="65">
+        <v>0</v>
+      </c>
+      <c r="K48" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="297"/>
-      <c r="B49" s="140" t="s">
+      <c r="A49" s="291"/>
+      <c r="B49" s="134" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -8083,20 +8133,20 @@
       <c r="H49" s="36">
         <v>1294</v>
       </c>
-      <c r="I49" s="68">
+      <c r="I49" s="62">
         <v>950000</v>
       </c>
-      <c r="J49" s="71">
-        <v>0</v>
-      </c>
-      <c r="K49" s="53">
+      <c r="J49" s="65">
+        <v>0</v>
+      </c>
+      <c r="K49" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="297"/>
-      <c r="B50" s="140" t="s">
+      <c r="A50" s="291"/>
+      <c r="B50" s="134" t="s">
         <v>177</v>
       </c>
       <c r="C50" s="36" t="s">
@@ -8117,20 +8167,20 @@
       <c r="H50" s="36">
         <v>1295</v>
       </c>
-      <c r="I50" s="68">
+      <c r="I50" s="62">
         <v>1300000</v>
       </c>
-      <c r="J50" s="71">
-        <v>0</v>
-      </c>
-      <c r="K50" s="53">
+      <c r="J50" s="65">
+        <v>0</v>
+      </c>
+      <c r="K50" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="298"/>
-      <c r="B51" s="150" t="s">
+      <c r="A51" s="292"/>
+      <c r="B51" s="144" t="s">
         <v>180</v>
       </c>
       <c r="C51" s="38" t="s">
@@ -8151,22 +8201,22 @@
       <c r="H51" s="38">
         <v>1296</v>
       </c>
-      <c r="I51" s="69">
+      <c r="I51" s="63">
         <v>35000</v>
       </c>
-      <c r="J51" s="132">
-        <v>0</v>
-      </c>
-      <c r="K51" s="145">
+      <c r="J51" s="126">
+        <v>0</v>
+      </c>
+      <c r="K51" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="299" t="s">
+      <c r="A52" s="293" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="102" t="s">
         <v>178</v>
       </c>
       <c r="C52" s="35" t="s">
@@ -8179,20 +8229,20 @@
       <c r="H52" s="35">
         <v>1297</v>
       </c>
-      <c r="I52" s="67">
-        <v>0</v>
-      </c>
-      <c r="J52" s="70">
-        <v>0</v>
-      </c>
-      <c r="K52" s="52">
+      <c r="I52" s="61">
+        <v>0</v>
+      </c>
+      <c r="J52" s="64">
+        <v>0</v>
+      </c>
+      <c r="K52" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="300"/>
-      <c r="B53" s="141" t="s">
+      <c r="A53" s="294"/>
+      <c r="B53" s="135" t="s">
         <v>204</v>
       </c>
       <c r="C53" s="36" t="s">
@@ -8213,20 +8263,20 @@
       <c r="H53" s="36">
         <v>1298</v>
       </c>
-      <c r="I53" s="68">
+      <c r="I53" s="62">
         <v>2000</v>
       </c>
-      <c r="J53" s="71">
-        <v>0</v>
-      </c>
-      <c r="K53" s="53">
+      <c r="J53" s="65">
+        <v>0</v>
+      </c>
+      <c r="K53" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="300"/>
-      <c r="B54" s="141" t="s">
+      <c r="A54" s="294"/>
+      <c r="B54" s="135" t="s">
         <v>251</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -8247,20 +8297,20 @@
       <c r="H54" s="36">
         <v>1303</v>
       </c>
-      <c r="I54" s="68">
+      <c r="I54" s="62">
         <v>2800</v>
       </c>
-      <c r="J54" s="71">
-        <v>0</v>
-      </c>
-      <c r="K54" s="53">
+      <c r="J54" s="65">
+        <v>0</v>
+      </c>
+      <c r="K54" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="300"/>
-      <c r="B55" s="141" t="s">
+      <c r="A55" s="294"/>
+      <c r="B55" s="135" t="s">
         <v>179</v>
       </c>
       <c r="C55" s="36" t="s">
@@ -8281,21 +8331,21 @@
       <c r="H55" s="36">
         <v>1299</v>
       </c>
-      <c r="I55" s="68">
+      <c r="I55" s="62">
         <v>2500</v>
       </c>
-      <c r="J55" s="71">
-        <v>0</v>
-      </c>
-      <c r="K55" s="53">
+      <c r="J55" s="65">
+        <v>0</v>
+      </c>
+      <c r="K55" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L55" s="112"/>
+      <c r="L55" s="106"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="301"/>
-      <c r="B56" s="163" t="s">
+      <c r="A56" s="295"/>
+      <c r="B56" s="157" t="s">
         <v>229</v>
       </c>
       <c r="C56" s="37" t="s">
@@ -8316,28 +8366,28 @@
       <c r="H56" s="37">
         <v>1300</v>
       </c>
-      <c r="I56" s="69">
+      <c r="I56" s="63">
         <v>80000</v>
       </c>
-      <c r="J56" s="132">
-        <v>0</v>
-      </c>
-      <c r="K56" s="145">
+      <c r="J56" s="126">
+        <v>0</v>
+      </c>
+      <c r="K56" s="139">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="304" t="s">
+      <c r="A57" s="298" t="s">
         <v>248</v>
       </c>
-      <c r="B57" s="164" t="s">
+      <c r="B57" s="158" t="s">
         <v>253</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="116">
+      <c r="D57" s="110">
         <v>4</v>
       </c>
       <c r="E57" s="18">
@@ -8352,26 +8402,26 @@
       <c r="H57" s="35">
         <v>1501</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="48">
         <v>5400</v>
       </c>
-      <c r="J57" s="70">
-        <v>0</v>
-      </c>
-      <c r="K57" s="52">
+      <c r="J57" s="64">
+        <v>0</v>
+      </c>
+      <c r="K57" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="305"/>
-      <c r="B58" s="175" t="s">
+      <c r="A58" s="299"/>
+      <c r="B58" s="169" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="134">
+      <c r="D58" s="128">
         <v>4</v>
       </c>
       <c r="E58" s="2">
@@ -8386,26 +8436,26 @@
       <c r="H58" s="36">
         <v>1502</v>
       </c>
-      <c r="I58" s="53">
+      <c r="I58" s="49">
         <v>5000</v>
       </c>
-      <c r="J58" s="71">
-        <v>0</v>
-      </c>
-      <c r="K58" s="53">
+      <c r="J58" s="65">
+        <v>0</v>
+      </c>
+      <c r="K58" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="305"/>
-      <c r="B59" s="175" t="s">
+      <c r="A59" s="299"/>
+      <c r="B59" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="134">
+      <c r="D59" s="128">
         <v>4</v>
       </c>
       <c r="E59" s="2">
@@ -8420,26 +8470,26 @@
       <c r="H59" s="36">
         <v>1500</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="49">
         <v>450000</v>
       </c>
-      <c r="J59" s="71">
-        <v>0</v>
-      </c>
-      <c r="K59" s="53">
+      <c r="J59" s="65">
+        <v>0</v>
+      </c>
+      <c r="K59" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="306"/>
-      <c r="B60" s="165" t="s">
+      <c r="A60" s="300"/>
+      <c r="B60" s="159" t="s">
         <v>256</v>
       </c>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="136">
+      <c r="D60" s="130">
         <v>4</v>
       </c>
       <c r="E60" s="19">
@@ -8454,38 +8504,38 @@
       <c r="H60" s="38">
         <v>1503</v>
       </c>
-      <c r="I60" s="55">
+      <c r="I60" s="50">
         <v>1100000</v>
       </c>
-      <c r="J60" s="72">
+      <c r="J60" s="66">
         <v>2</v>
       </c>
-      <c r="K60" s="55">
+      <c r="K60" s="50">
         <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="176"/>
-      <c r="I61" s="285" t="s">
+      <c r="B61" s="170"/>
+      <c r="I61" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="J61" s="286"/>
-      <c r="K61" s="289">
+      <c r="J61" s="280"/>
+      <c r="K61" s="283">
         <f>SUM(K2:K60)</f>
         <v>2200000</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I62" s="287"/>
-      <c r="J62" s="288"/>
-      <c r="K62" s="290"/>
+      <c r="I62" s="281"/>
+      <c r="J62" s="282"/>
+      <c r="K62" s="284"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H63" s="162"/>
+      <c r="H63" s="156"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="162"/>
+      <c r="H65" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8525,37 +8575,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115"/>
+      <c r="A1" s="109"/>
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="291" t="s">
+      <c r="C1" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="293"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="287"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="71" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="72" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="116">
+      <c r="C2" s="110">
         <v>1</v>
       </c>
       <c r="D2" s="18">
@@ -8570,21 +8620,21 @@
       <c r="G2" s="35">
         <v>1250</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="48">
         <v>90000</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="52">
+      <c r="I2" s="64"/>
+      <c r="J2" s="48">
         <f>H2*I2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="310"/>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="304"/>
+      <c r="B3" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="111">
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -8596,24 +8646,24 @@
       <c r="F3" s="3">
         <v>2740</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>1251</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="49">
         <v>50000</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="53">
+      <c r="I3" s="65"/>
+      <c r="J3" s="49">
         <f t="shared" ref="J3:J41" si="0">H3*I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="310"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="304"/>
+      <c r="B4" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="111">
         <v>1</v>
       </c>
       <c r="D4" s="4">
@@ -8625,24 +8675,24 @@
       <c r="F4" s="3">
         <v>294</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>1252</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="49">
         <v>70000</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="53">
+      <c r="I4" s="65"/>
+      <c r="J4" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="118" t="s">
+      <c r="A5" s="304"/>
+      <c r="B5" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="111">
         <v>1</v>
       </c>
       <c r="D5" s="4">
@@ -8654,24 +8704,24 @@
       <c r="F5" s="3">
         <v>1572</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>1253</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="49">
         <v>52000</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="53">
+      <c r="I5" s="65"/>
+      <c r="J5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="310"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="304"/>
+      <c r="B6" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="111">
         <v>1</v>
       </c>
       <c r="D6" s="4">
@@ -8683,24 +8733,24 @@
       <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>1254</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="49">
         <v>100000</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="53">
+      <c r="I6" s="65"/>
+      <c r="J6" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="304"/>
+      <c r="B7" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="111">
         <v>1</v>
       </c>
       <c r="D7" s="4">
@@ -8712,24 +8762,24 @@
       <c r="F7" s="3">
         <v>36</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>1255</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="49">
         <v>48000</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="53">
+      <c r="I7" s="65"/>
+      <c r="J7" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="304"/>
+      <c r="B8" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="111">
         <v>1</v>
       </c>
       <c r="D8" s="4">
@@ -8741,24 +8791,24 @@
       <c r="F8" s="3">
         <v>587</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>1256</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="49">
         <v>55000</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="53">
+      <c r="I8" s="65"/>
+      <c r="J8" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="310"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="304"/>
+      <c r="B9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="111">
         <v>1</v>
       </c>
       <c r="D9" s="4">
@@ -8770,24 +8820,24 @@
       <c r="F9" s="3">
         <v>485</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>1257</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="49">
         <v>50000</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="53">
+      <c r="I9" s="65"/>
+      <c r="J9" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="310"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="304"/>
+      <c r="B10" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="111">
         <v>1</v>
       </c>
       <c r="D10" s="4">
@@ -8799,24 +8849,24 @@
       <c r="F10" s="3">
         <v>11</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>1258</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="49">
         <v>58000</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="53">
+      <c r="I10" s="65"/>
+      <c r="J10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="310"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="304"/>
+      <c r="B11" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="111">
         <v>1</v>
       </c>
       <c r="D11" s="4">
@@ -8828,24 +8878,24 @@
       <c r="F11" s="3">
         <v>604</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>1259</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="49">
         <v>85000</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="53">
+      <c r="I11" s="65"/>
+      <c r="J11" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="310"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="304"/>
+      <c r="B12" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="111">
         <v>1</v>
       </c>
       <c r="D12" s="4">
@@ -8857,24 +8907,24 @@
       <c r="F12" s="3">
         <v>605</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>1260</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="49">
         <v>60000</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="53">
+      <c r="I12" s="65"/>
+      <c r="J12" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="310"/>
-      <c r="B13" s="60" t="s">
+      <c r="A13" s="304"/>
+      <c r="B13" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="111">
         <v>1</v>
       </c>
       <c r="D13" s="4">
@@ -8886,24 +8936,24 @@
       <c r="F13" s="3">
         <v>14</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>1261</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="49">
         <v>40000</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="53">
+      <c r="I13" s="65"/>
+      <c r="J13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="310"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="304"/>
+      <c r="B14" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="111">
         <v>1</v>
       </c>
       <c r="D14" s="4">
@@ -8915,24 +8965,24 @@
       <c r="F14" s="3">
         <v>1470</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>1262</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="49">
         <v>95000</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="53">
+      <c r="I14" s="65"/>
+      <c r="J14" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="310"/>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="304"/>
+      <c r="B15" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="111">
         <v>1</v>
       </c>
       <c r="D15" s="4">
@@ -8944,24 +8994,24 @@
       <c r="F15" s="3">
         <v>2146</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>1263</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="49">
         <v>92000</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="53">
+      <c r="I15" s="65"/>
+      <c r="J15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="310"/>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="304"/>
+      <c r="B16" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="111">
         <v>1</v>
       </c>
       <c r="D16" s="4">
@@ -8973,24 +9023,24 @@
       <c r="F16" s="3">
         <v>2144</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>1264</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="49">
         <v>58000</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="53">
+      <c r="I16" s="65"/>
+      <c r="J16" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="310"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="304"/>
+      <c r="B17" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="117">
+      <c r="C17" s="111">
         <v>1</v>
       </c>
       <c r="D17" s="4">
@@ -9002,24 +9052,24 @@
       <c r="F17" s="3">
         <v>465</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <v>1265</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="49">
         <v>42000</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="53">
+      <c r="I17" s="65"/>
+      <c r="J17" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="310"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="304"/>
+      <c r="B18" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="111">
         <v>1</v>
       </c>
       <c r="D18" s="4">
@@ -9031,55 +9081,55 @@
       <c r="F18" s="3">
         <v>1056</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <v>1266</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="49">
         <v>38000</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="53">
+      <c r="I18" s="65"/>
+      <c r="J18" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="311"/>
-      <c r="B19" s="137" t="s">
+      <c r="A19" s="305"/>
+      <c r="B19" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="129">
-        <v>1</v>
-      </c>
-      <c r="D19" s="130">
+      <c r="C19" s="123">
+        <v>1</v>
+      </c>
+      <c r="D19" s="124">
         <v>3</v>
       </c>
-      <c r="E19" s="130">
+      <c r="E19" s="124">
         <v>43</v>
       </c>
       <c r="F19" s="33">
         <v>855</v>
       </c>
-      <c r="G19" s="133">
+      <c r="G19" s="127">
         <v>1267</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="50">
         <v>30000</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="55">
+      <c r="I19" s="66"/>
+      <c r="J19" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="312" t="s">
+      <c r="A20" s="306" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="110">
         <v>4</v>
       </c>
       <c r="D20" s="18">
@@ -9094,21 +9144,21 @@
       <c r="G20" s="35">
         <v>1268</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="61">
         <v>1500000</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="67">
+      <c r="I20" s="64"/>
+      <c r="J20" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="313"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="307"/>
+      <c r="B21" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="128">
         <v>4</v>
       </c>
       <c r="D21" s="2">
@@ -9123,21 +9173,21 @@
       <c r="G21" s="36">
         <v>1269</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="62">
         <v>950000</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="68">
+      <c r="I21" s="65"/>
+      <c r="J21" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="313"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="307"/>
+      <c r="B22" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="128">
         <v>4</v>
       </c>
       <c r="D22" s="2">
@@ -9152,21 +9202,21 @@
       <c r="G22" s="36">
         <v>1270</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="62">
         <v>1200000</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="68">
+      <c r="I22" s="65"/>
+      <c r="J22" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="313"/>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="307"/>
+      <c r="B23" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="128">
         <v>4</v>
       </c>
       <c r="D23" s="2">
@@ -9181,21 +9231,21 @@
       <c r="G23" s="36">
         <v>1271</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="62">
         <v>850000</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="68">
+      <c r="I23" s="65"/>
+      <c r="J23" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="313"/>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="307"/>
+      <c r="B24" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="128">
         <v>4</v>
       </c>
       <c r="D24" s="2">
@@ -9210,21 +9260,21 @@
       <c r="G24" s="36">
         <v>1272</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="62">
         <v>1000000</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="68">
+      <c r="I24" s="65"/>
+      <c r="J24" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="313"/>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="307"/>
+      <c r="B25" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="135">
+      <c r="C25" s="129">
         <v>4</v>
       </c>
       <c r="D25" s="17">
@@ -9239,21 +9289,21 @@
       <c r="G25" s="36">
         <v>1286</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="63">
         <v>720000</v>
       </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="69">
+      <c r="I25" s="126"/>
+      <c r="J25" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="313"/>
-      <c r="B26" s="60" t="s">
+      <c r="A26" s="307"/>
+      <c r="B26" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="135">
+      <c r="C26" s="129">
         <v>4</v>
       </c>
       <c r="D26" s="17">
@@ -9268,21 +9318,21 @@
       <c r="G26" s="36">
         <v>1287</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="63">
         <v>900000</v>
       </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="69">
+      <c r="I26" s="126"/>
+      <c r="J26" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="314"/>
-      <c r="B27" s="61" t="s">
+      <c r="A27" s="308"/>
+      <c r="B27" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="136">
+      <c r="C27" s="130">
         <v>4</v>
       </c>
       <c r="D27" s="19">
@@ -9297,20 +9347,20 @@
       <c r="G27" s="38">
         <v>1273</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="67">
         <v>980000</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73">
+      <c r="I27" s="66"/>
+      <c r="J27" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="315" t="s">
+      <c r="A28" s="309" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="115" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="30">
@@ -9322,24 +9372,24 @@
       <c r="E28" s="4">
         <v>48</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="125">
         <v>1170</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <v>1274</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="48">
         <v>60000</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="67">
+      <c r="I28" s="64"/>
+      <c r="J28" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="316"/>
-      <c r="B29" s="120" t="s">
+      <c r="A29" s="310"/>
+      <c r="B29" s="114" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="25">
@@ -9354,21 +9404,21 @@
       <c r="F29" s="26">
         <v>2140</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="41">
         <v>1275</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="49">
         <v>50000</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="68">
+      <c r="I29" s="65"/>
+      <c r="J29" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="316"/>
-      <c r="B30" s="120" t="s">
+      <c r="A30" s="310"/>
+      <c r="B30" s="114" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="25">
@@ -9383,21 +9433,21 @@
       <c r="F30" s="26">
         <v>2287</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <v>1276</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="49">
         <v>75000</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="68">
+      <c r="I30" s="65"/>
+      <c r="J30" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="317"/>
-      <c r="B31" s="122" t="s">
+      <c r="A31" s="311"/>
+      <c r="B31" s="116" t="s">
         <v>138</v>
       </c>
       <c r="C31" s="27">
@@ -9412,23 +9462,23 @@
       <c r="F31" s="28">
         <v>666</v>
       </c>
-      <c r="G31" s="114">
+      <c r="G31" s="108">
         <v>1277</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="50">
         <v>35000</v>
       </c>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73">
+      <c r="I31" s="66"/>
+      <c r="J31" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="318" t="s">
+      <c r="A32" s="312" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="113" t="s">
         <v>126</v>
       </c>
       <c r="C32" s="23">
@@ -9446,20 +9496,20 @@
       <c r="G32" s="35">
         <v>1278</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="48">
         <v>2300000</v>
       </c>
-      <c r="I32" s="70">
-        <v>0</v>
-      </c>
-      <c r="J32" s="52">
+      <c r="I32" s="64">
+        <v>0</v>
+      </c>
+      <c r="J32" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="319"/>
-      <c r="B33" s="120" t="s">
+      <c r="A33" s="313"/>
+      <c r="B33" s="114" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="25">
@@ -9474,23 +9524,23 @@
       <c r="F33" s="26">
         <v>1718</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <v>1279</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="49">
         <v>1440000</v>
       </c>
-      <c r="I33" s="71">
-        <v>0</v>
-      </c>
-      <c r="J33" s="53">
+      <c r="I33" s="65">
+        <v>0</v>
+      </c>
+      <c r="J33" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="319"/>
-      <c r="B34" s="120" t="s">
+      <c r="A34" s="313"/>
+      <c r="B34" s="114" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="25">
@@ -9505,23 +9555,23 @@
       <c r="F34" s="26">
         <v>2148</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <v>1280</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="49">
         <v>1100000</v>
       </c>
-      <c r="I34" s="71">
-        <v>0</v>
-      </c>
-      <c r="J34" s="53">
+      <c r="I34" s="65">
+        <v>0</v>
+      </c>
+      <c r="J34" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="319"/>
-      <c r="B35" s="120" t="s">
+      <c r="A35" s="313"/>
+      <c r="B35" s="114" t="s">
         <v>134</v>
       </c>
       <c r="C35" s="25">
@@ -9536,23 +9586,23 @@
       <c r="F35" s="26">
         <v>463</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="41">
         <v>1281</v>
       </c>
-      <c r="H35" s="53">
+      <c r="H35" s="49">
         <v>1250000</v>
       </c>
-      <c r="I35" s="71">
-        <v>0</v>
-      </c>
-      <c r="J35" s="53">
+      <c r="I35" s="65">
+        <v>0</v>
+      </c>
+      <c r="J35" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="319"/>
-      <c r="B36" s="120" t="s">
+      <c r="A36" s="313"/>
+      <c r="B36" s="114" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="25">
@@ -9567,23 +9617,23 @@
       <c r="F36" s="26">
         <v>808</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="41">
         <v>1282</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="49">
         <v>1600000</v>
       </c>
-      <c r="I36" s="71">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53">
+      <c r="I36" s="65">
+        <v>0</v>
+      </c>
+      <c r="J36" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="319"/>
-      <c r="B37" s="120" t="s">
+      <c r="A37" s="313"/>
+      <c r="B37" s="114" t="s">
         <v>192</v>
       </c>
       <c r="C37" s="25">
@@ -9598,23 +9648,23 @@
       <c r="F37" s="26">
         <v>19</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="41">
         <v>1288</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="49">
         <v>1800000</v>
       </c>
-      <c r="I37" s="71">
-        <v>0</v>
-      </c>
-      <c r="J37" s="53">
+      <c r="I37" s="65">
+        <v>0</v>
+      </c>
+      <c r="J37" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="319"/>
-      <c r="B38" s="120" t="s">
+      <c r="A38" s="313"/>
+      <c r="B38" s="114" t="s">
         <v>257</v>
       </c>
       <c r="C38" s="25">
@@ -9629,18 +9679,18 @@
       <c r="F38" s="26">
         <v>2723</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="41">
         <v>1800</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="49">
         <v>7000000</v>
       </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="53"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="319"/>
-      <c r="B39" s="120" t="s">
+      <c r="A39" s="313"/>
+      <c r="B39" s="114" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="25">
@@ -9655,23 +9705,23 @@
       <c r="F39" s="26">
         <v>2286</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="41">
         <v>1283</v>
       </c>
-      <c r="H39" s="53">
+      <c r="H39" s="49">
         <v>1750000</v>
       </c>
-      <c r="I39" s="71">
-        <v>0</v>
-      </c>
-      <c r="J39" s="53">
+      <c r="I39" s="65">
+        <v>0</v>
+      </c>
+      <c r="J39" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="320"/>
-      <c r="B40" s="122" t="s">
+      <c r="A40" s="314"/>
+      <c r="B40" s="116" t="s">
         <v>142</v>
       </c>
       <c r="C40" s="27">
@@ -9686,69 +9736,69 @@
       <c r="F40" s="28">
         <v>2114</v>
       </c>
-      <c r="G40" s="114">
+      <c r="G40" s="108">
         <v>1284</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="50">
         <v>3200000</v>
       </c>
-      <c r="I40" s="72">
-        <v>0</v>
-      </c>
-      <c r="J40" s="55">
+      <c r="I40" s="66">
+        <v>0</v>
+      </c>
+      <c r="J40" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="124" t="s">
+      <c r="A41" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="119" t="s">
         <v>140</v>
       </c>
       <c r="C41" s="7">
         <v>4</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="117">
         <v>15</v>
       </c>
-      <c r="E41" s="123">
+      <c r="E41" s="117">
         <v>46</v>
       </c>
-      <c r="F41" s="126">
+      <c r="F41" s="120">
         <v>1919</v>
       </c>
       <c r="G41" s="13">
         <v>1285</v>
       </c>
-      <c r="H41" s="127">
+      <c r="H41" s="121">
         <v>250000</v>
       </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="128">
+      <c r="I41" s="100"/>
+      <c r="J41" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H42" s="285" t="s">
+      <c r="H42" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="307"/>
-      <c r="J42" s="289">
+      <c r="I42" s="301"/>
+      <c r="J42" s="283">
         <f>SUM(J2:J41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="287"/>
-      <c r="I43" s="308"/>
-      <c r="J43" s="290"/>
+      <c r="H43" s="281"/>
+      <c r="I43" s="302"/>
+      <c r="J43" s="284"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="149" t="s">
+      <c r="B46" s="143" t="s">
         <v>208</v>
       </c>
       <c r="C46" s="23">
@@ -9768,7 +9818,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="146" t="s">
+      <c r="B47" s="140" t="s">
         <v>209</v>
       </c>
       <c r="C47" s="25">
@@ -9788,7 +9838,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="140" t="s">
         <v>210</v>
       </c>
       <c r="C48" s="25">
@@ -9808,7 +9858,7 @@
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="146" t="s">
+      <c r="B49" s="140" t="s">
         <v>212</v>
       </c>
       <c r="C49" s="25">
@@ -9828,7 +9878,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="146" t="s">
+      <c r="B50" s="140" t="s">
         <v>211</v>
       </c>
       <c r="C50" s="25">
@@ -9848,7 +9898,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="140" t="s">
         <v>213</v>
       </c>
       <c r="C51" s="25">
@@ -9868,7 +9918,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="146" t="s">
+      <c r="B52" s="140" t="s">
         <v>213</v>
       </c>
       <c r="C52" s="25">
@@ -9888,7 +9938,7 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="146" t="s">
+      <c r="B53" s="140" t="s">
         <v>213</v>
       </c>
       <c r="C53" s="25">
@@ -9906,10 +9956,10 @@
       <c r="G53" s="36">
         <v>1305</v>
       </c>
-      <c r="H53" s="148"/>
+      <c r="H53" s="142"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="146" t="s">
+      <c r="B54" s="140" t="s">
         <v>214</v>
       </c>
       <c r="C54" s="25">
@@ -9927,10 +9977,10 @@
       <c r="G54" s="36">
         <v>1306</v>
       </c>
-      <c r="I54" s="112"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="140" t="s">
         <v>215</v>
       </c>
       <c r="C55" s="25">
@@ -9950,7 +10000,7 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="140" t="s">
         <v>216</v>
       </c>
       <c r="C56" s="25">
@@ -9970,7 +10020,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C57" s="25">
@@ -9988,11 +10038,11 @@
       <c r="G57" s="36">
         <v>1309</v>
       </c>
-      <c r="H57" s="148"/>
-      <c r="I57" s="112"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C58" s="25">
@@ -10012,7 +10062,7 @@
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="146" t="s">
+      <c r="B59" s="140" t="s">
         <v>219</v>
       </c>
       <c r="C59" s="25">
@@ -10030,10 +10080,10 @@
       <c r="G59" s="36">
         <v>1311</v>
       </c>
-      <c r="H59" s="148"/>
+      <c r="H59" s="142"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C60" s="25">
@@ -10051,10 +10101,10 @@
       <c r="G60" s="36">
         <v>1312</v>
       </c>
-      <c r="I60" s="112"/>
+      <c r="I60" s="106"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="146" t="s">
+      <c r="B61" s="140" t="s">
         <v>221</v>
       </c>
       <c r="C61" s="25">
@@ -10074,7 +10124,7 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="146" t="s">
+      <c r="B62" s="140" t="s">
         <v>222</v>
       </c>
       <c r="C62" s="25">
@@ -10092,10 +10142,10 @@
       <c r="G62" s="36">
         <v>1314</v>
       </c>
-      <c r="I62" s="112"/>
+      <c r="I62" s="106"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="146" t="s">
+      <c r="B63" s="140" t="s">
         <v>223</v>
       </c>
       <c r="C63" s="25">
@@ -10115,7 +10165,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="147" t="s">
+      <c r="B64" s="141" t="s">
         <v>224</v>
       </c>
       <c r="C64" s="27">
@@ -10164,576 +10214,564 @@
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="160" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="154" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="107" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="179" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="184">
+      <c r="C2" s="178">
         <f>+AA!I2</f>
         <v>25000</v>
       </c>
-      <c r="D2" s="185">
+      <c r="D2" s="179">
         <v>20</v>
       </c>
-      <c r="E2" s="323">
+      <c r="E2" s="318">
         <v>1360000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="189">
+      <c r="B3" s="316"/>
+      <c r="C3" s="183">
         <v>28000</v>
       </c>
-      <c r="D3" s="190">
+      <c r="D3" s="184">
         <v>20</v>
       </c>
-      <c r="E3" s="328"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="194">
+      <c r="B4" s="317"/>
+      <c r="C4" s="188">
         <f>+AA!I4</f>
         <v>32000</v>
       </c>
-      <c r="D4" s="195">
+      <c r="D4" s="189">
         <v>10</v>
       </c>
-      <c r="E4" s="324"/>
+      <c r="E4" s="320"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="325" t="s">
+      <c r="B5" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="197">
+      <c r="C5" s="191">
         <f>+AA!I8</f>
         <v>120000</v>
       </c>
-      <c r="D5" s="198">
+      <c r="D5" s="192">
         <v>20</v>
       </c>
-      <c r="E5" s="329">
+      <c r="E5" s="321">
         <v>4800000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="181" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="321"/>
-      <c r="C6" s="199">
+      <c r="B6" s="316"/>
+      <c r="C6" s="193">
         <v>110000</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="194">
         <v>10</v>
       </c>
-      <c r="E6" s="330"/>
+      <c r="E6" s="322"/>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="322"/>
-      <c r="C7" s="201">
+      <c r="B7" s="317"/>
+      <c r="C7" s="195">
         <f>+AA!I9</f>
         <v>130000</v>
       </c>
-      <c r="D7" s="202">
+      <c r="D7" s="196">
         <v>10</v>
       </c>
-      <c r="E7" s="331"/>
+      <c r="E7" s="323"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="326" t="s">
+      <c r="B8" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="198">
         <f>+AA!I6</f>
         <v>110000</v>
       </c>
-      <c r="D8" s="205">
+      <c r="D8" s="199">
         <v>20</v>
       </c>
-      <c r="E8" s="323">
+      <c r="E8" s="318">
         <f>+(C8*D8)+(C9*D9)</f>
         <v>3350000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="327"/>
-      <c r="C9" s="204">
+      <c r="B9" s="325"/>
+      <c r="C9" s="198">
         <f>+AA!I7</f>
         <v>115000</v>
       </c>
-      <c r="D9" s="207">
+      <c r="D9" s="201">
         <v>10</v>
       </c>
-      <c r="E9" s="324"/>
+      <c r="E9" s="320"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="210">
+      <c r="C10" s="204">
         <v>325000</v>
       </c>
-      <c r="D10" s="180">
+      <c r="D10" s="174">
         <v>10</v>
       </c>
-      <c r="E10" s="211">
+      <c r="E10" s="205">
         <f t="shared" ref="E10" si="0">C10*D10</f>
         <v>3250000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="325" t="s">
+      <c r="B11" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="178">
         <f>+AA!I29</f>
         <v>27000</v>
       </c>
-      <c r="D11" s="190">
+      <c r="D11" s="184">
         <v>20</v>
       </c>
-      <c r="E11" s="323">
+      <c r="E11" s="318">
         <f>+(C11*D11)+(C12*D12)</f>
         <v>1690000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="322"/>
-      <c r="C12" s="194">
+      <c r="B12" s="317"/>
+      <c r="C12" s="188">
         <f>+AA!I39</f>
         <v>115000</v>
       </c>
-      <c r="D12" s="195">
+      <c r="D12" s="189">
         <v>10</v>
       </c>
-      <c r="E12" s="324"/>
+      <c r="E12" s="320"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="214" t="s">
+      <c r="A13" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="325" t="s">
+      <c r="B13" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="215">
+      <c r="C13" s="209">
         <f>+AA!I47</f>
         <v>76000</v>
       </c>
-      <c r="D13" s="203">
+      <c r="D13" s="197">
         <v>20</v>
       </c>
-      <c r="E13" s="323">
+      <c r="E13" s="318">
         <f>+(C13*D13)+(C14*D14)</f>
         <v>2320000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="216" t="s">
+      <c r="A14" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="321"/>
-      <c r="C14" s="215">
+      <c r="B14" s="316"/>
+      <c r="C14" s="209">
         <f>+AA!I44</f>
         <v>80000</v>
       </c>
-      <c r="D14" s="209">
+      <c r="D14" s="203">
         <v>10</v>
       </c>
-      <c r="E14" s="328"/>
+      <c r="E14" s="319"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="211" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="322"/>
-      <c r="C15" s="218">
+      <c r="B15" s="317"/>
+      <c r="C15" s="212">
         <v>110000</v>
       </c>
-      <c r="D15" s="206">
+      <c r="D15" s="200">
         <v>10</v>
       </c>
-      <c r="E15" s="324"/>
+      <c r="E15" s="320"/>
     </row>
     <row r="16" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="203" t="s">
+      <c r="A16" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="204">
+      <c r="C16" s="198">
         <f>+AA!I41</f>
         <v>85000</v>
       </c>
-      <c r="D16" s="209">
+      <c r="D16" s="203">
         <v>30</v>
       </c>
-      <c r="E16" s="186">
+      <c r="E16" s="180">
         <f>+C16*D16</f>
         <v>2550000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="218">
+      <c r="C17" s="212">
         <f>+AA!I51</f>
         <v>55000</v>
       </c>
-      <c r="D17" s="206">
+      <c r="D17" s="200">
         <v>30</v>
       </c>
-      <c r="E17" s="196">
+      <c r="E17" s="190">
         <f>+C17*D17</f>
         <v>1650000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="221" t="s">
+      <c r="A18" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="222">
+      <c r="C18" s="216">
         <f>+AA!I52</f>
         <v>75000</v>
       </c>
-      <c r="D18" s="180">
+      <c r="D18" s="174">
         <v>30</v>
       </c>
-      <c r="E18" s="181">
+      <c r="E18" s="175">
         <f>+C18*D18</f>
         <v>2250000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="217" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="222">
+      <c r="C19" s="216">
         <f>+AA!I53</f>
         <v>65000</v>
       </c>
-      <c r="D19" s="180">
+      <c r="D19" s="174">
         <v>30</v>
       </c>
-      <c r="E19" s="181">
+      <c r="E19" s="175">
         <f>+C19*D19</f>
         <v>1950000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="177" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="178"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="180" t="s">
+      <c r="A21" s="171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="172"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="181" t="s">
+      <c r="E21" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="321" t="s">
+      <c r="B22" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="215">
+      <c r="C22" s="209">
         <f>+AA!I16</f>
         <v>175000</v>
       </c>
-      <c r="D22" s="205">
+      <c r="D22" s="199">
         <v>10</v>
       </c>
-      <c r="E22" s="323">
+      <c r="E22" s="318">
         <f>+(C22*D22)+(C23*D23)</f>
         <v>5750000</v>
       </c>
-      <c r="G22" s="112"/>
+      <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="322"/>
-      <c r="C23" s="215">
+      <c r="B23" s="317"/>
+      <c r="C23" s="209">
         <f>+AA!I18</f>
         <v>200000</v>
       </c>
-      <c r="D23" s="207">
+      <c r="D23" s="201">
         <v>20</v>
       </c>
-      <c r="E23" s="324"/>
+      <c r="E23" s="320"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="212" t="s">
+      <c r="A24" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="325" t="s">
+      <c r="B24" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="225">
+      <c r="C24" s="219">
         <f>+AA!I37</f>
         <v>130000</v>
       </c>
-      <c r="D24" s="198">
+      <c r="D24" s="192">
         <v>20</v>
       </c>
-      <c r="E24" s="323">
+      <c r="E24" s="318">
         <f>+(C24*D24)+(C25*D25)</f>
         <v>3850000</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="226" t="s">
+      <c r="A25" s="220" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="322"/>
-      <c r="C25" s="218">
+      <c r="B25" s="317"/>
+      <c r="C25" s="212">
         <f>+AA!I36</f>
         <v>125000</v>
       </c>
-      <c r="D25" s="202">
+      <c r="D25" s="196">
         <v>10</v>
       </c>
-      <c r="E25" s="324"/>
+      <c r="E25" s="320"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="214" t="s">
+      <c r="A26" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="326" t="s">
+      <c r="B26" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="179">
+      <c r="C26" s="173">
         <f>+AA!I45</f>
         <v>260000</v>
       </c>
-      <c r="D26" s="198">
+      <c r="D26" s="192">
         <v>20</v>
       </c>
-      <c r="E26" s="323">
+      <c r="E26" s="318">
         <f>+(C26*D26)+(C27*D27)</f>
         <v>6340000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="216" t="s">
+      <c r="A27" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="327"/>
-      <c r="C27" s="227">
+      <c r="B27" s="325"/>
+      <c r="C27" s="221">
         <f>+AA!I50</f>
         <v>114000</v>
       </c>
-      <c r="D27" s="202">
+      <c r="D27" s="196">
         <v>10</v>
       </c>
-      <c r="E27" s="324"/>
+      <c r="E27" s="320"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="161"/>
-      <c r="E28" s="110"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="155"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="178"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="180" t="s">
+      <c r="B29" s="172"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="181" t="s">
+      <c r="E29" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="321" t="s">
+      <c r="B30" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="179">
+      <c r="C30" s="173">
         <f>+AA!I19</f>
         <v>289000</v>
       </c>
-      <c r="D30" s="205">
+      <c r="D30" s="199">
         <v>10</v>
       </c>
-      <c r="E30" s="323">
+      <c r="E30" s="318">
         <f>+(C30*D30)+(C31*D31)</f>
         <v>10890000</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="192" t="s">
+      <c r="A31" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="322"/>
-      <c r="C31" s="227">
+      <c r="B31" s="317"/>
+      <c r="C31" s="221">
         <f>+AA!I20</f>
         <v>400000</v>
       </c>
-      <c r="D31" s="207">
+      <c r="D31" s="201">
         <v>20</v>
       </c>
-      <c r="E31" s="324"/>
+      <c r="E31" s="320"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="321" t="s">
+      <c r="B32" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="215">
+      <c r="C32" s="209">
         <f>+AA!I21</f>
         <v>700000</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="192">
         <v>5</v>
       </c>
-      <c r="E32" s="323">
+      <c r="E32" s="318">
         <f>+(C32*D32)+(C33*D33)</f>
         <v>20300000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="322"/>
-      <c r="C33" s="218">
+      <c r="B33" s="317"/>
+      <c r="C33" s="212">
         <f>+AA!I24</f>
         <v>1120000</v>
       </c>
-      <c r="D33" s="202">
+      <c r="D33" s="196">
         <v>15</v>
       </c>
-      <c r="E33" s="324"/>
+      <c r="E33" s="320"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="228" t="s">
+      <c r="A34" s="222" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="229">
+      <c r="C34" s="223">
         <f>+AA!I42</f>
         <v>400000</v>
       </c>
-      <c r="D34" s="180">
+      <c r="D34" s="174">
         <v>25</v>
       </c>
-      <c r="E34" s="181">
+      <c r="E34" s="175">
         <f>+C34*D34</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="230" t="s">
+      <c r="A35" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="229">
+      <c r="C35" s="223">
         <f>+AA!I40</f>
         <v>200000</v>
       </c>
-      <c r="D35" s="180">
+      <c r="D35" s="174">
         <v>30</v>
       </c>
-      <c r="E35" s="181">
+      <c r="E35" s="175">
         <f>+C35*D35</f>
         <v>6000000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="112"/>
+      <c r="I36" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E13:E15"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="B24:B25"/>
@@ -10742,6 +10780,18 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10763,788 +10813,778 @@
   <cols>
     <col min="1" max="1" width="95" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="107" customWidth="1"/>
+    <col min="4" max="4" width="35" style="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="203" t="s">
+      <c r="B1" s="172"/>
+      <c r="C1" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="180" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="225" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="183">
+      <c r="C2" s="177">
         <v>10</v>
       </c>
-      <c r="D2" s="323">
+      <c r="D2" s="318">
         <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="225" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="193">
+      <c r="B3" s="325"/>
+      <c r="C3" s="187">
         <v>5</v>
       </c>
-      <c r="D3" s="324"/>
+      <c r="D3" s="320"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="206">
+      <c r="C4" s="200">
         <v>40</v>
       </c>
-      <c r="D4" s="191">
+      <c r="D4" s="185">
         <v>480000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="326" t="s">
+      <c r="B5" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="205">
+      <c r="C5" s="199">
         <v>20</v>
       </c>
-      <c r="D5" s="323">
+      <c r="D5" s="318">
         <v>44000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="227" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="327"/>
-      <c r="C6" s="207">
+      <c r="B6" s="325"/>
+      <c r="C6" s="201">
         <v>20</v>
       </c>
-      <c r="D6" s="324"/>
+      <c r="D6" s="320"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="326" t="s">
+      <c r="B7" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="198">
+      <c r="C7" s="192">
         <v>20</v>
       </c>
-      <c r="D7" s="323">
+      <c r="D7" s="318">
         <v>617000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="228" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="332"/>
-      <c r="C8" s="209">
-        <v>4</v>
-      </c>
-      <c r="D8" s="328"/>
+      <c r="B8" s="326"/>
+      <c r="C8" s="203">
+        <v>4</v>
+      </c>
+      <c r="D8" s="319"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="327"/>
-      <c r="C9" s="202">
+      <c r="B9" s="325"/>
+      <c r="C9" s="196">
         <v>2</v>
       </c>
-      <c r="D9" s="324"/>
+      <c r="D9" s="320"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="176" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="326" t="s">
+      <c r="B10" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="198">
+      <c r="C10" s="192">
         <v>20</v>
       </c>
-      <c r="D10" s="323">
+      <c r="D10" s="318">
         <v>1040000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="228" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="332"/>
-      <c r="C11" s="209">
-        <v>4</v>
-      </c>
-      <c r="D11" s="328"/>
+      <c r="B11" s="326"/>
+      <c r="C11" s="203">
+        <v>4</v>
+      </c>
+      <c r="D11" s="319"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="327"/>
-      <c r="C12" s="207">
+      <c r="B12" s="325"/>
+      <c r="C12" s="201">
         <v>2</v>
       </c>
-      <c r="D12" s="324"/>
+      <c r="D12" s="320"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="212" t="s">
+      <c r="A13" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="326" t="s">
+      <c r="B13" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="198">
+      <c r="C13" s="192">
         <v>20</v>
       </c>
-      <c r="D13" s="323">
+      <c r="D13" s="318">
         <v>260000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="235" t="s">
+      <c r="A14" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="332"/>
-      <c r="C14" s="209">
+      <c r="B14" s="326"/>
+      <c r="C14" s="203">
         <v>20</v>
       </c>
-      <c r="D14" s="328"/>
-      <c r="F14" s="112"/>
+      <c r="D14" s="319"/>
+      <c r="F14" s="106"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="327"/>
-      <c r="C15" s="207">
+      <c r="B15" s="325"/>
+      <c r="C15" s="201">
         <v>10</v>
       </c>
-      <c r="D15" s="324"/>
+      <c r="D15" s="320"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="208" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="198">
+      <c r="C16" s="192">
         <v>20</v>
       </c>
-      <c r="D16" s="186">
+      <c r="D16" s="180">
         <v>40000</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="106"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="230" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="198">
-        <v>4</v>
-      </c>
-      <c r="D17" s="323">
+      <c r="C17" s="192">
+        <v>4</v>
+      </c>
+      <c r="D17" s="318">
         <v>2680000</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="237" t="s">
+      <c r="A18" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="332"/>
-      <c r="C18" s="209">
+      <c r="B18" s="326"/>
+      <c r="C18" s="203">
         <v>2</v>
       </c>
-      <c r="D18" s="328"/>
+      <c r="D18" s="319"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="236" t="s">
+      <c r="A19" s="230" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="198">
+      <c r="C19" s="192">
         <v>20</v>
       </c>
-      <c r="D19" s="323">
+      <c r="D19" s="318">
         <v>1800000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="332"/>
-      <c r="C20" s="209">
+      <c r="B20" s="326"/>
+      <c r="C20" s="203">
         <v>10</v>
       </c>
-      <c r="D20" s="328"/>
+      <c r="D20" s="319"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="238" t="s">
+      <c r="A21" s="232" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="326" t="s">
+      <c r="B21" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="198">
+      <c r="C21" s="192">
         <v>20</v>
       </c>
-      <c r="D21" s="323">
+      <c r="D21" s="318">
         <v>208000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="239" t="s">
+      <c r="A22" s="233" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="327"/>
-      <c r="C22" s="202">
+      <c r="B22" s="325"/>
+      <c r="C22" s="196">
         <v>20</v>
       </c>
-      <c r="D22" s="324"/>
+      <c r="D22" s="320"/>
     </row>
     <row r="23" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="240"/>
-      <c r="B23" s="240"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="242"/>
+      <c r="A23" s="234"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="236"/>
     </row>
     <row r="24" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="180" t="s">
+      <c r="B24" s="172"/>
+      <c r="C24" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="321" t="s">
+      <c r="B25" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="205">
-        <v>4</v>
-      </c>
-      <c r="D25" s="323">
+      <c r="C25" s="199">
+        <v>4</v>
+      </c>
+      <c r="D25" s="318">
         <v>10500000</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="322"/>
-      <c r="C26" s="207">
-        <v>1</v>
-      </c>
-      <c r="D26" s="324"/>
+      <c r="B26" s="317"/>
+      <c r="C26" s="201">
+        <v>1</v>
+      </c>
+      <c r="D26" s="320"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="182" t="s">
+      <c r="A27" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="326" t="s">
+      <c r="B27" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="198">
-        <v>4</v>
-      </c>
-      <c r="D27" s="323">
+      <c r="C27" s="192">
+        <v>4</v>
+      </c>
+      <c r="D27" s="318">
         <v>6800000</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="243" t="s">
+      <c r="A28" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="332"/>
-      <c r="C28" s="209">
+      <c r="B28" s="326"/>
+      <c r="C28" s="203">
         <v>2</v>
       </c>
-      <c r="D28" s="328"/>
+      <c r="D28" s="319"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="212" t="s">
+      <c r="A29" s="206" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="198">
-        <v>4</v>
-      </c>
-      <c r="D29" s="323">
+      <c r="C29" s="192">
+        <v>4</v>
+      </c>
+      <c r="D29" s="318">
         <v>2900000</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="213" t="s">
+      <c r="A30" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="322"/>
-      <c r="C30" s="202">
+      <c r="B30" s="317"/>
+      <c r="C30" s="196">
         <v>2</v>
       </c>
-      <c r="D30" s="324"/>
+      <c r="D30" s="320"/>
     </row>
     <row r="31" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="239" t="s">
+      <c r="A31" s="233" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="202">
-        <v>4</v>
-      </c>
-      <c r="D31" s="191">
+      <c r="C31" s="196">
+        <v>4</v>
+      </c>
+      <c r="D31" s="185">
         <v>1800000</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="239" t="s">
+      <c r="A32" s="233" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="180">
+      <c r="C32" s="174">
         <v>2</v>
       </c>
-      <c r="D32" s="191">
+      <c r="D32" s="185">
         <v>2200000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="236" t="s">
+      <c r="A33" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="326" t="s">
+      <c r="B33" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="198">
-        <v>4</v>
-      </c>
-      <c r="D33" s="323">
+      <c r="C33" s="192">
+        <v>4</v>
+      </c>
+      <c r="D33" s="318">
         <v>4500000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="244" t="s">
+      <c r="A34" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="327"/>
-      <c r="C34" s="202">
+      <c r="B34" s="325"/>
+      <c r="C34" s="196">
         <v>2</v>
       </c>
-      <c r="D34" s="324"/>
+      <c r="D34" s="320"/>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="245"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="241"/>
-      <c r="D35" s="247"/>
+      <c r="A35" s="239"/>
+      <c r="B35" s="240"/>
+      <c r="C35" s="235"/>
+      <c r="D35" s="241"/>
     </row>
     <row r="36" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="171" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="178"/>
-      <c r="C36" s="180" t="s">
+      <c r="B36" s="172"/>
+      <c r="C36" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="221" t="s">
+      <c r="A37" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="205">
+      <c r="C37" s="199">
         <v>10</v>
       </c>
-      <c r="D37" s="181">
+      <c r="D37" s="175">
         <v>3500000</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="221" t="s">
+      <c r="A38" s="215" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="207">
+      <c r="C38" s="201">
         <v>10</v>
       </c>
-      <c r="D38" s="248">
+      <c r="D38" s="242">
         <v>800000</v>
       </c>
-      <c r="G38" s="112"/>
+      <c r="G38" s="106"/>
     </row>
     <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="249" t="s">
+      <c r="A39" s="243" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="321" t="s">
+      <c r="B39" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="198">
+      <c r="C39" s="192">
         <v>2</v>
       </c>
-      <c r="D39" s="323">
+      <c r="D39" s="318">
         <v>5600000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="226" t="s">
+      <c r="A40" s="220" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="322"/>
-      <c r="C40" s="202">
+      <c r="B40" s="317"/>
+      <c r="C40" s="196">
         <v>6</v>
       </c>
-      <c r="D40" s="324"/>
+      <c r="D40" s="320"/>
     </row>
     <row r="41" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="228" t="s">
+      <c r="A41" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="180">
-        <v>4</v>
-      </c>
-      <c r="D41" s="181">
+      <c r="C41" s="174">
+        <v>4</v>
+      </c>
+      <c r="D41" s="175">
         <v>2400000</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="240"/>
-      <c r="B42" s="240"/>
-      <c r="C42" s="241"/>
-      <c r="D42" s="242"/>
-      <c r="H42" s="112"/>
+      <c r="A42" s="234"/>
+      <c r="B42" s="234"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="236"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="B43" s="178"/>
-      <c r="C43" s="180" t="s">
+      <c r="B43" s="172"/>
+      <c r="C43" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="335" t="s">
+      <c r="B44" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="198">
+      <c r="C44" s="192">
         <v>6</v>
       </c>
-      <c r="D44" s="323">
+      <c r="D44" s="318">
         <v>2220000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="336"/>
-      <c r="C45" s="202">
+      <c r="B45" s="330"/>
+      <c r="C45" s="196">
         <v>6</v>
       </c>
-      <c r="D45" s="324"/>
-      <c r="G45" s="112"/>
+      <c r="D45" s="320"/>
+      <c r="G45" s="106"/>
     </row>
     <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="182" t="s">
+      <c r="A46" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="335" t="s">
+      <c r="B46" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="198">
+      <c r="C46" s="192">
         <v>20</v>
       </c>
-      <c r="D46" s="323">
+      <c r="D46" s="318">
         <v>4250000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="186" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="336"/>
-      <c r="C47" s="202">
+      <c r="B47" s="330"/>
+      <c r="C47" s="196">
         <v>10</v>
       </c>
-      <c r="D47" s="324"/>
-      <c r="G47" s="112"/>
+      <c r="D47" s="320"/>
+      <c r="G47" s="106"/>
     </row>
     <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="250" t="s">
+      <c r="A48" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="B48" s="321" t="s">
+      <c r="B48" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="198">
+      <c r="C48" s="192">
         <v>10</v>
       </c>
-      <c r="D48" s="323">
+      <c r="D48" s="318">
         <v>4500000</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="251" t="s">
+      <c r="A49" s="245" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="321"/>
-      <c r="C49" s="209">
+      <c r="B49" s="316"/>
+      <c r="C49" s="203">
         <v>10</v>
       </c>
-      <c r="D49" s="328"/>
+      <c r="D49" s="319"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="251" t="s">
+      <c r="A50" s="245" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="322"/>
-      <c r="C50" s="202">
+      <c r="B50" s="317"/>
+      <c r="C50" s="196">
         <v>20</v>
       </c>
-      <c r="D50" s="324"/>
+      <c r="D50" s="320"/>
     </row>
     <row r="51" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="223" t="s">
+      <c r="A51" s="217" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="180">
+      <c r="C51" s="174">
         <v>16</v>
       </c>
-      <c r="D51" s="181">
+      <c r="D51" s="175">
         <v>2400000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="240"/>
-      <c r="B52" s="240"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="242"/>
+      <c r="A52" s="234"/>
+      <c r="B52" s="234"/>
+      <c r="C52" s="235"/>
+      <c r="D52" s="236"/>
     </row>
     <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="177" t="s">
+      <c r="A53" s="171" t="s">
         <v>237</v>
       </c>
-      <c r="B53" s="178"/>
-      <c r="C53" s="180" t="s">
+      <c r="B53" s="172"/>
+      <c r="C53" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="182" t="s">
+      <c r="A54" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="326" t="s">
+      <c r="B54" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="205">
+      <c r="C54" s="199">
         <v>60</v>
       </c>
-      <c r="D54" s="323">
+      <c r="D54" s="318">
         <v>4260000</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="192" t="s">
+      <c r="A55" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="327"/>
-      <c r="C55" s="207">
+      <c r="B55" s="325"/>
+      <c r="C55" s="201">
         <v>60</v>
       </c>
-      <c r="D55" s="324"/>
+      <c r="D55" s="320"/>
     </row>
     <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="182" t="s">
+      <c r="A56" s="176" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="326" t="s">
+      <c r="B56" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="198">
+      <c r="C56" s="192">
         <v>60</v>
       </c>
-      <c r="D56" s="323">
+      <c r="D56" s="318">
         <v>900000</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="233" t="s">
+      <c r="A57" s="227" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="332"/>
-      <c r="C57" s="209">
+      <c r="B57" s="326"/>
+      <c r="C57" s="203">
         <v>60</v>
       </c>
-      <c r="D57" s="328"/>
+      <c r="D57" s="319"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="252" t="s">
+      <c r="A58" s="246" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="327"/>
-      <c r="C58" s="207">
+      <c r="B58" s="325"/>
+      <c r="C58" s="201">
         <v>60</v>
       </c>
-      <c r="D58" s="324"/>
+      <c r="D58" s="320"/>
     </row>
     <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="251" t="s">
+      <c r="A59" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="333" t="s">
+      <c r="B59" s="327" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="198">
+      <c r="C59" s="192">
         <v>60</v>
       </c>
-      <c r="D59" s="329">
+      <c r="D59" s="321">
         <v>260000</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="251" t="s">
+      <c r="A60" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="334"/>
-      <c r="C60" s="200">
+      <c r="B60" s="328"/>
+      <c r="C60" s="194">
         <v>60</v>
       </c>
-      <c r="D60" s="330"/>
+      <c r="D60" s="322"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="251" t="s">
+      <c r="A61" s="245" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="334"/>
-      <c r="C61" s="200">
+      <c r="B61" s="328"/>
+      <c r="C61" s="194">
         <v>60</v>
       </c>
-      <c r="D61" s="330"/>
+      <c r="D61" s="322"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="253" t="s">
+      <c r="A62" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="334"/>
-      <c r="C62" s="202">
+      <c r="B62" s="328"/>
+      <c r="C62" s="196">
         <v>60</v>
       </c>
-      <c r="D62" s="330"/>
+      <c r="D62" s="322"/>
     </row>
     <row r="63" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="223" t="s">
+      <c r="A63" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="203" t="s">
+      <c r="B63" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="209">
+      <c r="C63" s="203">
         <v>60</v>
       </c>
-      <c r="D63" s="186">
+      <c r="D63" s="180">
         <v>150000</v>
       </c>
-      <c r="F63" s="112"/>
+      <c r="F63" s="106"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="228" t="s">
+      <c r="A64" s="222" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="180" t="s">
+      <c r="B64" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="180">
+      <c r="C64" s="174">
         <v>60</v>
       </c>
-      <c r="D64" s="181">
+      <c r="D64" s="175">
         <v>2100000</v>
       </c>
-      <c r="F64" s="112"/>
+      <c r="F64" s="106"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" s="112"/>
+      <c r="H66" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="B39:B40"/>
@@ -11561,12 +11601,22 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11580,7 +11630,7 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="D46" sqref="A1:D46"/>
     </sheetView>
   </sheetViews>
@@ -11589,468 +11639,468 @@
     <col min="1" max="1" width="64" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="107" customWidth="1"/>
+    <col min="4" max="4" width="37" style="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="248" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="258" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="264" t="s">
+      <c r="C1" s="258" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="266" t="s">
+      <c r="D1" s="260" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="249" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="346" t="s">
+      <c r="B2" s="340" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="198">
-        <v>4</v>
-      </c>
-      <c r="D2" s="349">
+      <c r="C2" s="192">
+        <v>4</v>
+      </c>
+      <c r="D2" s="343">
         <v>10374000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="200">
+      <c r="B3" s="341"/>
+      <c r="C3" s="194">
         <v>10</v>
       </c>
-      <c r="D3" s="350"/>
+      <c r="D3" s="344"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="250" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="347"/>
-      <c r="C4" s="200">
+      <c r="B4" s="341"/>
+      <c r="C4" s="194">
         <v>2</v>
       </c>
-      <c r="D4" s="350"/>
+      <c r="D4" s="344"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="347"/>
-      <c r="C5" s="200">
+      <c r="B5" s="341"/>
+      <c r="C5" s="194">
         <v>2</v>
       </c>
-      <c r="D5" s="350"/>
+      <c r="D5" s="344"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="250" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="347"/>
-      <c r="C6" s="200">
+      <c r="B6" s="341"/>
+      <c r="C6" s="194">
         <v>16</v>
       </c>
-      <c r="D6" s="350"/>
+      <c r="D6" s="344"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="256" t="s">
+      <c r="A7" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="347"/>
-      <c r="C7" s="200">
+      <c r="B7" s="341"/>
+      <c r="C7" s="194">
         <v>8</v>
       </c>
-      <c r="D7" s="350"/>
+      <c r="D7" s="344"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="256" t="s">
+      <c r="A8" s="250" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="347"/>
-      <c r="C8" s="200">
+      <c r="B8" s="341"/>
+      <c r="C8" s="194">
         <v>20</v>
       </c>
-      <c r="D8" s="350"/>
+      <c r="D8" s="344"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="256" t="s">
+      <c r="A9" s="250" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="347"/>
-      <c r="C9" s="200">
+      <c r="B9" s="341"/>
+      <c r="C9" s="194">
         <v>20</v>
       </c>
-      <c r="D9" s="350"/>
+      <c r="D9" s="344"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="347"/>
-      <c r="C10" s="200">
+      <c r="B10" s="341"/>
+      <c r="C10" s="194">
         <v>10</v>
       </c>
-      <c r="D10" s="350"/>
+      <c r="D10" s="344"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="256" t="s">
+      <c r="A11" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="347"/>
-      <c r="C11" s="200">
-        <v>4</v>
-      </c>
-      <c r="D11" s="350"/>
+      <c r="B11" s="341"/>
+      <c r="C11" s="194">
+        <v>4</v>
+      </c>
+      <c r="D11" s="344"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="347"/>
-      <c r="C12" s="200">
-        <v>4</v>
-      </c>
-      <c r="D12" s="350"/>
+      <c r="B12" s="341"/>
+      <c r="C12" s="194">
+        <v>4</v>
+      </c>
+      <c r="D12" s="344"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="256" t="s">
+      <c r="A13" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="347"/>
-      <c r="C13" s="200">
-        <v>4</v>
-      </c>
-      <c r="D13" s="350"/>
+      <c r="B13" s="341"/>
+      <c r="C13" s="194">
+        <v>4</v>
+      </c>
+      <c r="D13" s="344"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="256" t="s">
+      <c r="A14" s="250" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="347"/>
-      <c r="C14" s="200">
+      <c r="B14" s="341"/>
+      <c r="C14" s="194">
         <v>2</v>
       </c>
-      <c r="D14" s="350"/>
+      <c r="D14" s="344"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="256" t="s">
+      <c r="A15" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="347"/>
-      <c r="C15" s="200">
+      <c r="B15" s="341"/>
+      <c r="C15" s="194">
         <v>20</v>
       </c>
-      <c r="D15" s="350"/>
+      <c r="D15" s="344"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="256" t="s">
+      <c r="A16" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="347"/>
-      <c r="C16" s="200">
+      <c r="B16" s="341"/>
+      <c r="C16" s="194">
         <v>20</v>
       </c>
-      <c r="D16" s="350"/>
+      <c r="D16" s="344"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="256" t="s">
+      <c r="A17" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="347"/>
-      <c r="C17" s="200">
+      <c r="B17" s="341"/>
+      <c r="C17" s="194">
         <v>6</v>
       </c>
-      <c r="D17" s="350"/>
+      <c r="D17" s="344"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="256" t="s">
+      <c r="A18" s="250" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="347"/>
-      <c r="C18" s="200">
+      <c r="B18" s="341"/>
+      <c r="C18" s="194">
         <v>8</v>
       </c>
-      <c r="D18" s="350"/>
+      <c r="D18" s="344"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="258" t="s">
+      <c r="A19" s="252" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="348"/>
-      <c r="C19" s="202">
-        <v>4</v>
-      </c>
-      <c r="D19" s="351"/>
+      <c r="B19" s="342"/>
+      <c r="C19" s="196">
+        <v>4</v>
+      </c>
+      <c r="D19" s="345"/>
     </row>
     <row r="20" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="245"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="110"/>
+      <c r="A20" s="239"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="104"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="259" t="s">
+      <c r="A21" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="340" t="s">
+      <c r="B21" s="334" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="198">
+      <c r="C21" s="192">
         <v>2</v>
       </c>
-      <c r="D21" s="352">
+      <c r="D21" s="346">
         <v>11700000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="245" t="s">
+      <c r="A22" s="239" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="341"/>
-      <c r="C22" s="200">
-        <v>1</v>
-      </c>
-      <c r="D22" s="353"/>
+      <c r="B22" s="335"/>
+      <c r="C22" s="194">
+        <v>1</v>
+      </c>
+      <c r="D22" s="347"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="260" t="s">
+      <c r="A23" s="254" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="341"/>
-      <c r="C23" s="200">
+      <c r="B23" s="335"/>
+      <c r="C23" s="194">
         <v>2</v>
       </c>
-      <c r="D23" s="353"/>
+      <c r="D23" s="347"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="260" t="s">
+      <c r="A24" s="254" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="341"/>
-      <c r="C24" s="200">
-        <v>1</v>
-      </c>
-      <c r="D24" s="353"/>
+      <c r="B24" s="335"/>
+      <c r="C24" s="194">
+        <v>1</v>
+      </c>
+      <c r="D24" s="347"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="261" t="s">
+      <c r="A25" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="341"/>
-      <c r="C25" s="200">
-        <v>1</v>
-      </c>
-      <c r="D25" s="353"/>
+      <c r="B25" s="335"/>
+      <c r="C25" s="194">
+        <v>1</v>
+      </c>
+      <c r="D25" s="347"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="245" t="s">
+      <c r="A26" s="239" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="341"/>
-      <c r="C26" s="207">
-        <v>1</v>
-      </c>
-      <c r="D26" s="353"/>
+      <c r="B26" s="335"/>
+      <c r="C26" s="201">
+        <v>1</v>
+      </c>
+      <c r="D26" s="347"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="256" t="s">
+      <c r="A27" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="341"/>
-      <c r="C27" s="207">
+      <c r="B27" s="335"/>
+      <c r="C27" s="201">
         <v>2</v>
       </c>
-      <c r="D27" s="353"/>
+      <c r="D27" s="347"/>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="262" t="s">
+      <c r="A28" s="256" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="342"/>
-      <c r="C28" s="202">
-        <v>1</v>
-      </c>
-      <c r="D28" s="354"/>
+      <c r="B28" s="336"/>
+      <c r="C28" s="196">
+        <v>1</v>
+      </c>
+      <c r="D28" s="348"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="240"/>
-      <c r="C29" s="241"/>
-      <c r="H29" s="112"/>
+      <c r="A29" s="234"/>
+      <c r="C29" s="235"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="259" t="s">
+      <c r="A30" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="355" t="s">
+      <c r="B30" s="349" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="198">
+      <c r="C30" s="192">
         <v>2</v>
       </c>
-      <c r="D30" s="337">
+      <c r="D30" s="331">
         <v>640000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="260" t="s">
+      <c r="A31" s="254" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="356"/>
-      <c r="C31" s="200">
+      <c r="B31" s="350"/>
+      <c r="C31" s="194">
         <v>6</v>
       </c>
-      <c r="D31" s="338"/>
+      <c r="D31" s="332"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="260" t="s">
+      <c r="A32" s="254" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="356"/>
-      <c r="C32" s="200">
+      <c r="B32" s="350"/>
+      <c r="C32" s="194">
         <v>2</v>
       </c>
-      <c r="D32" s="338"/>
+      <c r="D32" s="332"/>
     </row>
     <row r="33" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="262" t="s">
+      <c r="A33" s="256" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="357"/>
-      <c r="C33" s="202">
+      <c r="B33" s="351"/>
+      <c r="C33" s="196">
         <v>2</v>
       </c>
-      <c r="D33" s="339"/>
+      <c r="D33" s="333"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="240"/>
-      <c r="C34" s="241"/>
+      <c r="A34" s="234"/>
+      <c r="C34" s="235"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="259" t="s">
+      <c r="A35" s="253" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="340" t="s">
+      <c r="B35" s="334" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="198">
-        <v>4</v>
-      </c>
-      <c r="D35" s="343">
+      <c r="C35" s="192">
+        <v>4</v>
+      </c>
+      <c r="D35" s="337">
         <v>31130000</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="260" t="s">
+      <c r="A36" s="254" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="341"/>
-      <c r="C36" s="200">
+      <c r="B36" s="335"/>
+      <c r="C36" s="194">
         <v>2</v>
       </c>
-      <c r="D36" s="344"/>
+      <c r="D36" s="338"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="260" t="s">
+      <c r="A37" s="254" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="341"/>
-      <c r="C37" s="200">
-        <v>1</v>
-      </c>
-      <c r="D37" s="344"/>
+      <c r="B37" s="335"/>
+      <c r="C37" s="194">
+        <v>1</v>
+      </c>
+      <c r="D37" s="338"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="254" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="341"/>
-      <c r="C38" s="200">
-        <v>1</v>
-      </c>
-      <c r="D38" s="344"/>
+      <c r="B38" s="335"/>
+      <c r="C38" s="194">
+        <v>1</v>
+      </c>
+      <c r="D38" s="338"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="260" t="s">
+      <c r="A39" s="254" t="s">
         <v>262</v>
       </c>
-      <c r="B39" s="341"/>
-      <c r="C39" s="200">
+      <c r="B39" s="335"/>
+      <c r="C39" s="194">
         <v>2</v>
       </c>
-      <c r="D39" s="344"/>
+      <c r="D39" s="338"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="260" t="s">
+      <c r="A40" s="254" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="341"/>
-      <c r="C40" s="200">
+      <c r="B40" s="335"/>
+      <c r="C40" s="194">
         <v>2</v>
       </c>
-      <c r="D40" s="344"/>
+      <c r="D40" s="338"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="260" t="s">
+      <c r="A41" s="254" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="341"/>
-      <c r="C41" s="207">
+      <c r="B41" s="335"/>
+      <c r="C41" s="201">
         <v>2</v>
       </c>
-      <c r="D41" s="344"/>
+      <c r="D41" s="338"/>
     </row>
     <row r="42" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="262" t="s">
+      <c r="A42" s="256" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="342"/>
-      <c r="C42" s="202">
+      <c r="B42" s="336"/>
+      <c r="C42" s="196">
         <v>2</v>
       </c>
-      <c r="D42" s="345"/>
+      <c r="D42" s="339"/>
     </row>
     <row r="43" spans="1:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="240"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="138"/>
+      <c r="A43" s="234"/>
+      <c r="C43" s="235"/>
+      <c r="D43" s="132"/>
     </row>
     <row r="44" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="263" t="s">
+      <c r="A44" s="257" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="264" t="s">
+      <c r="B44" s="258" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="180">
+      <c r="C44" s="174">
         <v>60</v>
       </c>
-      <c r="D44" s="265">
+      <c r="D44" s="259">
         <v>1200000</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="240"/>
-      <c r="C45" s="241"/>
+      <c r="A45" s="234"/>
+      <c r="C45" s="235"/>
     </row>
     <row r="46" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="263" t="s">
+      <c r="A46" s="257" t="s">
         <v>258</v>
       </c>
-      <c r="B46" s="264" t="s">
+      <c r="B46" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="180">
-        <v>1</v>
-      </c>
-      <c r="D46" s="265">
+      <c r="C46" s="174">
+        <v>1</v>
+      </c>
+      <c r="D46" s="259">
         <v>7000000</v>
       </c>
     </row>
